--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -6790,7 +6790,7 @@
         <v>2.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>2.33</v>
@@ -9835,7 +9835,7 @@
         <v>0.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>2</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT67" t="n">
         <v>0.67</v>
@@ -16128,7 +16128,7 @@
         <v>0.2</v>
       </c>
       <c r="AT77" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU77" t="n">
         <v>0</v>
@@ -16531,7 +16531,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>1.25</v>
@@ -18616,6 +18616,209 @@
       </c>
       <c r="BK89" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5337607</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45037.79166666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['13', '26']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>8</v>
+      </c>
+      <c r="S90" t="n">
+        <v>11</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT6" t="n">
         <v>0.5</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT9" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>0.67</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT22" t="n">
         <v>1.25</v>
@@ -5166,7 +5166,7 @@
         <v>2.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT25" t="n">
         <v>2.33</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT28" t="n">
         <v>1.25</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT35" t="n">
         <v>2</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>2.67</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
         <v>0.67</v>
@@ -11256,7 +11256,7 @@
         <v>2.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT58" t="n">
         <v>0.6</v>
@@ -13083,7 +13083,7 @@
         <v>0.6</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU62" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>2.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT65" t="n">
         <v>1.6</v>
@@ -15722,7 +15722,7 @@
         <v>0.6</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU75" t="n">
         <v>0</v>
@@ -15922,7 +15922,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT76" t="n">
         <v>0.67</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
@@ -18671,12 +18671,12 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['13', '26']</t>
+          <t>['11', '25']</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>['39']</t>
+          <t>['38']</t>
         </is>
       </c>
       <c r="Q90" t="n">
@@ -18818,6 +18818,615 @@
         <v>7</v>
       </c>
       <c r="BK90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5337611</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45038.52083333334</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>11</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>14</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5337606</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45038.75</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="n">
+        <v>4</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['65', '90+8']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['13', '81']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>14</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>15</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5337604</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>9</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V93" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK93" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.71</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>1.83</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT16" t="n">
         <v>2</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT24" t="n">
         <v>0.5</v>
@@ -5775,7 +5775,7 @@
         <v>2.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT27" t="n">
         <v>1.6</v>
@@ -6181,7 +6181,7 @@
         <v>1.43</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT33" t="n">
         <v>0.67</v>
@@ -7399,7 +7399,7 @@
         <v>0.67</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1.2</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT38" t="n">
         <v>1.25</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT43" t="n">
         <v>0.6</v>
@@ -9632,7 +9632,7 @@
         <v>2.2</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
         <v>1.67</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT50" t="n">
         <v>1.25</v>
@@ -10847,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT51" t="n">
         <v>1.83</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -12877,10 +12877,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU61" t="n">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
         <v>0.71</v>
@@ -13895,7 +13895,7 @@
         <v>2.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -14301,7 +14301,7 @@
         <v>2.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
@@ -15313,7 +15313,7 @@
         <v>1.25</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT73" t="n">
         <v>1.83</v>
@@ -15516,7 +15516,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -15719,7 +15719,7 @@
         <v>0.4</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>0.57</v>
@@ -15925,7 +15925,7 @@
         <v>1.43</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
@@ -16331,7 +16331,7 @@
         <v>2.2</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>0</v>
@@ -16534,7 +16534,7 @@
         <v>2</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU79" t="n">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AT80" t="n">
         <v>0.6</v>
@@ -17549,7 +17549,7 @@
         <v>2.71</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU84" t="n">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AT85" t="n">
         <v>1.6</v>
@@ -18879,7 +18879,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['31']</t>
         </is>
       </c>
       <c r="Q91" t="n">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>['13', '81']</t>
+          <t>['12', '81']</t>
         </is>
       </c>
       <c r="Q92" t="n">
@@ -19285,7 +19285,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>['41']</t>
+          <t>['40']</t>
         </is>
       </c>
       <c r="Q93" t="n">
@@ -19428,6 +19428,818 @@
       </c>
       <c r="BK93" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5337610</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45039.64583333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['5', '63']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>6</v>
+      </c>
+      <c r="T94" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V94" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>5337605</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45039.77083333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['34', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>6</v>
+      </c>
+      <c r="S95" t="n">
+        <v>9</v>
+      </c>
+      <c r="T95" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5337609</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45040.64583333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>5</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>5337608</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45040.83333333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>10</v>
+      </c>
+      <c r="R97" t="n">
+        <v>6</v>
+      </c>
+      <c r="S97" t="n">
+        <v>16</v>
+      </c>
+      <c r="T97" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -19889,7 +19889,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT3" t="n">
         <v>0.71</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.67</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.43</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT14" t="n">
         <v>0.71</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT23" t="n">
         <v>0.71</v>
@@ -5369,7 +5369,7 @@
         <v>2.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5572,7 +5572,7 @@
         <v>0.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT29" t="n">
         <v>0.6</v>
@@ -7196,7 +7196,7 @@
         <v>0.83</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT37" t="n">
         <v>0.57</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>1.43</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT45" t="n">
         <v>0.71</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT47" t="n">
         <v>1.83</v>
@@ -10444,7 +10444,7 @@
         <v>1.43</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT53" t="n">
         <v>0.57</v>
@@ -11659,7 +11659,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT55" t="n">
         <v>0.43</v>
@@ -11865,7 +11865,7 @@
         <v>0.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>1.2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>2</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU69" t="n">
         <v>0</v>
@@ -14907,10 +14907,10 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU71" t="n">
         <v>0</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>2.67</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU82" t="n">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>0.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>0</v>
@@ -17546,7 +17546,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT84" t="n">
         <v>0.43</v>
@@ -17952,7 +17952,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18158,7 +18158,7 @@
         <v>2.4</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AU87" t="n">
         <v>0</v>
@@ -20239,6 +20239,615 @@
         <v>6</v>
       </c>
       <c r="BK97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5337614</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45044.64583333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>13</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="n">
+        <v>4</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['35', '58', '65']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>7</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>7</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X98" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>5337613</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45044.83333333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>13</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['40', '51']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>6</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>5337615</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45045.41666666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>13</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['35', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>7</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>11</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK100" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>1.43</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT31" t="n">
         <v>1.67</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT36" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>2.17</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT44" t="n">
         <v>0.71</v>
@@ -10647,7 +10647,7 @@
         <v>1.43</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT57" t="n">
         <v>0.43</v>
@@ -13283,7 +13283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT63" t="n">
         <v>0.57</v>
@@ -13692,7 +13692,7 @@
         <v>0.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>0</v>
@@ -14704,10 +14704,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>0</v>
@@ -17140,7 +17140,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT82" t="n">
         <v>0.43</v>
@@ -17752,7 +17752,7 @@
         <v>1.43</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU85" t="n">
         <v>0</v>
@@ -18358,7 +18358,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT88" t="n">
         <v>1.83</v>
@@ -20295,12 +20295,12 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['45+1']</t>
+          <t>['45']</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>['35', '58', '65']</t>
+          <t>['34', '58', '65']</t>
         </is>
       </c>
       <c r="Q98" t="n">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['40', '51']</t>
+          <t>['39', '51']</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -20833,22 +20833,428 @@
         <v>3.6</v>
       </c>
       <c r="BF100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG100" t="n">
         <v>4</v>
       </c>
       <c r="BH100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>5337616</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>13</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>13</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>17</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA101" t="n">
         <v>9</v>
       </c>
-      <c r="BI100" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ100" t="n">
+      <c r="AB101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5337617</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45045.79166666666</v>
+      </c>
+      <c r="F102" t="n">
         <v>13</v>
       </c>
-      <c r="BK100" t="n">
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>3</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['27', '45', '56']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG102" t="n">
         <v>9</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.6</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.67</v>
@@ -3745,7 +3745,7 @@
         <v>0.83</v>
       </c>
       <c r="AT16" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0.71</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.71</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>0.33</v>
       </c>
       <c r="AT35" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>2.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU47" t="n">
         <v>0</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>2.17</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU51" t="n">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -13892,7 +13892,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>0.43</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.43</v>
@@ -15113,7 +15113,7 @@
         <v>0.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
@@ -15316,7 +15316,7 @@
         <v>1.43</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU73" t="n">
         <v>0</v>
@@ -17955,7 +17955,7 @@
         <v>0.83</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU86" t="n">
         <v>0</v>
@@ -18155,7 +18155,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>2.43</v>
@@ -18361,7 +18361,7 @@
         <v>1.17</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU88" t="n">
         <v>0</v>
@@ -21036,22 +21036,22 @@
         <v>3.34</v>
       </c>
       <c r="BF101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH101" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI101" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ101" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BK101" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -21255,6 +21255,412 @@
       </c>
       <c r="BK102" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5337619</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="n">
+        <v>4</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['2', '18', '37', '79']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5337612</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45046.75</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['33', '44', '61']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['22', '82']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>12</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>13</v>
+      </c>
+      <c r="T104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK104"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT2" t="n">
         <v>0.71</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT21" t="n">
         <v>0.57</v>
@@ -6384,7 +6384,7 @@
         <v>1.83</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT34" t="n">
         <v>0.43</v>
@@ -9226,7 +9226,7 @@
         <v>0.83</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT56" t="n">
         <v>2.43</v>
@@ -12271,7 +12271,7 @@
         <v>1.43</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU58" t="n">
         <v>0</v>
@@ -15110,7 +15110,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT72" t="n">
         <v>2.17</v>
@@ -15558,19 +15558,19 @@
         <v>4</v>
       </c>
       <c r="BG74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ74" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK74" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -15967,16 +15967,16 @@
         <v>4</v>
       </c>
       <c r="BH76" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BI76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ76" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK76" t="n">
         <v>7</v>
-      </c>
-      <c r="BK76" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -16170,16 +16170,16 @@
         <v>4</v>
       </c>
       <c r="BH77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI77" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BK77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -16370,19 +16370,19 @@
         <v>4</v>
       </c>
       <c r="BG78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH78" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI78" t="n">
         <v>4</v>
       </c>
       <c r="BJ78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -16573,13 +16573,13 @@
         <v>0</v>
       </c>
       <c r="BG79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH79" t="n">
         <v>4</v>
       </c>
       <c r="BI79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ79" t="n">
         <v>4</v>
@@ -16737,7 +16737,7 @@
         <v>2.17</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -16773,22 +16773,22 @@
         <v>2.88</v>
       </c>
       <c r="BF80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG80" t="n">
         <v>4</v>
-      </c>
-      <c r="BG80" t="n">
-        <v>2</v>
       </c>
       <c r="BH80" t="n">
         <v>5</v>
       </c>
       <c r="BI80" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ80" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK80" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -16979,19 +16979,19 @@
         <v>5</v>
       </c>
       <c r="BG81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH81" t="n">
         <v>7</v>
       </c>
       <c r="BI81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ81" t="n">
         <v>12</v>
       </c>
       <c r="BK81" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -17179,22 +17179,22 @@
         <v>3.34</v>
       </c>
       <c r="BF82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ82" t="n">
         <v>6</v>
       </c>
-      <c r="BG82" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH82" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ82" t="n">
-        <v>10</v>
-      </c>
       <c r="BK82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -17343,7 +17343,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17385,19 +17385,19 @@
         <v>2</v>
       </c>
       <c r="BG83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI83" t="n">
         <v>6</v>
       </c>
       <c r="BJ83" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK83" t="n">
         <v>10</v>
-      </c>
-      <c r="BK83" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -17585,22 +17585,22 @@
         <v>4.1</v>
       </c>
       <c r="BF84" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG84" t="n">
         <v>0</v>
       </c>
       <c r="BH84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ84" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BK84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -17788,22 +17788,22 @@
         <v>3.2</v>
       </c>
       <c r="BF85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI85" t="n">
         <v>6</v>
       </c>
       <c r="BJ85" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BK85" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
@@ -17991,22 +17991,22 @@
         <v>3.34</v>
       </c>
       <c r="BF86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BI86" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ86" t="n">
         <v>7</v>
       </c>
       <c r="BK86" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -18194,22 +18194,22 @@
         <v>3.4</v>
       </c>
       <c r="BF87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI87" t="n">
         <v>4</v>
       </c>
       <c r="BJ87" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK87" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
@@ -18397,22 +18397,22 @@
         <v>3.34</v>
       </c>
       <c r="BF88" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK88" t="n">
         <v>4</v>
-      </c>
-      <c r="BH88" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI88" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ88" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK88" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -18567,13 +18567,13 @@
         <v>1</v>
       </c>
       <c r="AU89" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AV89" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="AX89" t="n">
         <v>2</v>
@@ -18770,13 +18770,13 @@
         <v>1.67</v>
       </c>
       <c r="AU90" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AV90" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AW90" t="n">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AX90" t="n">
         <v>1.8</v>
@@ -18803,22 +18803,22 @@
         <v>4</v>
       </c>
       <c r="BF90" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG90" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BH90" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI90" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BJ90" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BK90" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -18973,13 +18973,13 @@
         <v>0.71</v>
       </c>
       <c r="AU91" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AV91" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AW91" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AX91" t="n">
         <v>2</v>
@@ -19006,22 +19006,22 @@
         <v>3.88</v>
       </c>
       <c r="BF91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK91" t="n">
         <v>4</v>
-      </c>
-      <c r="BH91" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI91" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ91" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK91" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -19176,13 +19176,13 @@
         <v>0.57</v>
       </c>
       <c r="AU92" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="AV92" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="AW92" t="n">
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="AX92" t="n">
         <v>2.4</v>
@@ -19212,19 +19212,19 @@
         <v>9</v>
       </c>
       <c r="BG92" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH92" t="n">
         <v>10</v>
       </c>
       <c r="BI92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ92" t="n">
         <v>19</v>
       </c>
       <c r="BK92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
@@ -19379,13 +19379,13 @@
         <v>1</v>
       </c>
       <c r="AU93" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AV93" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AW93" t="n">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="AX93" t="n">
         <v>1.48</v>
@@ -19418,16 +19418,16 @@
         <v>7</v>
       </c>
       <c r="BH93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK93" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -19582,13 +19582,13 @@
         <v>0.43</v>
       </c>
       <c r="AU94" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AV94" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AW94" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AX94" t="n">
         <v>2.1</v>
@@ -19615,10 +19615,10 @@
         <v>3.8</v>
       </c>
       <c r="BF94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH94" t="n">
         <v>6</v>
@@ -19627,10 +19627,10 @@
         <v>2</v>
       </c>
       <c r="BJ94" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK94" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -19785,13 +19785,13 @@
         <v>1.6</v>
       </c>
       <c r="AU95" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AV95" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AW95" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="AX95" t="n">
         <v>4.32</v>
@@ -19821,13 +19821,13 @@
         <v>5</v>
       </c>
       <c r="BG95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BH95" t="n">
         <v>3</v>
       </c>
       <c r="BI95" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ95" t="n">
         <v>8</v>
@@ -19988,13 +19988,13 @@
         <v>0.71</v>
       </c>
       <c r="AU96" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AV96" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AW96" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AX96" t="n">
         <v>1.45</v>
@@ -20021,22 +20021,22 @@
         <v>3.2</v>
       </c>
       <c r="BF96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI96" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -20191,13 +20191,13 @@
         <v>1</v>
       </c>
       <c r="AU97" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AV97" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AW97" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AX97" t="n">
         <v>3.1</v>
@@ -20224,10 +20224,10 @@
         <v>3.34</v>
       </c>
       <c r="BF97" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH97" t="n">
         <v>4</v>
@@ -20236,10 +20236,10 @@
         <v>6</v>
       </c>
       <c r="BJ97" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BK97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -20394,13 +20394,13 @@
         <v>1</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AV98" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AW98" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="AX98" t="n">
         <v>2.12</v>
@@ -20427,22 +20427,22 @@
         <v>3.08</v>
       </c>
       <c r="BF98" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG98" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI98" t="n">
         <v>7</v>
       </c>
       <c r="BJ98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BK98" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -20597,13 +20597,13 @@
         <v>0.43</v>
       </c>
       <c r="AU99" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AV99" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AW99" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AX99" t="n">
         <v>1.33</v>
@@ -20630,19 +20630,19 @@
         <v>3.4</v>
       </c>
       <c r="BF99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH99" t="n">
         <v>6</v>
       </c>
       <c r="BI99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ99" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK99" t="n">
         <v>6</v>
@@ -20800,13 +20800,13 @@
         <v>2.43</v>
       </c>
       <c r="AU100" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AV100" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AW100" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="AX100" t="n">
         <v>1.5</v>
@@ -20833,22 +20833,22 @@
         <v>3.6</v>
       </c>
       <c r="BF100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG100" t="n">
         <v>4</v>
       </c>
       <c r="BH100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI100" t="n">
         <v>5</v>
       </c>
-      <c r="BI100" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ100" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -21003,13 +21003,13 @@
         <v>1.5</v>
       </c>
       <c r="AU101" t="n">
-        <v>1.39</v>
+        <v>2.23</v>
       </c>
       <c r="AV101" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AW101" t="n">
-        <v>2.86</v>
+        <v>2.23</v>
       </c>
       <c r="AX101" t="n">
         <v>2.05</v>
@@ -21036,22 +21036,22 @@
         <v>3.34</v>
       </c>
       <c r="BF101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BG101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH101" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BI101" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ101" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BK101" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -21107,7 +21107,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>['27', '45', '56']</t>
+          <t>['26', '44', '56']</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
@@ -21206,13 +21206,13 @@
         <v>1</v>
       </c>
       <c r="AU102" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AV102" t="n">
         <v>0</v>
       </c>
       <c r="AW102" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AX102" t="n">
         <v>1.18</v>
@@ -21239,22 +21239,22 @@
         <v>3</v>
       </c>
       <c r="BF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH102" t="n">
         <v>6</v>
       </c>
-      <c r="BG102" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH102" t="n">
-        <v>4</v>
-      </c>
       <c r="BI102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ102" t="n">
         <v>10</v>
       </c>
       <c r="BK102" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
@@ -21315,7 +21315,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>['2', '18', '37', '79']</t>
+          <t>['1', '17', '36', '79']</t>
         </is>
       </c>
       <c r="Q103" t="n">
@@ -21409,13 +21409,13 @@
         <v>2.17</v>
       </c>
       <c r="AU103" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AV103" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AW103" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AX103" t="n">
         <v>2.1</v>
@@ -21442,22 +21442,22 @@
         <v>3.15</v>
       </c>
       <c r="BF103" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BH103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI103" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ103" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BK103" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
@@ -21615,10 +21615,10 @@
         <v>0</v>
       </c>
       <c r="AV104" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="AW104" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="AX104" t="n">
         <v>1.85</v>
@@ -21645,22 +21645,225 @@
         <v>3.1</v>
       </c>
       <c r="BF104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5337618</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45049.64583333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>7</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V105" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA105" t="n">
         <v>11</v>
       </c>
-      <c r="BG104" t="n">
+      <c r="AB105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
         <v>5</v>
       </c>
-      <c r="BH104" t="n">
+      <c r="BI105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK105" t="n">
         <v>6</v>
-      </c>
-      <c r="BI104" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ104" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK104" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.71</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT4" t="n">
         <v>0.57</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT18" t="n">
         <v>0.43</v>
@@ -5166,7 +5166,7 @@
         <v>2.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>2.2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT40" t="n">
         <v>2.43</v>
@@ -9429,7 +9429,7 @@
         <v>2.71</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU44" t="n">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT54" t="n">
         <v>2.17</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU62" t="n">
         <v>0</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -16531,7 +16531,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT79" t="n">
         <v>1.6</v>
@@ -16940,7 +16940,7 @@
         <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU81" t="n">
         <v>0</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -18970,7 +18970,7 @@
         <v>0.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>0</v>
@@ -21864,6 +21864,209 @@
       </c>
       <c r="BK105" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5337620</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45051.79166666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['90+4', '90+8']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['21', '37']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>10</v>
+      </c>
+      <c r="T106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK106"/>
+  <dimension ref="A1:BK107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2324,7 +2324,7 @@
         <v>1.43</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT16" t="n">
         <v>2.17</v>
@@ -5369,7 +5369,7 @@
         <v>2.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -8820,7 +8820,7 @@
         <v>1.43</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT43" t="n">
         <v>0.67</v>
@@ -12068,7 +12068,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU57" t="n">
         <v>0</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT61" t="n">
         <v>0.71</v>
@@ -14504,7 +14504,7 @@
         <v>2.2</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU69" t="n">
         <v>0</v>
@@ -15516,7 +15516,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT74" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>2.71</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU82" t="n">
         <v>0</v>
@@ -20185,7 +20185,7 @@
         <v>0.6</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>2.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AU99" t="n">
         <v>0</v>
@@ -21924,7 +21924,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>['21', '37']</t>
+          <t>['20', '36']</t>
         </is>
       </c>
       <c r="Q106" t="n">
@@ -22067,6 +22067,209 @@
       </c>
       <c r="BK106" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5337625</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45052.72916666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['48', '56', '70']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>7</v>
+      </c>
+      <c r="S107" t="n">
+        <v>11</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK107"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT2" t="n">
         <v>0.75</v>
@@ -1106,7 +1106,7 @@
         <v>2.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.88</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT5" t="n">
         <v>2.43</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT9" t="n">
         <v>0.75</v>
@@ -3339,7 +3339,7 @@
         <v>0.83</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.88</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT24" t="n">
         <v>0.75</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT25" t="n">
         <v>2.43</v>
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT32" t="n">
         <v>1.57</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT35" t="n">
         <v>2.17</v>
@@ -8008,7 +8008,7 @@
         <v>0.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT38" t="n">
         <v>1</v>
@@ -8414,7 +8414,7 @@
         <v>2.75</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT42" t="n">
         <v>1.5</v>
@@ -9632,7 +9632,7 @@
         <v>1.83</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -10241,7 +10241,7 @@
         <v>2</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU48" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10847,7 +10847,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT51" t="n">
         <v>1.57</v>
@@ -11256,7 +11256,7 @@
         <v>2.75</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>0.83</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU55" t="n">
         <v>0</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT56" t="n">
         <v>2.43</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT58" t="n">
         <v>0.67</v>
@@ -12474,7 +12474,7 @@
         <v>1.83</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU60" t="n">
         <v>0</v>
@@ -12880,7 +12880,7 @@
         <v>0.71</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU61" t="n">
         <v>0</v>
@@ -13286,7 +13286,7 @@
         <v>2.71</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT64" t="n">
         <v>1.67</v>
@@ -13689,7 +13689,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU66" t="n">
         <v>0</v>
@@ -15110,7 +15110,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT72" t="n">
         <v>2.17</v>
@@ -15313,7 +15313,7 @@
         <v>1.25</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT73" t="n">
         <v>1.57</v>
@@ -15519,7 +15519,7 @@
         <v>0.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU74" t="n">
         <v>0</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU75" t="n">
         <v>0</v>
@@ -15922,10 +15922,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU76" t="n">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -16534,7 +16534,7 @@
         <v>1.88</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU79" t="n">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT80" t="n">
         <v>0.67</v>
@@ -16937,7 +16937,7 @@
         <v>0.8</v>
       </c>
       <c r="AS81" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT81" t="n">
         <v>0.75</v>
@@ -17343,7 +17343,7 @@
         <v>0.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>2.75</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU84" t="n">
         <v>0</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -18561,10 +18561,10 @@
         <v>1.17</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU89" t="n">
         <v>0</v>
@@ -18967,7 +18967,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19170,10 +19170,10 @@
         <v>0.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU92" t="n">
         <v>0</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT93" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU93" t="n">
         <v>0</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU94" t="n">
         <v>0</v>
@@ -19779,10 +19779,10 @@
         <v>1.25</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AU95" t="n">
         <v>0</v>
@@ -19982,10 +19982,10 @@
         <v>0.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU96" t="n">
         <v>0</v>
@@ -21809,7 +21809,7 @@
         <v>0.6</v>
       </c>
       <c r="AS105" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT105" t="n">
         <v>0.67</v>
@@ -22127,7 +22127,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>['48', '56', '70']</t>
+          <t>['48', '56', '67']</t>
         </is>
       </c>
       <c r="Q107" t="n">
@@ -22269,6 +22269,1224 @@
         <v>3</v>
       </c>
       <c r="BK107" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5337621</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45053.41666666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>3</v>
+      </c>
+      <c r="L108" t="n">
+        <v>4</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>6</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['5', '27', '42', '52']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['50', '64']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6</v>
+      </c>
+      <c r="S108" t="n">
+        <v>9</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5337624</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['16', '77', '82']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>6</v>
+      </c>
+      <c r="S109" t="n">
+        <v>11</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5337623</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45053.75</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['38', '70']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['17', '53']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>6</v>
+      </c>
+      <c r="S110" t="n">
+        <v>10</v>
+      </c>
+      <c r="T110" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5337622</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45053.85416666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>9</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>13</v>
+      </c>
+      <c r="T111" t="n">
+        <v>3</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5337627</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45054.64583333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>4</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V112" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5337626</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['66', '81']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>7</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK113" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -23269,22 +23269,22 @@
         <v>3.42</v>
       </c>
       <c r="BF112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH112" t="n">
         <v>4</v>
       </c>
-      <c r="BG112" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH112" t="n">
-        <v>3</v>
-      </c>
       <c r="BI112" t="n">
         <v>3</v>
       </c>
       <c r="BJ112" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -23352,10 +23352,10 @@
         <v>4</v>
       </c>
       <c r="R113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S113" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T113" t="n">
         <v>4.33</v>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>2.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1.67</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.75</v>
@@ -9023,7 +9023,7 @@
         <v>1.22</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU42" t="n">
         <v>0</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>0.43</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU65" t="n">
         <v>0</v>
@@ -14501,7 +14501,7 @@
         <v>0.75</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
         <v>0.75</v>
@@ -17752,7 +17752,7 @@
         <v>1.38</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU85" t="n">
         <v>0</v>
@@ -21000,7 +21000,7 @@
         <v>1.17</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU101" t="n">
         <v>2.23</v>
@@ -21606,7 +21606,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AT104" t="n">
         <v>1.57</v>
@@ -23488,6 +23488,209 @@
       </c>
       <c r="BK113" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5337629</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45058.79166666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Deportivo Maldonado</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>9</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT3" t="n">
         <v>0.75</v>
@@ -1512,7 +1512,7 @@
         <v>1.22</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT6" t="n">
         <v>0.38</v>
@@ -1918,7 +1918,7 @@
         <v>2.71</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT11" t="n">
         <v>1.57</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.71</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT19" t="n">
         <v>0.89</v>
@@ -4557,7 +4557,7 @@
         <v>1.38</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.38</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT23" t="n">
         <v>0.75</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT26" t="n">
         <v>0.75</v>
@@ -5975,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT27" t="n">
         <v>1.43</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -6790,7 +6790,7 @@
         <v>2.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>0.71</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU33" t="n">
         <v>0</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT37" t="n">
         <v>0.63</v>
@@ -8211,7 +8211,7 @@
         <v>2.29</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>0</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -8617,7 +8617,7 @@
         <v>1.88</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -9226,7 +9226,7 @@
         <v>0.71</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU43" t="n">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT45" t="n">
         <v>0.75</v>
@@ -9832,10 +9832,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU46" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT47" t="n">
         <v>1.57</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT48" t="n">
         <v>0.89</v>
@@ -10444,7 +10444,7 @@
         <v>1.38</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>0</v>
@@ -10647,7 +10647,7 @@
         <v>1.38</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU52" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>0.67</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT53" t="n">
         <v>0.63</v>
@@ -11459,7 +11459,7 @@
         <v>1.88</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU54" t="n">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT55" t="n">
         <v>0.38</v>
@@ -11865,7 +11865,7 @@
         <v>0.63</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT57" t="n">
         <v>0.75</v>
@@ -12271,7 +12271,7 @@
         <v>1.38</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU58" t="n">
         <v>0</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT59" t="n">
         <v>0.89</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT62" t="n">
         <v>0.75</v>
@@ -13489,7 +13489,7 @@
         <v>1.22</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU64" t="n">
         <v>0</v>
@@ -13689,7 +13689,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT65" t="n">
         <v>1.43</v>
@@ -13892,7 +13892,7 @@
         <v>0.75</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT66" t="n">
         <v>0.38</v>
@@ -14098,7 +14098,7 @@
         <v>1.88</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU67" t="n">
         <v>0</v>
@@ -14298,10 +14298,10 @@
         <v>0.67</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU68" t="n">
         <v>0</v>
@@ -14704,10 +14704,10 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU70" t="n">
         <v>0</v>
@@ -14907,10 +14907,10 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU71" t="n">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>0.63</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU72" t="n">
         <v>0</v>
@@ -15719,7 +15719,7 @@
         <v>0.4</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT75" t="n">
         <v>0.63</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU77" t="n">
         <v>0</v>
@@ -16328,10 +16328,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>0</v>
@@ -16737,7 +16737,7 @@
         <v>2.29</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -17346,7 +17346,7 @@
         <v>0.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU83" t="n">
         <v>0</v>
@@ -17546,7 +17546,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT84" t="n">
         <v>0.38</v>
@@ -17952,10 +17952,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU86" t="n">
         <v>0</v>
@@ -18155,10 +18155,10 @@
         <v>2.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU87" t="n">
         <v>0</v>
@@ -18358,7 +18358,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT88" t="n">
         <v>1.57</v>
@@ -18767,7 +18767,7 @@
         <v>1.88</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU90" t="n">
         <v>0</v>
@@ -18967,7 +18967,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19576,7 +19576,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AT94" t="n">
         <v>0.38</v>
@@ -20188,7 +20188,7 @@
         <v>0.71</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU97" t="n">
         <v>0</v>
@@ -20388,10 +20388,10 @@
         <v>0.67</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU98" t="n">
         <v>0</v>
@@ -20591,7 +20591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AT99" t="n">
         <v>0.75</v>
@@ -20794,10 +20794,10 @@
         <v>2.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU100" t="n">
         <v>0</v>
@@ -20997,7 +20997,7 @@
         <v>1.6</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT101" t="n">
         <v>1.43</v>
@@ -21203,7 +21203,7 @@
         <v>2.71</v>
       </c>
       <c r="AT102" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AU102" t="n">
         <v>0</v>
@@ -21403,10 +21403,10 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU103" t="n">
         <v>0</v>
@@ -21812,7 +21812,7 @@
         <v>0.63</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU105" t="n">
         <v>0</v>
@@ -22827,7 +22827,7 @@
         <v>1.38</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AU110" t="n">
         <v>0</v>
@@ -23027,7 +23027,7 @@
         <v>0.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AT111" t="n">
         <v>0.63</v>
@@ -23691,6 +23691,1427 @@
       </c>
       <c r="BK114" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5337632</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45059.52083333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Liverpool FC Montevideo</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['62', '76']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>1</v>
+      </c>
+      <c r="R115" t="n">
+        <v>7</v>
+      </c>
+      <c r="S115" t="n">
+        <v>8</v>
+      </c>
+      <c r="T115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5337634</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45059.64583333334</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3</v>
+      </c>
+      <c r="T116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V116" t="n">
+        <v>7</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5337628</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45060.41666666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Fénix</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>La Luz</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['88', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>8</v>
+      </c>
+      <c r="T117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5337630</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45060.625</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2</v>
+      </c>
+      <c r="S118" t="n">
+        <v>3</v>
+      </c>
+      <c r="T118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5337631</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45060.75</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="n">
+        <v>4</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['13', '23', '35', '45']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>12</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3</v>
+      </c>
+      <c r="S119" t="n">
+        <v>15</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V119" t="n">
+        <v>5</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X119" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5337633</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45061.625</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>6</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2</v>
+      </c>
+      <c r="S120" t="n">
+        <v>8</v>
+      </c>
+      <c r="T120" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2</v>
+      </c>
+      <c r="V120" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5337635</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45061.79166666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>11</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6</v>
+      </c>
+      <c r="S121" t="n">
+        <v>17</v>
+      </c>
+      <c r="T121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2</v>
+      </c>
+      <c r="V121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -24761,12 +24761,12 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>['24']</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="Q120" t="n">
@@ -24964,7 +24964,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>['43']</t>
+          <t>['41']</t>
         </is>
       </c>
       <c r="P121" t="inlineStr">
@@ -25096,19 +25096,19 @@
         <v>3.74</v>
       </c>
       <c r="BF121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH121" t="n">
         <v>2</v>
       </c>
       <c r="BI121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ121" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK121" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -496,6 +496,21 @@
     <t>['41']</t>
   </si>
   <si>
+    <t>['48', '62', '80']</t>
+  </si>
+  <si>
+    <t>['85', '90+6', '90+9']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['5', '40', '86']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -586,9 +601,6 @@
     <t>['4', '10']</t>
   </si>
   <si>
-    <t>['1']</t>
-  </si>
-  <si>
     <t>['4', '64', '90']</t>
   </si>
   <si>
@@ -608,9 +620,6 @@
   </si>
   <si>
     <t>['37', '52']</t>
-  </si>
-  <si>
-    <t>['37']</t>
   </si>
   <si>
     <t>['89', '90+3']</t>
@@ -689,6 +698,27 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['74', '82']</t>
+  </si>
+  <si>
+    <t>['60', '90+2']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['71', '90', '90+1']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1294,7 +1324,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1384,7 +1414,7 @@
         <v>0.63</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1867,7 +1897,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1954,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT5">
         <v>2.25</v>
@@ -2145,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT6">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2249,7 +2279,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2440,7 +2470,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2527,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>0.89</v>
@@ -2631,7 +2661,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2721,7 +2751,7 @@
         <v>1.38</v>
       </c>
       <c r="AT9">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2912,7 +2942,7 @@
         <v>2.71</v>
       </c>
       <c r="AT10">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3013,7 +3043,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3291,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT12">
         <v>0.71</v>
@@ -3395,7 +3425,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3482,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3586,7 +3616,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3777,7 +3807,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3968,7 +3998,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4055,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT16">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4159,7 +4189,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4246,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT17">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4440,7 +4470,7 @@
         <v>1.88</v>
       </c>
       <c r="AT18">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4628,7 +4658,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT19">
         <v>0.89</v>
@@ -4732,7 +4762,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4819,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5395,7 +5425,7 @@
         <v>2.56</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5496,7 +5526,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5583,10 +5613,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5687,7 +5717,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5774,7 +5804,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT25">
         <v>2.25</v>
@@ -5878,7 +5908,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5965,7 +5995,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT26">
         <v>0.75</v>
@@ -6159,7 +6189,7 @@
         <v>0.86</v>
       </c>
       <c r="AT27">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6260,7 +6290,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6350,7 +6380,7 @@
         <v>1.38</v>
       </c>
       <c r="AT28">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6642,7 +6672,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6729,10 +6759,10 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6833,7 +6863,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6923,7 +6953,7 @@
         <v>2.71</v>
       </c>
       <c r="AT31">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7024,7 +7054,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7111,7 +7141,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT32">
         <v>1.57</v>
@@ -7215,7 +7245,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7302,7 +7332,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT33">
         <v>0.88</v>
@@ -7406,7 +7436,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7496,7 +7526,7 @@
         <v>0.63</v>
       </c>
       <c r="AT34">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7597,7 +7627,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7684,10 +7714,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7788,7 +7818,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7875,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8170,7 +8200,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8257,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT38">
         <v>1.33</v>
@@ -8361,7 +8391,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8743,7 +8773,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8830,10 +8860,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT41">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -8934,7 +8964,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9021,10 +9051,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT42">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9125,7 +9155,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9212,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT43">
         <v>0.71</v>
@@ -9316,7 +9346,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9406,7 +9436,7 @@
         <v>2.71</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9698,7 +9728,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9788,7 +9818,7 @@
         <v>0.86</v>
       </c>
       <c r="AT46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9889,7 +9919,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10167,7 +10197,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
         <v>0.89</v>
@@ -10271,7 +10301,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10462,7 +10492,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10549,7 +10579,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
         <v>1.33</v>
@@ -10740,7 +10770,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT51">
         <v>1.57</v>
@@ -10931,10 +10961,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT52">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11226,7 +11256,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11316,7 +11346,7 @@
         <v>1.88</v>
       </c>
       <c r="AT54">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11417,7 +11447,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11507,7 +11537,7 @@
         <v>0.86</v>
       </c>
       <c r="AT55">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11886,10 +11916,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12459,10 +12489,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT60">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -12650,7 +12680,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT61">
         <v>0.75</v>
@@ -12844,7 +12874,7 @@
         <v>0.86</v>
       </c>
       <c r="AT62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13136,7 +13166,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13223,10 +13253,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT64">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13327,7 +13357,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13414,10 +13444,10 @@
         <v>1.67</v>
       </c>
       <c r="AS65">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT65">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13518,7 +13548,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13605,10 +13635,10 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT66">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -13990,7 +14020,7 @@
         <v>2.56</v>
       </c>
       <c r="AT68">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -14178,10 +14208,10 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT69">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU69">
         <v>0</v>
@@ -14369,7 +14399,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT70">
         <v>1.33</v>
@@ -14664,7 +14694,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14754,7 +14784,7 @@
         <v>0.63</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -14855,7 +14885,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14942,7 +14972,7 @@
         <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT73">
         <v>1.57</v>
@@ -15133,7 +15163,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT74">
         <v>0.89</v>
@@ -15428,7 +15458,7 @@
         <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15619,7 +15649,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15706,10 +15736,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT77">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -15900,7 +15930,7 @@
         <v>1.71</v>
       </c>
       <c r="AT78">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU78">
         <v>0</v>
@@ -16091,7 +16121,7 @@
         <v>1.88</v>
       </c>
       <c r="AT79">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -16192,7 +16222,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16279,7 +16309,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT80">
         <v>0.71</v>
@@ -16383,7 +16413,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16470,10 +16500,10 @@
         <v>0.8</v>
       </c>
       <c r="AS81">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT81">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU81">
         <v>0</v>
@@ -16664,7 +16694,7 @@
         <v>2.71</v>
       </c>
       <c r="AT82">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU82">
         <v>0</v>
@@ -17046,7 +17076,7 @@
         <v>2.56</v>
       </c>
       <c r="AT84">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17234,10 +17264,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
+        <v>1.33</v>
+      </c>
+      <c r="AT85">
         <v>1.38</v>
-      </c>
-      <c r="AT85">
-        <v>1.43</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -17428,7 +17458,7 @@
         <v>0.86</v>
       </c>
       <c r="AT86">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU86">
         <v>0</v>
@@ -17529,7 +17559,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17616,7 +17646,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT87">
         <v>2.25</v>
@@ -17720,7 +17750,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17807,7 +17837,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT88">
         <v>1.57</v>
@@ -17911,7 +17941,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -17998,7 +18028,7 @@
         <v>1.17</v>
       </c>
       <c r="AS89">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT89">
         <v>0.89</v>
@@ -18192,7 +18222,7 @@
         <v>1.88</v>
       </c>
       <c r="AT90">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -18293,7 +18323,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18380,10 +18410,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU91">
         <v>0</v>
@@ -18484,7 +18514,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18571,7 +18601,7 @@
         <v>0.5</v>
       </c>
       <c r="AS92">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT92">
         <v>0.63</v>
@@ -18675,7 +18705,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18866,7 +18896,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18956,7 +18986,7 @@
         <v>0.86</v>
       </c>
       <c r="AT94">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU94">
         <v>0</v>
@@ -19057,7 +19087,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19144,10 +19174,10 @@
         <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT95">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU95">
         <v>0</v>
@@ -19248,7 +19278,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19335,7 +19365,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT96">
         <v>0.75</v>
@@ -19439,7 +19469,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19526,10 +19556,10 @@
         <v>0.6</v>
       </c>
       <c r="AS97">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT97">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -19630,7 +19660,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19911,7 +19941,7 @@
         <v>2.56</v>
       </c>
       <c r="AT99">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20012,7 +20042,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20290,10 +20320,10 @@
         <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT101">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU101">
         <v>2.23</v>
@@ -20585,7 +20615,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20672,10 +20702,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT103">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -20776,7 +20806,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20863,7 +20893,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT104">
         <v>1.57</v>
@@ -21158,7 +21188,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21248,7 +21278,7 @@
         <v>1.88</v>
       </c>
       <c r="AT106">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -21349,7 +21379,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21436,10 +21466,10 @@
         <v>0.43</v>
       </c>
       <c r="AS107">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT107">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU107">
         <v>0</v>
@@ -21540,7 +21570,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21627,7 +21657,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT108">
         <v>0.89</v>
@@ -21731,7 +21761,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21818,10 +21848,10 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT109">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -21922,7 +21952,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22012,7 +22042,7 @@
         <v>1.38</v>
       </c>
       <c r="AT110">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -22113,7 +22143,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22200,7 +22230,7 @@
         <v>0.57</v>
       </c>
       <c r="AS111">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT111">
         <v>0.63</v>
@@ -22304,7 +22334,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22391,7 +22421,7 @@
         <v>0.71</v>
       </c>
       <c r="AS112">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
         <v>0.75</v>
@@ -22495,7 +22525,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22585,7 +22615,7 @@
         <v>0.63</v>
       </c>
       <c r="AT113">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU113">
         <v>1.26</v>
@@ -22773,10 +22803,10 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT114">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -22964,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT115">
         <v>0.88</v>
@@ -23259,7 +23289,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23450,7 +23480,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23540,7 +23570,7 @@
         <v>1.71</v>
       </c>
       <c r="AT118">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23641,7 +23671,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23728,10 +23758,10 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AT119">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -23832,7 +23862,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24110,10 +24140,10 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT121">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU121">
         <v>2.23</v>
@@ -24165,6 +24195,1534 @@
       </c>
       <c r="BK121">
         <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>6156107</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45079.625</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+      <c r="H122" t="s">
+        <v>65</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122" t="s">
+        <v>160</v>
+      </c>
+      <c r="P122" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q122">
+        <v>5</v>
+      </c>
+      <c r="R122">
+        <v>7</v>
+      </c>
+      <c r="S122">
+        <v>12</v>
+      </c>
+      <c r="T122">
+        <v>2.45</v>
+      </c>
+      <c r="U122">
+        <v>2.27</v>
+      </c>
+      <c r="V122">
+        <v>4.89</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>3.01</v>
+      </c>
+      <c r="Y122">
+        <v>2.97</v>
+      </c>
+      <c r="Z122">
+        <v>1.4</v>
+      </c>
+      <c r="AA122">
+        <v>7.1</v>
+      </c>
+      <c r="AB122">
+        <v>1.08</v>
+      </c>
+      <c r="AC122">
+        <v>1.78</v>
+      </c>
+      <c r="AD122">
+        <v>3.7</v>
+      </c>
+      <c r="AE122">
+        <v>3.88</v>
+      </c>
+      <c r="AF122">
+        <v>1.04</v>
+      </c>
+      <c r="AG122">
+        <v>11.75</v>
+      </c>
+      <c r="AH122">
+        <v>1.28</v>
+      </c>
+      <c r="AI122">
+        <v>3.33</v>
+      </c>
+      <c r="AJ122">
+        <v>1.88</v>
+      </c>
+      <c r="AK122">
+        <v>1.82</v>
+      </c>
+      <c r="AL122">
+        <v>1.82</v>
+      </c>
+      <c r="AM122">
+        <v>1.94</v>
+      </c>
+      <c r="AN122">
+        <v>1.19</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>1.95</v>
+      </c>
+      <c r="AQ122">
+        <v>2.29</v>
+      </c>
+      <c r="AR122">
+        <v>1.43</v>
+      </c>
+      <c r="AS122">
+        <v>2.38</v>
+      </c>
+      <c r="AT122">
+        <v>1.25</v>
+      </c>
+      <c r="AU122">
+        <v>1.45</v>
+      </c>
+      <c r="AV122">
+        <v>0.9</v>
+      </c>
+      <c r="AW122">
+        <v>2.35</v>
+      </c>
+      <c r="AX122">
+        <v>1.69</v>
+      </c>
+      <c r="AY122">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ122">
+        <v>2.5</v>
+      </c>
+      <c r="BA122">
+        <v>1.25</v>
+      </c>
+      <c r="BB122">
+        <v>1.54</v>
+      </c>
+      <c r="BC122">
+        <v>1.88</v>
+      </c>
+      <c r="BD122">
+        <v>2.3</v>
+      </c>
+      <c r="BE122">
+        <v>3.18</v>
+      </c>
+      <c r="BF122">
+        <v>4</v>
+      </c>
+      <c r="BG122">
+        <v>3</v>
+      </c>
+      <c r="BH122">
+        <v>5</v>
+      </c>
+      <c r="BI122">
+        <v>5</v>
+      </c>
+      <c r="BJ122">
+        <v>9</v>
+      </c>
+      <c r="BK122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>6156102</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45079.83333333334</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>68</v>
+      </c>
+      <c r="H123" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>161</v>
+      </c>
+      <c r="P123" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q123">
+        <v>4</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <v>9</v>
+      </c>
+      <c r="T123">
+        <v>5.36</v>
+      </c>
+      <c r="U123">
+        <v>2.31</v>
+      </c>
+      <c r="V123">
+        <v>2.31</v>
+      </c>
+      <c r="W123">
+        <v>1.39</v>
+      </c>
+      <c r="X123">
+        <v>3.04</v>
+      </c>
+      <c r="Y123">
+        <v>2.93</v>
+      </c>
+      <c r="Z123">
+        <v>1.42</v>
+      </c>
+      <c r="AA123">
+        <v>6.9</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>5.13</v>
+      </c>
+      <c r="AD123">
+        <v>4</v>
+      </c>
+      <c r="AE123">
+        <v>1.55</v>
+      </c>
+      <c r="AF123">
+        <v>1.04</v>
+      </c>
+      <c r="AG123">
+        <v>12.25</v>
+      </c>
+      <c r="AH123">
+        <v>1.27</v>
+      </c>
+      <c r="AI123">
+        <v>3.4</v>
+      </c>
+      <c r="AJ123">
+        <v>1.9</v>
+      </c>
+      <c r="AK123">
+        <v>1.8</v>
+      </c>
+      <c r="AL123">
+        <v>1.85</v>
+      </c>
+      <c r="AM123">
+        <v>1.91</v>
+      </c>
+      <c r="AN123">
+        <v>2.15</v>
+      </c>
+      <c r="AO123">
+        <v>1.23</v>
+      </c>
+      <c r="AP123">
+        <v>1.14</v>
+      </c>
+      <c r="AQ123">
+        <v>1.22</v>
+      </c>
+      <c r="AR123">
+        <v>1.83</v>
+      </c>
+      <c r="AS123">
+        <v>1.4</v>
+      </c>
+      <c r="AT123">
+        <v>1.57</v>
+      </c>
+      <c r="AU123">
+        <v>1.28</v>
+      </c>
+      <c r="AV123">
+        <v>1.76</v>
+      </c>
+      <c r="AW123">
+        <v>3.04</v>
+      </c>
+      <c r="AX123">
+        <v>3.34</v>
+      </c>
+      <c r="AY123">
+        <v>9.4</v>
+      </c>
+      <c r="AZ123">
+        <v>1.43</v>
+      </c>
+      <c r="BA123">
+        <v>1.28</v>
+      </c>
+      <c r="BB123">
+        <v>1.66</v>
+      </c>
+      <c r="BC123">
+        <v>2.03</v>
+      </c>
+      <c r="BD123">
+        <v>2.62</v>
+      </c>
+      <c r="BE123">
+        <v>3.64</v>
+      </c>
+      <c r="BF123">
+        <v>7</v>
+      </c>
+      <c r="BG123">
+        <v>5</v>
+      </c>
+      <c r="BH123">
+        <v>5</v>
+      </c>
+      <c r="BI123">
+        <v>3</v>
+      </c>
+      <c r="BJ123">
+        <v>12</v>
+      </c>
+      <c r="BK123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>6156106</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45080.625</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>79</v>
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>162</v>
+      </c>
+      <c r="P124" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>9</v>
+      </c>
+      <c r="S124">
+        <v>12</v>
+      </c>
+      <c r="T124">
+        <v>5.71</v>
+      </c>
+      <c r="U124">
+        <v>2.27</v>
+      </c>
+      <c r="V124">
+        <v>2.29</v>
+      </c>
+      <c r="W124">
+        <v>1.42</v>
+      </c>
+      <c r="X124">
+        <v>2.92</v>
+      </c>
+      <c r="Y124">
+        <v>3.07</v>
+      </c>
+      <c r="Z124">
+        <v>1.38</v>
+      </c>
+      <c r="AA124">
+        <v>7.4</v>
+      </c>
+      <c r="AB124">
+        <v>1.07</v>
+      </c>
+      <c r="AC124">
+        <v>5.5</v>
+      </c>
+      <c r="AD124">
+        <v>3.6</v>
+      </c>
+      <c r="AE124">
+        <v>1.53</v>
+      </c>
+      <c r="AF124">
+        <v>1.05</v>
+      </c>
+      <c r="AG124">
+        <v>11.25</v>
+      </c>
+      <c r="AH124">
+        <v>1.29</v>
+      </c>
+      <c r="AI124">
+        <v>3.25</v>
+      </c>
+      <c r="AJ124">
+        <v>1.91</v>
+      </c>
+      <c r="AK124">
+        <v>1.8</v>
+      </c>
+      <c r="AL124">
+        <v>1.95</v>
+      </c>
+      <c r="AM124">
+        <v>1.81</v>
+      </c>
+      <c r="AN124">
+        <v>2.2</v>
+      </c>
+      <c r="AO124">
+        <v>1.23</v>
+      </c>
+      <c r="AP124">
+        <v>1.13</v>
+      </c>
+      <c r="AQ124">
+        <v>1.43</v>
+      </c>
+      <c r="AR124">
+        <v>1.25</v>
+      </c>
+      <c r="AS124">
+        <v>1.38</v>
+      </c>
+      <c r="AT124">
+        <v>1.22</v>
+      </c>
+      <c r="AU124">
+        <v>1.86</v>
+      </c>
+      <c r="AV124">
+        <v>1.62</v>
+      </c>
+      <c r="AW124">
+        <v>3.48</v>
+      </c>
+      <c r="AX124">
+        <v>2.54</v>
+      </c>
+      <c r="AY124">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ124">
+        <v>1.67</v>
+      </c>
+      <c r="BA124">
+        <v>1.28</v>
+      </c>
+      <c r="BB124">
+        <v>1.59</v>
+      </c>
+      <c r="BC124">
+        <v>1.95</v>
+      </c>
+      <c r="BD124">
+        <v>2.43</v>
+      </c>
+      <c r="BE124">
+        <v>3.34</v>
+      </c>
+      <c r="BF124">
+        <v>2</v>
+      </c>
+      <c r="BG124">
+        <v>7</v>
+      </c>
+      <c r="BH124">
+        <v>3</v>
+      </c>
+      <c r="BI124">
+        <v>11</v>
+      </c>
+      <c r="BJ124">
+        <v>5</v>
+      </c>
+      <c r="BK124">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>6156103</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45080.72916666666</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>78</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>163</v>
+      </c>
+      <c r="P125" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>6</v>
+      </c>
+      <c r="S125">
+        <v>11</v>
+      </c>
+      <c r="T125">
+        <v>3.78</v>
+      </c>
+      <c r="U125">
+        <v>2.05</v>
+      </c>
+      <c r="V125">
+        <v>3.36</v>
+      </c>
+      <c r="W125">
+        <v>1.52</v>
+      </c>
+      <c r="X125">
+        <v>2.57</v>
+      </c>
+      <c r="Y125">
+        <v>3.4</v>
+      </c>
+      <c r="Z125">
+        <v>1.29</v>
+      </c>
+      <c r="AA125">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB125">
+        <v>1.04</v>
+      </c>
+      <c r="AC125">
+        <v>2.8</v>
+      </c>
+      <c r="AD125">
+        <v>2.87</v>
+      </c>
+      <c r="AE125">
+        <v>2.45</v>
+      </c>
+      <c r="AF125">
+        <v>1.08</v>
+      </c>
+      <c r="AG125">
+        <v>7.8</v>
+      </c>
+      <c r="AH125">
+        <v>1.44</v>
+      </c>
+      <c r="AI125">
+        <v>2.83</v>
+      </c>
+      <c r="AJ125">
+        <v>2.37</v>
+      </c>
+      <c r="AK125">
+        <v>1.53</v>
+      </c>
+      <c r="AL125">
+        <v>1.96</v>
+      </c>
+      <c r="AM125">
+        <v>1.8</v>
+      </c>
+      <c r="AN125">
+        <v>1.48</v>
+      </c>
+      <c r="AO125">
+        <v>1.33</v>
+      </c>
+      <c r="AP125">
+        <v>1.38</v>
+      </c>
+      <c r="AQ125">
+        <v>0.71</v>
+      </c>
+      <c r="AR125">
+        <v>0.38</v>
+      </c>
+      <c r="AS125">
+        <v>0.75</v>
+      </c>
+      <c r="AT125">
+        <v>0.44</v>
+      </c>
+      <c r="AU125">
+        <v>0.65</v>
+      </c>
+      <c r="AV125">
+        <v>1.22</v>
+      </c>
+      <c r="AW125">
+        <v>1.87</v>
+      </c>
+      <c r="AX125">
+        <v>2.31</v>
+      </c>
+      <c r="AY125">
+        <v>8.5</v>
+      </c>
+      <c r="AZ125">
+        <v>1.8</v>
+      </c>
+      <c r="BA125">
+        <v>1.38</v>
+      </c>
+      <c r="BB125">
+        <v>1.67</v>
+      </c>
+      <c r="BC125">
+        <v>2.05</v>
+      </c>
+      <c r="BD125">
+        <v>2.7</v>
+      </c>
+      <c r="BE125">
+        <v>3.7</v>
+      </c>
+      <c r="BF125">
+        <v>6</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
+        <v>4</v>
+      </c>
+      <c r="BI125">
+        <v>5</v>
+      </c>
+      <c r="BJ125">
+        <v>10</v>
+      </c>
+      <c r="BK125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>6156108</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45081.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>71</v>
+      </c>
+      <c r="H126" t="s">
+        <v>67</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>3</v>
+      </c>
+      <c r="N126">
+        <v>6</v>
+      </c>
+      <c r="O126" t="s">
+        <v>164</v>
+      </c>
+      <c r="P126" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>10</v>
+      </c>
+      <c r="S126">
+        <v>14</v>
+      </c>
+      <c r="T126">
+        <v>3.2</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.48</v>
+      </c>
+      <c r="X126">
+        <v>2.5</v>
+      </c>
+      <c r="Y126">
+        <v>3.25</v>
+      </c>
+      <c r="Z126">
+        <v>1.33</v>
+      </c>
+      <c r="AA126">
+        <v>8</v>
+      </c>
+      <c r="AB126">
+        <v>1.06</v>
+      </c>
+      <c r="AC126">
+        <v>2.45</v>
+      </c>
+      <c r="AD126">
+        <v>3.1</v>
+      </c>
+      <c r="AE126">
+        <v>2.7</v>
+      </c>
+      <c r="AF126">
+        <v>1.08</v>
+      </c>
+      <c r="AG126">
+        <v>7</v>
+      </c>
+      <c r="AH126">
+        <v>1.4</v>
+      </c>
+      <c r="AI126">
+        <v>2.8</v>
+      </c>
+      <c r="AJ126">
+        <v>2.03</v>
+      </c>
+      <c r="AK126">
+        <v>1.57</v>
+      </c>
+      <c r="AL126">
+        <v>1.9</v>
+      </c>
+      <c r="AM126">
+        <v>1.83</v>
+      </c>
+      <c r="AN126">
+        <v>1.36</v>
+      </c>
+      <c r="AO126">
+        <v>1.28</v>
+      </c>
+      <c r="AP126">
+        <v>1.42</v>
+      </c>
+      <c r="AQ126">
+        <v>1.38</v>
+      </c>
+      <c r="AR126">
+        <v>1.43</v>
+      </c>
+      <c r="AS126">
+        <v>1.33</v>
+      </c>
+      <c r="AT126">
+        <v>1.38</v>
+      </c>
+      <c r="AU126">
+        <v>1.4</v>
+      </c>
+      <c r="AV126">
+        <v>1.47</v>
+      </c>
+      <c r="AW126">
+        <v>2.87</v>
+      </c>
+      <c r="AX126">
+        <v>1.98</v>
+      </c>
+      <c r="AY126">
+        <v>8.9</v>
+      </c>
+      <c r="AZ126">
+        <v>2.05</v>
+      </c>
+      <c r="BA126">
+        <v>1.21</v>
+      </c>
+      <c r="BB126">
+        <v>1.41</v>
+      </c>
+      <c r="BC126">
+        <v>1.78</v>
+      </c>
+      <c r="BD126">
+        <v>2.21</v>
+      </c>
+      <c r="BE126">
+        <v>2.91</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>7</v>
+      </c>
+      <c r="BH126">
+        <v>6</v>
+      </c>
+      <c r="BI126">
+        <v>7</v>
+      </c>
+      <c r="BJ126">
+        <v>12</v>
+      </c>
+      <c r="BK126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>6156105</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45081.625</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>74</v>
+      </c>
+      <c r="H127" t="s">
+        <v>76</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>81</v>
+      </c>
+      <c r="P127" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q127">
+        <v>6</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>10</v>
+      </c>
+      <c r="T127">
+        <v>2.75</v>
+      </c>
+      <c r="U127">
+        <v>2.05</v>
+      </c>
+      <c r="V127">
+        <v>3.6</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>2.75</v>
+      </c>
+      <c r="Y127">
+        <v>2.75</v>
+      </c>
+      <c r="Z127">
+        <v>1.4</v>
+      </c>
+      <c r="AA127">
+        <v>6.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.1</v>
+      </c>
+      <c r="AC127">
+        <v>2.15</v>
+      </c>
+      <c r="AD127">
+        <v>3.1</v>
+      </c>
+      <c r="AE127">
+        <v>3</v>
+      </c>
+      <c r="AF127">
+        <v>1.06</v>
+      </c>
+      <c r="AG127">
+        <v>8</v>
+      </c>
+      <c r="AH127">
+        <v>1.33</v>
+      </c>
+      <c r="AI127">
+        <v>3.25</v>
+      </c>
+      <c r="AJ127">
+        <v>1.95</v>
+      </c>
+      <c r="AK127">
+        <v>1.75</v>
+      </c>
+      <c r="AL127">
+        <v>1.8</v>
+      </c>
+      <c r="AM127">
+        <v>1.91</v>
+      </c>
+      <c r="AN127">
+        <v>1.33</v>
+      </c>
+      <c r="AO127">
+        <v>1.3</v>
+      </c>
+      <c r="AP127">
+        <v>1.62</v>
+      </c>
+      <c r="AQ127">
+        <v>2.14</v>
+      </c>
+      <c r="AR127">
+        <v>0.75</v>
+      </c>
+      <c r="AS127">
+        <v>1.88</v>
+      </c>
+      <c r="AT127">
+        <v>1</v>
+      </c>
+      <c r="AU127">
+        <v>0.95</v>
+      </c>
+      <c r="AV127">
+        <v>1.61</v>
+      </c>
+      <c r="AW127">
+        <v>2.56</v>
+      </c>
+      <c r="AX127">
+        <v>1.92</v>
+      </c>
+      <c r="AY127">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ127">
+        <v>2.12</v>
+      </c>
+      <c r="BA127">
+        <v>1.22</v>
+      </c>
+      <c r="BB127">
+        <v>1.51</v>
+      </c>
+      <c r="BC127">
+        <v>1.81</v>
+      </c>
+      <c r="BD127">
+        <v>2.22</v>
+      </c>
+      <c r="BE127">
+        <v>2.98</v>
+      </c>
+      <c r="BF127">
+        <v>4</v>
+      </c>
+      <c r="BG127">
+        <v>5</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>7</v>
+      </c>
+      <c r="BJ127">
+        <v>8</v>
+      </c>
+      <c r="BK127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>6156109</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45082.75</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>75</v>
+      </c>
+      <c r="H128" t="s">
+        <v>73</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>115</v>
+      </c>
+      <c r="P128" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q128">
+        <v>5</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>2.88</v>
+      </c>
+      <c r="U128">
+        <v>2.1</v>
+      </c>
+      <c r="V128">
+        <v>4</v>
+      </c>
+      <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>2.63</v>
+      </c>
+      <c r="Y128">
+        <v>3.25</v>
+      </c>
+      <c r="Z128">
+        <v>1.33</v>
+      </c>
+      <c r="AA128">
+        <v>9</v>
+      </c>
+      <c r="AB128">
+        <v>1.07</v>
+      </c>
+      <c r="AC128">
+        <v>2.2</v>
+      </c>
+      <c r="AD128">
+        <v>3.1</v>
+      </c>
+      <c r="AE128">
+        <v>3.25</v>
+      </c>
+      <c r="AF128">
+        <v>1.08</v>
+      </c>
+      <c r="AG128">
+        <v>7</v>
+      </c>
+      <c r="AH128">
+        <v>1.36</v>
+      </c>
+      <c r="AI128">
+        <v>3</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>1.7</v>
+      </c>
+      <c r="AL128">
+        <v>1.83</v>
+      </c>
+      <c r="AM128">
+        <v>1.83</v>
+      </c>
+      <c r="AN128">
+        <v>1.3</v>
+      </c>
+      <c r="AO128">
+        <v>1.3</v>
+      </c>
+      <c r="AP128">
+        <v>1.63</v>
+      </c>
+      <c r="AQ128">
+        <v>2</v>
+      </c>
+      <c r="AR128">
+        <v>0.75</v>
+      </c>
+      <c r="AS128">
+        <v>1.86</v>
+      </c>
+      <c r="AT128">
+        <v>0.78</v>
+      </c>
+      <c r="AU128">
+        <v>1.2</v>
+      </c>
+      <c r="AV128">
+        <v>1.72</v>
+      </c>
+      <c r="AW128">
+        <v>2.92</v>
+      </c>
+      <c r="AX128">
+        <v>1.89</v>
+      </c>
+      <c r="AY128">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ128">
+        <v>2.17</v>
+      </c>
+      <c r="BA128">
+        <v>1.25</v>
+      </c>
+      <c r="BB128">
+        <v>1.46</v>
+      </c>
+      <c r="BC128">
+        <v>1.83</v>
+      </c>
+      <c r="BD128">
+        <v>2.32</v>
+      </c>
+      <c r="BE128">
+        <v>3.18</v>
+      </c>
+      <c r="BF128">
+        <v>2</v>
+      </c>
+      <c r="BG128">
+        <v>7</v>
+      </c>
+      <c r="BH128">
+        <v>5</v>
+      </c>
+      <c r="BI128">
+        <v>3</v>
+      </c>
+      <c r="BJ128">
+        <v>7</v>
+      </c>
+      <c r="BK128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>6156104</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45082.84375</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>69</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>159</v>
+      </c>
+      <c r="P129" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>8</v>
+      </c>
+      <c r="S129">
+        <v>9</v>
+      </c>
+      <c r="T129">
+        <v>4</v>
+      </c>
+      <c r="U129">
+        <v>2.2</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>2.75</v>
+      </c>
+      <c r="Y129">
+        <v>3</v>
+      </c>
+      <c r="Z129">
+        <v>1.36</v>
+      </c>
+      <c r="AA129">
+        <v>8</v>
+      </c>
+      <c r="AB129">
+        <v>1.08</v>
+      </c>
+      <c r="AC129">
+        <v>3.15</v>
+      </c>
+      <c r="AD129">
+        <v>3.3</v>
+      </c>
+      <c r="AE129">
+        <v>2.15</v>
+      </c>
+      <c r="AF129">
+        <v>1.06</v>
+      </c>
+      <c r="AG129">
+        <v>8.75</v>
+      </c>
+      <c r="AH129">
+        <v>1.31</v>
+      </c>
+      <c r="AI129">
+        <v>3.46</v>
+      </c>
+      <c r="AJ129">
+        <v>1.9</v>
+      </c>
+      <c r="AK129">
+        <v>1.8</v>
+      </c>
+      <c r="AL129">
+        <v>1.73</v>
+      </c>
+      <c r="AM129">
+        <v>2</v>
+      </c>
+      <c r="AN129">
+        <v>1.68</v>
+      </c>
+      <c r="AO129">
+        <v>1.3</v>
+      </c>
+      <c r="AP129">
+        <v>1.32</v>
+      </c>
+      <c r="AQ129">
+        <v>0.38</v>
+      </c>
+      <c r="AR129">
+        <v>2</v>
+      </c>
+      <c r="AS129">
+        <v>0.44</v>
+      </c>
+      <c r="AT129">
+        <v>1.88</v>
+      </c>
+      <c r="AU129">
+        <v>1.57</v>
+      </c>
+      <c r="AV129">
+        <v>1</v>
+      </c>
+      <c r="AW129">
+        <v>2.57</v>
+      </c>
+      <c r="AX129">
+        <v>2.12</v>
+      </c>
+      <c r="AY129">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ129">
+        <v>1.92</v>
+      </c>
+      <c r="BA129">
+        <v>1.2</v>
+      </c>
+      <c r="BB129">
+        <v>1.39</v>
+      </c>
+      <c r="BC129">
+        <v>1.75</v>
+      </c>
+      <c r="BD129">
+        <v>2.16</v>
+      </c>
+      <c r="BE129">
+        <v>2.84</v>
+      </c>
+      <c r="BF129">
+        <v>2</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>2</v>
+      </c>
+      <c r="BI129">
+        <v>6</v>
+      </c>
+      <c r="BJ129">
+        <v>4</v>
+      </c>
+      <c r="BK129">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -511,6 +511,9 @@
     <t>['5', '40', '86']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -641,9 +644,6 @@
   </si>
   <si>
     <t>['12', '81']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
   <si>
     <t>['28']</t>
@@ -1324,7 +1324,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1897,7 +1897,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2279,7 +2279,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2470,7 +2470,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2661,7 +2661,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3043,7 +3043,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3425,7 +3425,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3616,7 +3616,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3807,7 +3807,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3998,7 +3998,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4189,7 +4189,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4762,7 +4762,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5717,7 +5717,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5908,7 +5908,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6290,7 +6290,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6672,7 +6672,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6863,7 +6863,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7054,7 +7054,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7245,7 +7245,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7436,7 +7436,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7627,7 +7627,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7818,7 +7818,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8200,7 +8200,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8391,7 +8391,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8773,7 +8773,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8964,7 +8964,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9155,7 +9155,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9346,7 +9346,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9728,7 +9728,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9919,7 +9919,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10301,7 +10301,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11256,7 +11256,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11447,7 +11447,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -13166,7 +13166,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13357,7 +13357,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13548,7 +13548,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14694,7 +14694,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14885,7 +14885,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15649,7 +15649,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16222,7 +16222,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16413,7 +16413,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -17559,7 +17559,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17750,7 +17750,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17941,7 +17941,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18323,7 +18323,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18514,7 +18514,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18705,7 +18705,7 @@
         <v>92</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19278,7 +19278,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -22334,7 +22334,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -25578,7 +25578,7 @@
         <v>2</v>
       </c>
       <c r="O129" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P129" t="s">
         <v>234</v>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,21 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['9', '27', '68', '90']</t>
+  </si>
+  <si>
+    <t>['45+4', '56', '75', '87']</t>
+  </si>
+  <si>
+    <t>['36', '63', '79', '90']</t>
+  </si>
+  <si>
+    <t>['54', '90']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -719,6 +734,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['47', '62', '73']</t>
+  </si>
+  <si>
+    <t>['43', '62', '68']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1345,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1411,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT2">
         <v>1</v>
@@ -1602,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1793,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1897,7 +1918,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -1987,7 +2008,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2279,7 +2300,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2366,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT7">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2470,7 +2491,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2560,7 +2581,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2661,7 +2682,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2748,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT9">
         <v>0.78</v>
@@ -2939,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT10">
         <v>1.38</v>
@@ -3043,7 +3064,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3130,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT11">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3324,7 +3345,7 @@
         <v>1.88</v>
       </c>
       <c r="AT12">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3425,7 +3446,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3616,7 +3637,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3703,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT14">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3807,7 +3828,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3894,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -3998,7 +4019,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4189,7 +4210,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4467,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT18">
         <v>0.44</v>
@@ -4661,7 +4682,7 @@
         <v>1.38</v>
       </c>
       <c r="AT19">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4762,7 +4783,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5040,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT21">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5231,10 +5252,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5422,7 +5443,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5526,7 +5547,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5717,7 +5738,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5807,7 +5828,7 @@
         <v>0.44</v>
       </c>
       <c r="AT25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5908,7 +5929,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -5998,7 +6019,7 @@
         <v>1.88</v>
       </c>
       <c r="AT26">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6186,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT27">
         <v>1.38</v>
@@ -6290,7 +6311,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6377,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT28">
         <v>1.57</v>
@@ -6568,10 +6589,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT29">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6672,7 +6693,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6863,7 +6884,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6950,7 +6971,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT31">
         <v>1.25</v>
@@ -7054,7 +7075,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7144,7 +7165,7 @@
         <v>1.4</v>
       </c>
       <c r="AT32">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7245,7 +7266,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7335,7 +7356,7 @@
         <v>0.75</v>
       </c>
       <c r="AT33">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7436,7 +7457,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7523,7 +7544,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT34">
         <v>0.44</v>
@@ -7627,7 +7648,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7818,7 +7839,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8096,10 +8117,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT37">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8200,7 +8221,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8290,7 +8311,7 @@
         <v>2.38</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8391,7 +8412,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8478,10 +8499,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT39">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8669,10 +8690,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8773,7 +8794,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8964,7 +8985,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9155,7 +9176,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9245,7 +9266,7 @@
         <v>0.75</v>
       </c>
       <c r="AT43">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9346,7 +9367,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9433,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -9624,10 +9645,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9728,7 +9749,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9815,7 +9836,7 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT46">
         <v>1.25</v>
@@ -9919,7 +9940,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10006,10 +10027,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT47">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10200,7 +10221,7 @@
         <v>1.88</v>
       </c>
       <c r="AT48">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10301,7 +10322,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10388,10 +10409,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT49">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -10582,7 +10603,7 @@
         <v>1.33</v>
       </c>
       <c r="AT50">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10773,7 +10794,7 @@
         <v>2.38</v>
       </c>
       <c r="AT51">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11152,10 +11173,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT53">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11256,7 +11277,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11343,7 +11364,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT54">
         <v>1.88</v>
@@ -11447,7 +11468,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11534,7 +11555,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT55">
         <v>0.44</v>
@@ -11725,10 +11746,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -12107,10 +12128,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT58">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -12298,10 +12319,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT59">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12683,7 +12704,7 @@
         <v>0.75</v>
       </c>
       <c r="AT61">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -12871,7 +12892,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -13062,10 +13083,10 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT63">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13166,7 +13187,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13357,7 +13378,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13548,7 +13569,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13826,10 +13847,10 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14017,7 +14038,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT68">
         <v>1.22</v>
@@ -14402,7 +14423,7 @@
         <v>1.38</v>
       </c>
       <c r="AT70">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU70">
         <v>0</v>
@@ -14590,10 +14611,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU71">
         <v>0</v>
@@ -14694,7 +14715,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14781,7 +14802,7 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT72">
         <v>1.88</v>
@@ -14885,7 +14906,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14975,7 +14996,7 @@
         <v>1.33</v>
       </c>
       <c r="AT73">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15166,7 +15187,7 @@
         <v>0.75</v>
       </c>
       <c r="AT74">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU74">
         <v>0</v>
@@ -15354,10 +15375,10 @@
         <v>0.4</v>
       </c>
       <c r="AS75">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT75">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -15545,10 +15566,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT76">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -15649,7 +15670,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15927,7 +15948,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT78">
         <v>1.22</v>
@@ -16118,7 +16139,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT79">
         <v>1.57</v>
@@ -16222,7 +16243,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16312,7 +16333,7 @@
         <v>2.38</v>
       </c>
       <c r="AT80">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -16413,7 +16434,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16691,7 +16712,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT82">
         <v>0.78</v>
@@ -16882,10 +16903,10 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT83">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -17073,7 +17094,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT84">
         <v>0.44</v>
@@ -17455,7 +17476,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT86">
         <v>1.88</v>
@@ -17559,7 +17580,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17649,7 +17670,7 @@
         <v>1.88</v>
       </c>
       <c r="AT87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU87">
         <v>0</v>
@@ -17750,7 +17771,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17840,7 +17861,7 @@
         <v>1.38</v>
       </c>
       <c r="AT88">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU88">
         <v>0</v>
@@ -17941,7 +17962,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18031,7 +18052,7 @@
         <v>1.4</v>
       </c>
       <c r="AT89">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU89">
         <v>0</v>
@@ -18219,7 +18240,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT90">
         <v>1.25</v>
@@ -18323,7 +18344,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18514,7 +18535,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18604,7 +18625,7 @@
         <v>1.4</v>
       </c>
       <c r="AT92">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU92">
         <v>0</v>
@@ -18792,10 +18813,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT93">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -18896,7 +18917,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -18983,7 +19004,7 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT94">
         <v>0.44</v>
@@ -19087,7 +19108,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19278,7 +19299,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19368,7 +19389,7 @@
         <v>2.38</v>
       </c>
       <c r="AT96">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19469,7 +19490,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19660,7 +19681,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19747,10 +19768,10 @@
         <v>0.67</v>
       </c>
       <c r="AS98">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT98">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU98">
         <v>0</v>
@@ -19938,7 +19959,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT99">
         <v>0.78</v>
@@ -20042,7 +20063,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20129,10 +20150,10 @@
         <v>2.33</v>
       </c>
       <c r="AS100">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU100">
         <v>0</v>
@@ -20511,10 +20532,10 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT102">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU102">
         <v>0</v>
@@ -20615,7 +20636,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20806,7 +20827,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20896,7 +20917,7 @@
         <v>1.86</v>
       </c>
       <c r="AT104">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21084,10 +21105,10 @@
         <v>0.6</v>
       </c>
       <c r="AS105">
+        <v>0.89</v>
+      </c>
+      <c r="AT105">
         <v>0.63</v>
-      </c>
-      <c r="AT105">
-        <v>0.71</v>
       </c>
       <c r="AU105">
         <v>0</v>
@@ -21188,7 +21209,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21275,7 +21296,7 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -21379,7 +21400,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21570,7 +21591,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21660,7 +21681,7 @@
         <v>2.38</v>
       </c>
       <c r="AT108">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -21761,7 +21782,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21952,7 +21973,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22039,7 +22060,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT110">
         <v>1.22</v>
@@ -22143,7 +22164,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22233,7 +22254,7 @@
         <v>0.44</v>
       </c>
       <c r="AT111">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -22334,7 +22355,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22424,7 +22445,7 @@
         <v>1.33</v>
       </c>
       <c r="AT112">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU112">
         <v>0</v>
@@ -22525,7 +22546,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22612,7 +22633,7 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT113">
         <v>1.57</v>
@@ -22997,7 +23018,7 @@
         <v>1.88</v>
       </c>
       <c r="AT115">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU115">
         <v>0</v>
@@ -23185,10 +23206,10 @@
         <v>2.43</v>
       </c>
       <c r="AS116">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AT116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AU116">
         <v>0</v>
@@ -23289,7 +23310,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23376,10 +23397,10 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT117">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AU117">
         <v>0</v>
@@ -23480,7 +23501,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23567,7 +23588,7 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT118">
         <v>1.88</v>
@@ -23671,7 +23692,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23862,7 +23883,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23949,10 +23970,10 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT120">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -24244,7 +24265,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24435,7 +24456,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24817,7 +24838,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25008,7 +25029,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25199,7 +25220,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25390,7 +25411,7 @@
         <v>115</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25581,7 +25602,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25723,6 +25744,1534 @@
       </c>
       <c r="BK129">
         <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>6156110</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45093.625</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" t="s">
+        <v>69</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>166</v>
+      </c>
+      <c r="P130" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q130">
+        <v>4</v>
+      </c>
+      <c r="R130">
+        <v>8</v>
+      </c>
+      <c r="S130">
+        <v>12</v>
+      </c>
+      <c r="T130">
+        <v>2.43</v>
+      </c>
+      <c r="U130">
+        <v>2.08</v>
+      </c>
+      <c r="V130">
+        <v>4.7</v>
+      </c>
+      <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>2.75</v>
+      </c>
+      <c r="Y130">
+        <v>2.75</v>
+      </c>
+      <c r="Z130">
+        <v>1.4</v>
+      </c>
+      <c r="AA130">
+        <v>7.5</v>
+      </c>
+      <c r="AB130">
+        <v>1.07</v>
+      </c>
+      <c r="AC130">
+        <v>1.91</v>
+      </c>
+      <c r="AD130">
+        <v>3.4</v>
+      </c>
+      <c r="AE130">
+        <v>3.6</v>
+      </c>
+      <c r="AF130">
+        <v>1.07</v>
+      </c>
+      <c r="AG130">
+        <v>7.5</v>
+      </c>
+      <c r="AH130">
+        <v>1.36</v>
+      </c>
+      <c r="AI130">
+        <v>3</v>
+      </c>
+      <c r="AJ130">
+        <v>2.1</v>
+      </c>
+      <c r="AK130">
+        <v>1.7</v>
+      </c>
+      <c r="AL130">
+        <v>1.88</v>
+      </c>
+      <c r="AM130">
+        <v>1.88</v>
+      </c>
+      <c r="AN130">
+        <v>1.21</v>
+      </c>
+      <c r="AO130">
+        <v>1.26</v>
+      </c>
+      <c r="AP130">
+        <v>1.86</v>
+      </c>
+      <c r="AQ130">
+        <v>1.71</v>
+      </c>
+      <c r="AR130">
+        <v>1.57</v>
+      </c>
+      <c r="AS130">
+        <v>1.88</v>
+      </c>
+      <c r="AT130">
+        <v>1.38</v>
+      </c>
+      <c r="AU130">
+        <v>1.26</v>
+      </c>
+      <c r="AV130">
+        <v>0.68</v>
+      </c>
+      <c r="AW130">
+        <v>1.94</v>
+      </c>
+      <c r="AX130">
+        <v>1.45</v>
+      </c>
+      <c r="AY130">
+        <v>9</v>
+      </c>
+      <c r="AZ130">
+        <v>3.4</v>
+      </c>
+      <c r="BA130">
+        <v>1.24</v>
+      </c>
+      <c r="BB130">
+        <v>1.52</v>
+      </c>
+      <c r="BC130">
+        <v>1.85</v>
+      </c>
+      <c r="BD130">
+        <v>2.26</v>
+      </c>
+      <c r="BE130">
+        <v>3.08</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>7</v>
+      </c>
+      <c r="BI130">
+        <v>5</v>
+      </c>
+      <c r="BJ130">
+        <v>10</v>
+      </c>
+      <c r="BK130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>6156117</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45093.79166666666</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>67</v>
+      </c>
+      <c r="H131" t="s">
+        <v>80</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>3</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131" t="s">
+        <v>91</v>
+      </c>
+      <c r="P131" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>3.78</v>
+      </c>
+      <c r="U131">
+        <v>2.1</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.36</v>
+      </c>
+      <c r="X131">
+        <v>3</v>
+      </c>
+      <c r="Y131">
+        <v>2.75</v>
+      </c>
+      <c r="Z131">
+        <v>1.4</v>
+      </c>
+      <c r="AA131">
+        <v>7</v>
+      </c>
+      <c r="AB131">
+        <v>1.08</v>
+      </c>
+      <c r="AC131">
+        <v>3.2</v>
+      </c>
+      <c r="AD131">
+        <v>3.3</v>
+      </c>
+      <c r="AE131">
+        <v>2.05</v>
+      </c>
+      <c r="AF131">
+        <v>1.06</v>
+      </c>
+      <c r="AG131">
+        <v>8</v>
+      </c>
+      <c r="AH131">
+        <v>1.3</v>
+      </c>
+      <c r="AI131">
+        <v>3.4</v>
+      </c>
+      <c r="AJ131">
+        <v>1.9</v>
+      </c>
+      <c r="AK131">
+        <v>1.84</v>
+      </c>
+      <c r="AL131">
+        <v>1.75</v>
+      </c>
+      <c r="AM131">
+        <v>2.03</v>
+      </c>
+      <c r="AN131">
+        <v>1.63</v>
+      </c>
+      <c r="AO131">
+        <v>1.28</v>
+      </c>
+      <c r="AP131">
+        <v>1.32</v>
+      </c>
+      <c r="AQ131">
+        <v>1.88</v>
+      </c>
+      <c r="AR131">
+        <v>0.88</v>
+      </c>
+      <c r="AS131">
+        <v>1.67</v>
+      </c>
+      <c r="AT131">
+        <v>1.11</v>
+      </c>
+      <c r="AU131">
+        <v>1.76</v>
+      </c>
+      <c r="AV131">
+        <v>1.35</v>
+      </c>
+      <c r="AW131">
+        <v>3.11</v>
+      </c>
+      <c r="AX131">
+        <v>2.2</v>
+      </c>
+      <c r="AY131">
+        <v>8</v>
+      </c>
+      <c r="AZ131">
+        <v>1.91</v>
+      </c>
+      <c r="BA131">
+        <v>1.22</v>
+      </c>
+      <c r="BB131">
+        <v>1.41</v>
+      </c>
+      <c r="BC131">
+        <v>1.75</v>
+      </c>
+      <c r="BD131">
+        <v>2.15</v>
+      </c>
+      <c r="BE131">
+        <v>3</v>
+      </c>
+      <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>4</v>
+      </c>
+      <c r="BI131">
+        <v>5</v>
+      </c>
+      <c r="BJ131">
+        <v>9</v>
+      </c>
+      <c r="BK131">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>6156115</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45094.41666666666</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H132" t="s">
+        <v>79</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>81</v>
+      </c>
+      <c r="P132" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q132">
+        <v>9</v>
+      </c>
+      <c r="R132">
+        <v>13</v>
+      </c>
+      <c r="S132">
+        <v>22</v>
+      </c>
+      <c r="T132">
+        <v>3</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
+        <v>3.6</v>
+      </c>
+      <c r="W132">
+        <v>1.45</v>
+      </c>
+      <c r="X132">
+        <v>2.55</v>
+      </c>
+      <c r="Y132">
+        <v>3.05</v>
+      </c>
+      <c r="Z132">
+        <v>1.32</v>
+      </c>
+      <c r="AA132">
+        <v>7.25</v>
+      </c>
+      <c r="AB132">
+        <v>1.06</v>
+      </c>
+      <c r="AC132">
+        <v>2.1</v>
+      </c>
+      <c r="AD132">
+        <v>3.1</v>
+      </c>
+      <c r="AE132">
+        <v>3.3</v>
+      </c>
+      <c r="AF132">
+        <v>1.07</v>
+      </c>
+      <c r="AG132">
+        <v>9.1</v>
+      </c>
+      <c r="AH132">
+        <v>1.35</v>
+      </c>
+      <c r="AI132">
+        <v>2.94</v>
+      </c>
+      <c r="AJ132">
+        <v>2.25</v>
+      </c>
+      <c r="AK132">
+        <v>1.62</v>
+      </c>
+      <c r="AL132">
+        <v>1.85</v>
+      </c>
+      <c r="AM132">
+        <v>1.85</v>
+      </c>
+      <c r="AN132">
+        <v>1.35</v>
+      </c>
+      <c r="AO132">
+        <v>1.3</v>
+      </c>
+      <c r="AP132">
+        <v>1.55</v>
+      </c>
+      <c r="AQ132">
+        <v>0.86</v>
+      </c>
+      <c r="AR132">
+        <v>0.75</v>
+      </c>
+      <c r="AS132">
+        <v>0.88</v>
+      </c>
+      <c r="AT132">
+        <v>0.78</v>
+      </c>
+      <c r="AU132">
+        <v>0.99</v>
+      </c>
+      <c r="AV132">
+        <v>1.42</v>
+      </c>
+      <c r="AW132">
+        <v>2.41</v>
+      </c>
+      <c r="AX132">
+        <v>1.73</v>
+      </c>
+      <c r="AY132">
+        <v>8</v>
+      </c>
+      <c r="AZ132">
+        <v>2.4</v>
+      </c>
+      <c r="BA132">
+        <v>1.27</v>
+      </c>
+      <c r="BB132">
+        <v>1.5</v>
+      </c>
+      <c r="BC132">
+        <v>1.89</v>
+      </c>
+      <c r="BD132">
+        <v>2.45</v>
+      </c>
+      <c r="BE132">
+        <v>3.34</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>3</v>
+      </c>
+      <c r="BH132">
+        <v>3</v>
+      </c>
+      <c r="BI132">
+        <v>2</v>
+      </c>
+      <c r="BJ132">
+        <v>7</v>
+      </c>
+      <c r="BK132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>6156111</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45094.625</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="s">
+        <v>76</v>
+      </c>
+      <c r="H133" t="s">
+        <v>68</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>167</v>
+      </c>
+      <c r="P133" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>7</v>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133">
+        <v>2.8</v>
+      </c>
+      <c r="U133">
+        <v>2.1</v>
+      </c>
+      <c r="V133">
+        <v>3.6</v>
+      </c>
+      <c r="W133">
+        <v>1.4</v>
+      </c>
+      <c r="X133">
+        <v>2.75</v>
+      </c>
+      <c r="Y133">
+        <v>2.75</v>
+      </c>
+      <c r="Z133">
+        <v>1.4</v>
+      </c>
+      <c r="AA133">
+        <v>6.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.1</v>
+      </c>
+      <c r="AC133">
+        <v>2.15</v>
+      </c>
+      <c r="AD133">
+        <v>3.3</v>
+      </c>
+      <c r="AE133">
+        <v>3</v>
+      </c>
+      <c r="AF133">
+        <v>1.05</v>
+      </c>
+      <c r="AG133">
+        <v>11.25</v>
+      </c>
+      <c r="AH133">
+        <v>1.28</v>
+      </c>
+      <c r="AI133">
+        <v>3.32</v>
+      </c>
+      <c r="AJ133">
+        <v>1.9</v>
+      </c>
+      <c r="AK133">
+        <v>1.9</v>
+      </c>
+      <c r="AL133">
+        <v>1.74</v>
+      </c>
+      <c r="AM133">
+        <v>2.04</v>
+      </c>
+      <c r="AN133">
+        <v>1.35</v>
+      </c>
+      <c r="AO133">
+        <v>1.28</v>
+      </c>
+      <c r="AP133">
+        <v>1.62</v>
+      </c>
+      <c r="AQ133">
+        <v>0.86</v>
+      </c>
+      <c r="AR133">
+        <v>1.33</v>
+      </c>
+      <c r="AS133">
+        <v>1.13</v>
+      </c>
+      <c r="AT133">
+        <v>1.14</v>
+      </c>
+      <c r="AU133">
+        <v>2.29</v>
+      </c>
+      <c r="AV133">
+        <v>1.02</v>
+      </c>
+      <c r="AW133">
+        <v>3.31</v>
+      </c>
+      <c r="AX133">
+        <v>1.67</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>2.6</v>
+      </c>
+      <c r="BA133">
+        <v>1.26</v>
+      </c>
+      <c r="BB133">
+        <v>1.49</v>
+      </c>
+      <c r="BC133">
+        <v>1.98</v>
+      </c>
+      <c r="BD133">
+        <v>2.38</v>
+      </c>
+      <c r="BE133">
+        <v>3.2</v>
+      </c>
+      <c r="BF133">
+        <v>11</v>
+      </c>
+      <c r="BG133">
+        <v>7</v>
+      </c>
+      <c r="BH133">
+        <v>4</v>
+      </c>
+      <c r="BI133">
+        <v>9</v>
+      </c>
+      <c r="BJ133">
+        <v>15</v>
+      </c>
+      <c r="BK133">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>6156116</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45094.75</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>168</v>
+      </c>
+      <c r="P134" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q134">
+        <v>4</v>
+      </c>
+      <c r="R134">
+        <v>6</v>
+      </c>
+      <c r="S134">
+        <v>10</v>
+      </c>
+      <c r="T134">
+        <v>1.93</v>
+      </c>
+      <c r="U134">
+        <v>2.32</v>
+      </c>
+      <c r="V134">
+        <v>6.4</v>
+      </c>
+      <c r="W134">
+        <v>1.35</v>
+      </c>
+      <c r="X134">
+        <v>3.05</v>
+      </c>
+      <c r="Y134">
+        <v>2.62</v>
+      </c>
+      <c r="Z134">
+        <v>1.44</v>
+      </c>
+      <c r="AA134">
+        <v>6.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.09</v>
+      </c>
+      <c r="AC134">
+        <v>1.53</v>
+      </c>
+      <c r="AD134">
+        <v>3.75</v>
+      </c>
+      <c r="AE134">
+        <v>5.5</v>
+      </c>
+      <c r="AF134">
+        <v>1.05</v>
+      </c>
+      <c r="AG134">
+        <v>9</v>
+      </c>
+      <c r="AH134">
+        <v>1.29</v>
+      </c>
+      <c r="AI134">
+        <v>3.5</v>
+      </c>
+      <c r="AJ134">
+        <v>1.85</v>
+      </c>
+      <c r="AK134">
+        <v>1.95</v>
+      </c>
+      <c r="AL134">
+        <v>1.96</v>
+      </c>
+      <c r="AM134">
+        <v>1.8</v>
+      </c>
+      <c r="AN134">
+        <v>1.08</v>
+      </c>
+      <c r="AO134">
+        <v>1.18</v>
+      </c>
+      <c r="AP134">
+        <v>2.64</v>
+      </c>
+      <c r="AQ134">
+        <v>2.71</v>
+      </c>
+      <c r="AR134">
+        <v>0.89</v>
+      </c>
+      <c r="AS134">
+        <v>2.75</v>
+      </c>
+      <c r="AT134">
+        <v>0.8</v>
+      </c>
+      <c r="AU134">
+        <v>0</v>
+      </c>
+      <c r="AV134">
+        <v>1.8</v>
+      </c>
+      <c r="AW134">
+        <v>1.8</v>
+      </c>
+      <c r="AX134">
+        <v>1.36</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>3.6</v>
+      </c>
+      <c r="BA134">
+        <v>1.21</v>
+      </c>
+      <c r="BB134">
+        <v>1.41</v>
+      </c>
+      <c r="BC134">
+        <v>1.93</v>
+      </c>
+      <c r="BD134">
+        <v>2.15</v>
+      </c>
+      <c r="BE134">
+        <v>2.84</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>5</v>
+      </c>
+      <c r="BH134">
+        <v>2</v>
+      </c>
+      <c r="BI134">
+        <v>3</v>
+      </c>
+      <c r="BJ134">
+        <v>6</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>6156114</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45095.41666666666</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>65</v>
+      </c>
+      <c r="H135" t="s">
+        <v>71</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>169</v>
+      </c>
+      <c r="P135" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>10</v>
+      </c>
+      <c r="S135">
+        <v>15</v>
+      </c>
+      <c r="T135">
+        <v>2.73</v>
+      </c>
+      <c r="U135">
+        <v>1.99</v>
+      </c>
+      <c r="V135">
+        <v>4.24</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>2.62</v>
+      </c>
+      <c r="Y135">
+        <v>3.25</v>
+      </c>
+      <c r="Z135">
+        <v>1.3</v>
+      </c>
+      <c r="AA135">
+        <v>9</v>
+      </c>
+      <c r="AB135">
+        <v>1.06</v>
+      </c>
+      <c r="AC135">
+        <v>2</v>
+      </c>
+      <c r="AD135">
+        <v>2.9</v>
+      </c>
+      <c r="AE135">
+        <v>3.2</v>
+      </c>
+      <c r="AF135">
+        <v>1.05</v>
+      </c>
+      <c r="AG135">
+        <v>7.3</v>
+      </c>
+      <c r="AH135">
+        <v>1.39</v>
+      </c>
+      <c r="AI135">
+        <v>2.71</v>
+      </c>
+      <c r="AJ135">
+        <v>2.3</v>
+      </c>
+      <c r="AK135">
+        <v>1.57</v>
+      </c>
+      <c r="AL135">
+        <v>1.96</v>
+      </c>
+      <c r="AM135">
+        <v>1.8</v>
+      </c>
+      <c r="AN135">
+        <v>1.27</v>
+      </c>
+      <c r="AO135">
+        <v>1.3</v>
+      </c>
+      <c r="AP135">
+        <v>1.67</v>
+      </c>
+      <c r="AQ135">
+        <v>0.63</v>
+      </c>
+      <c r="AR135">
+        <v>0.71</v>
+      </c>
+      <c r="AS135">
+        <v>0.89</v>
+      </c>
+      <c r="AT135">
+        <v>0.63</v>
+      </c>
+      <c r="AU135">
+        <v>1.05</v>
+      </c>
+      <c r="AV135">
+        <v>1.17</v>
+      </c>
+      <c r="AW135">
+        <v>2.22</v>
+      </c>
+      <c r="AX135">
+        <v>1.45</v>
+      </c>
+      <c r="AY135">
+        <v>8.5</v>
+      </c>
+      <c r="AZ135">
+        <v>3.2</v>
+      </c>
+      <c r="BA135">
+        <v>1.27</v>
+      </c>
+      <c r="BB135">
+        <v>1.51</v>
+      </c>
+      <c r="BC135">
+        <v>1.83</v>
+      </c>
+      <c r="BD135">
+        <v>2.42</v>
+      </c>
+      <c r="BE135">
+        <v>3.28</v>
+      </c>
+      <c r="BF135">
+        <v>7</v>
+      </c>
+      <c r="BG135">
+        <v>5</v>
+      </c>
+      <c r="BH135">
+        <v>6</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>13</v>
+      </c>
+      <c r="BK135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>6156112</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45095.64583333334</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>66</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>3</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>131</v>
+      </c>
+      <c r="P136" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q136">
+        <v>4</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>6</v>
+      </c>
+      <c r="T136">
+        <v>2.1</v>
+      </c>
+      <c r="U136">
+        <v>2.2</v>
+      </c>
+      <c r="V136">
+        <v>5.5</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>2.75</v>
+      </c>
+      <c r="Y136">
+        <v>2.8</v>
+      </c>
+      <c r="Z136">
+        <v>1.38</v>
+      </c>
+      <c r="AA136">
+        <v>6.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>1.47</v>
+      </c>
+      <c r="AD136">
+        <v>3.7</v>
+      </c>
+      <c r="AE136">
+        <v>5.25</v>
+      </c>
+      <c r="AF136">
+        <v>1.05</v>
+      </c>
+      <c r="AG136">
+        <v>11.5</v>
+      </c>
+      <c r="AH136">
+        <v>1.29</v>
+      </c>
+      <c r="AI136">
+        <v>3.28</v>
+      </c>
+      <c r="AJ136">
+        <v>1.79</v>
+      </c>
+      <c r="AK136">
+        <v>1.81</v>
+      </c>
+      <c r="AL136">
+        <v>1.95</v>
+      </c>
+      <c r="AM136">
+        <v>1.75</v>
+      </c>
+      <c r="AN136">
+        <v>1.13</v>
+      </c>
+      <c r="AO136">
+        <v>1.2</v>
+      </c>
+      <c r="AP136">
+        <v>2.3</v>
+      </c>
+      <c r="AQ136">
+        <v>2.56</v>
+      </c>
+      <c r="AR136">
+        <v>0.63</v>
+      </c>
+      <c r="AS136">
+        <v>2.3</v>
+      </c>
+      <c r="AT136">
+        <v>0.89</v>
+      </c>
+      <c r="AU136">
+        <v>1.05</v>
+      </c>
+      <c r="AV136">
+        <v>0.7</v>
+      </c>
+      <c r="AW136">
+        <v>1.75</v>
+      </c>
+      <c r="AX136">
+        <v>1.29</v>
+      </c>
+      <c r="AY136">
+        <v>9.5</v>
+      </c>
+      <c r="AZ136">
+        <v>4.32</v>
+      </c>
+      <c r="BA136">
+        <v>1.27</v>
+      </c>
+      <c r="BB136">
+        <v>1.43</v>
+      </c>
+      <c r="BC136">
+        <v>1.8</v>
+      </c>
+      <c r="BD136">
+        <v>2.27</v>
+      </c>
+      <c r="BE136">
+        <v>3.05</v>
+      </c>
+      <c r="BF136">
+        <v>5</v>
+      </c>
+      <c r="BG136">
+        <v>5</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>1</v>
+      </c>
+      <c r="BJ136">
+        <v>5</v>
+      </c>
+      <c r="BK136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>6156113</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45095.75</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="G137" t="s">
+        <v>72</v>
+      </c>
+      <c r="H137" t="s">
+        <v>78</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>170</v>
+      </c>
+      <c r="P137" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q137">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137">
+        <v>2.45</v>
+      </c>
+      <c r="U137">
+        <v>2.05</v>
+      </c>
+      <c r="V137">
+        <v>4.5</v>
+      </c>
+      <c r="W137">
+        <v>1.43</v>
+      </c>
+      <c r="X137">
+        <v>2.65</v>
+      </c>
+      <c r="Y137">
+        <v>2.98</v>
+      </c>
+      <c r="Z137">
+        <v>1.36</v>
+      </c>
+      <c r="AA137">
+        <v>7.7</v>
+      </c>
+      <c r="AB137">
+        <v>1.06</v>
+      </c>
+      <c r="AC137">
+        <v>1.71</v>
+      </c>
+      <c r="AD137">
+        <v>3.4</v>
+      </c>
+      <c r="AE137">
+        <v>4.2</v>
+      </c>
+      <c r="AF137">
+        <v>1.05</v>
+      </c>
+      <c r="AG137">
+        <v>10.25</v>
+      </c>
+      <c r="AH137">
+        <v>1.32</v>
+      </c>
+      <c r="AI137">
+        <v>3.1</v>
+      </c>
+      <c r="AJ137">
+        <v>2.14</v>
+      </c>
+      <c r="AK137">
+        <v>1.67</v>
+      </c>
+      <c r="AL137">
+        <v>1.88</v>
+      </c>
+      <c r="AM137">
+        <v>1.88</v>
+      </c>
+      <c r="AN137">
+        <v>1.22</v>
+      </c>
+      <c r="AO137">
+        <v>1.25</v>
+      </c>
+      <c r="AP137">
+        <v>1.88</v>
+      </c>
+      <c r="AQ137">
+        <v>1.38</v>
+      </c>
+      <c r="AR137">
+        <v>2.25</v>
+      </c>
+      <c r="AS137">
+        <v>1.56</v>
+      </c>
+      <c r="AT137">
+        <v>2</v>
+      </c>
+      <c r="AU137">
+        <v>2.03</v>
+      </c>
+      <c r="AV137">
+        <v>1.34</v>
+      </c>
+      <c r="AW137">
+        <v>3.37</v>
+      </c>
+      <c r="AX137">
+        <v>1.45</v>
+      </c>
+      <c r="AY137">
+        <v>9</v>
+      </c>
+      <c r="AZ137">
+        <v>3.4</v>
+      </c>
+      <c r="BA137">
+        <v>1.24</v>
+      </c>
+      <c r="BB137">
+        <v>1.41</v>
+      </c>
+      <c r="BC137">
+        <v>1.73</v>
+      </c>
+      <c r="BD137">
+        <v>2.22</v>
+      </c>
+      <c r="BE137">
+        <v>2.9</v>
+      </c>
+      <c r="BF137">
+        <v>2</v>
+      </c>
+      <c r="BG137">
+        <v>2</v>
+      </c>
+      <c r="BH137">
+        <v>4</v>
+      </c>
+      <c r="BI137">
+        <v>3</v>
+      </c>
+      <c r="BJ137">
+        <v>6</v>
+      </c>
+      <c r="BK137">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -739,7 +739,7 @@
     <t>['47', '62', '73']</t>
   </si>
   <si>
-    <t>['43', '62', '68']</t>
+    <t>['42', '62', '68']</t>
   </si>
 </sst>
 </file>
@@ -26936,7 +26936,7 @@
         <v>4</v>
       </c>
       <c r="O136" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="P136" t="s">
         <v>241</v>
@@ -27133,13 +27133,13 @@
         <v>81</v>
       </c>
       <c r="Q137">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S137">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T137">
         <v>2.45</v>
@@ -27256,22 +27256,22 @@
         <v>2.9</v>
       </c>
       <c r="BF137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH137">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BI137">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ137">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BK137">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,15 @@
     <t>['54', '90']</t>
   </si>
   <si>
+    <t>['8', '47', '64']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['22', '78', '80']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -740,6 +749,15 @@
   </si>
   <si>
     <t>['42', '62', '68']</t>
+  </si>
+  <si>
+    <t>['2', '38']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['45', '55']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1363,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1435,7 +1453,7 @@
         <v>0.89</v>
       </c>
       <c r="AT2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1918,7 +1936,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2005,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -2196,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT6">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2300,7 +2318,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2491,7 +2509,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2578,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT8">
         <v>0.8</v>
@@ -2682,7 +2700,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2772,7 +2790,7 @@
         <v>1.56</v>
       </c>
       <c r="AT9">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2963,7 +2981,7 @@
         <v>2.75</v>
       </c>
       <c r="AT10">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3064,7 +3082,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3342,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT12">
         <v>0.63</v>
@@ -3446,7 +3464,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3533,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3637,7 +3655,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3828,7 +3846,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4019,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4106,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT16">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4210,7 +4228,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4297,10 +4315,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT17">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4491,7 +4509,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4679,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT19">
         <v>0.8</v>
@@ -4783,7 +4801,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4870,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT20">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5446,7 +5464,7 @@
         <v>2.3</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5547,7 +5565,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5634,10 +5652,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT24">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5738,7 +5756,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5825,7 +5843,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT25">
         <v>2</v>
@@ -5929,7 +5947,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6016,7 +6034,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
         <v>0.78</v>
@@ -6210,7 +6228,7 @@
         <v>0.88</v>
       </c>
       <c r="AT27">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU27">
         <v>0</v>
@@ -6311,7 +6329,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6401,7 +6419,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6693,7 +6711,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6780,10 +6798,10 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU30">
         <v>0</v>
@@ -6884,7 +6902,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6974,7 +6992,7 @@
         <v>2.75</v>
       </c>
       <c r="AT31">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7075,7 +7093,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7162,7 +7180,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT32">
         <v>1.38</v>
@@ -7266,7 +7284,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7353,7 +7371,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT33">
         <v>1.11</v>
@@ -7457,7 +7475,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7547,7 +7565,7 @@
         <v>0.89</v>
       </c>
       <c r="AT34">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7648,7 +7666,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7735,10 +7753,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT35">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7839,7 +7857,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7926,10 +7944,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT36">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8221,7 +8239,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8308,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT38">
         <v>1.14</v>
@@ -8412,7 +8430,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8794,7 +8812,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8881,10 +8899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT41">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -8985,7 +9003,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9072,10 +9090,10 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT42">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU42">
         <v>0</v>
@@ -9176,7 +9194,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9263,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT43">
         <v>0.63</v>
@@ -9367,7 +9385,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9457,7 +9475,7 @@
         <v>2.75</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU44">
         <v>0</v>
@@ -9749,7 +9767,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9839,7 +9857,7 @@
         <v>0.88</v>
       </c>
       <c r="AT46">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9940,7 +9958,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10218,7 +10236,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT48">
         <v>0.8</v>
@@ -10322,7 +10340,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10600,7 +10618,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT50">
         <v>1.14</v>
@@ -10791,7 +10809,7 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT51">
         <v>1.38</v>
@@ -10982,10 +11000,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11277,7 +11295,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11367,7 +11385,7 @@
         <v>1.67</v>
       </c>
       <c r="AT54">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11468,7 +11486,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11558,7 +11576,7 @@
         <v>1.13</v>
       </c>
       <c r="AT55">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -11937,10 +11955,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT57">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12510,10 +12528,10 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT60">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -12701,7 +12719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT61">
         <v>0.78</v>
@@ -12895,7 +12913,7 @@
         <v>0.88</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU62">
         <v>0</v>
@@ -13187,7 +13205,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13274,10 +13292,10 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT64">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13378,7 +13396,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13465,10 +13483,10 @@
         <v>1.67</v>
       </c>
       <c r="AS65">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU65">
         <v>0</v>
@@ -13569,7 +13587,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13656,10 +13674,10 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT66">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -14041,7 +14059,7 @@
         <v>2.3</v>
       </c>
       <c r="AT68">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -14229,10 +14247,10 @@
         <v>0.75</v>
       </c>
       <c r="AS69">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU69">
         <v>0</v>
@@ -14420,7 +14438,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT70">
         <v>1.14</v>
@@ -14715,7 +14733,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14805,7 +14823,7 @@
         <v>0.89</v>
       </c>
       <c r="AT72">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -14906,7 +14924,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -14993,7 +15011,7 @@
         <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT73">
         <v>1.38</v>
@@ -15184,7 +15202,7 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT74">
         <v>0.8</v>
@@ -15670,7 +15688,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15757,10 +15775,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT77">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -15951,7 +15969,7 @@
         <v>1.88</v>
       </c>
       <c r="AT78">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU78">
         <v>0</v>
@@ -16142,7 +16160,7 @@
         <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -16243,7 +16261,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16330,7 +16348,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT80">
         <v>0.63</v>
@@ -16434,7 +16452,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16521,10 +16539,10 @@
         <v>0.8</v>
       </c>
       <c r="AS81">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT81">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU81">
         <v>0</v>
@@ -16715,7 +16733,7 @@
         <v>2.75</v>
       </c>
       <c r="AT82">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU82">
         <v>0</v>
@@ -17097,7 +17115,7 @@
         <v>2.3</v>
       </c>
       <c r="AT84">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17285,10 +17303,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
+        <v>1.3</v>
+      </c>
+      <c r="AT85">
         <v>1.33</v>
-      </c>
-      <c r="AT85">
-        <v>1.38</v>
       </c>
       <c r="AU85">
         <v>0</v>
@@ -17479,7 +17497,7 @@
         <v>1.13</v>
       </c>
       <c r="AT86">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU86">
         <v>0</v>
@@ -17580,7 +17598,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17667,7 +17685,7 @@
         <v>2.2</v>
       </c>
       <c r="AS87">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT87">
         <v>2</v>
@@ -17771,7 +17789,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17858,7 +17876,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT88">
         <v>1.38</v>
@@ -17962,7 +17980,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18049,7 +18067,7 @@
         <v>1.17</v>
       </c>
       <c r="AS89">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT89">
         <v>0.8</v>
@@ -18243,7 +18261,7 @@
         <v>1.67</v>
       </c>
       <c r="AT90">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -18344,7 +18362,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18431,10 +18449,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU91">
         <v>0</v>
@@ -18535,7 +18553,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18622,7 +18640,7 @@
         <v>0.5</v>
       </c>
       <c r="AS92">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT92">
         <v>0.89</v>
@@ -18917,7 +18935,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19007,7 +19025,7 @@
         <v>0.88</v>
       </c>
       <c r="AT94">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU94">
         <v>0</v>
@@ -19108,7 +19126,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19195,10 +19213,10 @@
         <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT95">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU95">
         <v>0</v>
@@ -19299,7 +19317,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19386,7 +19404,7 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT96">
         <v>0.78</v>
@@ -19490,7 +19508,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19577,10 +19595,10 @@
         <v>0.6</v>
       </c>
       <c r="AS97">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT97">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -19681,7 +19699,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19962,7 +19980,7 @@
         <v>2.3</v>
       </c>
       <c r="AT99">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20063,7 +20081,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20341,10 +20359,10 @@
         <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT101">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU101">
         <v>2.23</v>
@@ -20636,7 +20654,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20723,10 +20741,10 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT103">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -20827,7 +20845,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20914,7 +20932,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT104">
         <v>1.38</v>
@@ -21209,7 +21227,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21299,7 +21317,7 @@
         <v>1.67</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU106">
         <v>0</v>
@@ -21400,7 +21418,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21487,10 +21505,10 @@
         <v>0.43</v>
       </c>
       <c r="AS107">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT107">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU107">
         <v>0</v>
@@ -21591,7 +21609,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21678,7 +21696,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT108">
         <v>0.8</v>
@@ -21782,7 +21800,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21869,10 +21887,10 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT109">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -21973,7 +21991,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22063,7 +22081,7 @@
         <v>1.56</v>
       </c>
       <c r="AT110">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -22164,7 +22182,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22251,7 +22269,7 @@
         <v>0.57</v>
       </c>
       <c r="AS111">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT111">
         <v>0.89</v>
@@ -22355,7 +22373,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22442,7 +22460,7 @@
         <v>0.71</v>
       </c>
       <c r="AS112">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT112">
         <v>0.78</v>
@@ -22546,7 +22564,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22636,7 +22654,7 @@
         <v>0.89</v>
       </c>
       <c r="AT113">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU113">
         <v>1.26</v>
@@ -22824,10 +22842,10 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -23015,7 +23033,7 @@
         <v>1</v>
       </c>
       <c r="AS115">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT115">
         <v>1.11</v>
@@ -23310,7 +23328,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23501,7 +23519,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23591,7 +23609,7 @@
         <v>1.88</v>
       </c>
       <c r="AT118">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23692,7 +23710,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23779,10 +23797,10 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT119">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -23883,7 +23901,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24161,10 +24179,10 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT121">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU121">
         <v>2.23</v>
@@ -24265,7 +24283,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24352,10 +24370,10 @@
         <v>1.43</v>
       </c>
       <c r="AS122">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT122">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24456,7 +24474,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24543,10 +24561,10 @@
         <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT123">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU123">
         <v>1.28</v>
@@ -24734,10 +24752,10 @@
         <v>1.25</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT124">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU124">
         <v>1.86</v>
@@ -24838,7 +24856,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -24925,10 +24943,10 @@
         <v>0.38</v>
       </c>
       <c r="AS125">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT125">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU125">
         <v>0.65</v>
@@ -25029,7 +25047,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25116,10 +25134,10 @@
         <v>1.43</v>
       </c>
       <c r="AS126">
+        <v>1.3</v>
+      </c>
+      <c r="AT126">
         <v>1.33</v>
-      </c>
-      <c r="AT126">
-        <v>1.38</v>
       </c>
       <c r="AU126">
         <v>1.4</v>
@@ -25220,7 +25238,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25307,10 +25325,10 @@
         <v>0.75</v>
       </c>
       <c r="AS127">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU127">
         <v>0.95</v>
@@ -25411,7 +25429,7 @@
         <v>115</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25498,10 +25516,10 @@
         <v>0.75</v>
       </c>
       <c r="AS128">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT128">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU128">
         <v>1.2</v>
@@ -25602,7 +25620,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25689,10 +25707,10 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AT129">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25984,7 +26002,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26748,7 +26766,7 @@
         <v>169</v>
       </c>
       <c r="P135" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -26939,7 +26957,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27272,6 +27290,1534 @@
       </c>
       <c r="BK137">
         <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>6156122</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45100.625</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+      <c r="H138" t="s">
+        <v>70</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>171</v>
+      </c>
+      <c r="P138" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+      <c r="S138">
+        <v>8</v>
+      </c>
+      <c r="T138">
+        <v>3.7</v>
+      </c>
+      <c r="U138">
+        <v>2.2</v>
+      </c>
+      <c r="V138">
+        <v>2.5</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>3</v>
+      </c>
+      <c r="Y138">
+        <v>2.5</v>
+      </c>
+      <c r="Z138">
+        <v>1.5</v>
+      </c>
+      <c r="AA138">
+        <v>6</v>
+      </c>
+      <c r="AB138">
+        <v>1.11</v>
+      </c>
+      <c r="AC138">
+        <v>3.65</v>
+      </c>
+      <c r="AD138">
+        <v>3.55</v>
+      </c>
+      <c r="AE138">
+        <v>1.87</v>
+      </c>
+      <c r="AF138">
+        <v>1.05</v>
+      </c>
+      <c r="AG138">
+        <v>9</v>
+      </c>
+      <c r="AH138">
+        <v>1.25</v>
+      </c>
+      <c r="AI138">
+        <v>3.75</v>
+      </c>
+      <c r="AJ138">
+        <v>1.82</v>
+      </c>
+      <c r="AK138">
+        <v>1.93</v>
+      </c>
+      <c r="AL138">
+        <v>1.67</v>
+      </c>
+      <c r="AM138">
+        <v>2.1</v>
+      </c>
+      <c r="AN138">
+        <v>1.75</v>
+      </c>
+      <c r="AO138">
+        <v>1.29</v>
+      </c>
+      <c r="AP138">
+        <v>1.29</v>
+      </c>
+      <c r="AQ138">
+        <v>2.38</v>
+      </c>
+      <c r="AR138">
+        <v>1.22</v>
+      </c>
+      <c r="AS138">
+        <v>2.44</v>
+      </c>
+      <c r="AT138">
+        <v>1.1</v>
+      </c>
+      <c r="AU138">
+        <v>1.43</v>
+      </c>
+      <c r="AV138">
+        <v>1.83</v>
+      </c>
+      <c r="AW138">
+        <v>3.26</v>
+      </c>
+      <c r="AX138">
+        <v>2.4</v>
+      </c>
+      <c r="AY138">
+        <v>8</v>
+      </c>
+      <c r="AZ138">
+        <v>1.73</v>
+      </c>
+      <c r="BA138">
+        <v>1.23</v>
+      </c>
+      <c r="BB138">
+        <v>1.43</v>
+      </c>
+      <c r="BC138">
+        <v>1.78</v>
+      </c>
+      <c r="BD138">
+        <v>2.25</v>
+      </c>
+      <c r="BE138">
+        <v>3.04</v>
+      </c>
+      <c r="BF138">
+        <v>8</v>
+      </c>
+      <c r="BG138">
+        <v>2</v>
+      </c>
+      <c r="BH138">
+        <v>10</v>
+      </c>
+      <c r="BI138">
+        <v>6</v>
+      </c>
+      <c r="BJ138">
+        <v>18</v>
+      </c>
+      <c r="BK138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>6156119</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45100.79166666666</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>68</v>
+      </c>
+      <c r="H139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>81</v>
+      </c>
+      <c r="P139" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q139">
+        <v>8</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>11</v>
+      </c>
+      <c r="T139">
+        <v>3.2</v>
+      </c>
+      <c r="U139">
+        <v>2.05</v>
+      </c>
+      <c r="V139">
+        <v>3.1</v>
+      </c>
+      <c r="W139">
+        <v>1.4</v>
+      </c>
+      <c r="X139">
+        <v>2.75</v>
+      </c>
+      <c r="Y139">
+        <v>2.75</v>
+      </c>
+      <c r="Z139">
+        <v>1.4</v>
+      </c>
+      <c r="AA139">
+        <v>7</v>
+      </c>
+      <c r="AB139">
+        <v>1.08</v>
+      </c>
+      <c r="AC139">
+        <v>2.55</v>
+      </c>
+      <c r="AD139">
+        <v>3.2</v>
+      </c>
+      <c r="AE139">
+        <v>2.63</v>
+      </c>
+      <c r="AF139">
+        <v>1.07</v>
+      </c>
+      <c r="AG139">
+        <v>7.5</v>
+      </c>
+      <c r="AH139">
+        <v>1.36</v>
+      </c>
+      <c r="AI139">
+        <v>3</v>
+      </c>
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AK139">
+        <v>1.76</v>
+      </c>
+      <c r="AL139">
+        <v>1.8</v>
+      </c>
+      <c r="AM139">
+        <v>1.91</v>
+      </c>
+      <c r="AN139">
+        <v>1.53</v>
+      </c>
+      <c r="AO139">
+        <v>1.3</v>
+      </c>
+      <c r="AP139">
+        <v>1.4</v>
+      </c>
+      <c r="AQ139">
+        <v>1.4</v>
+      </c>
+      <c r="AR139">
+        <v>0.44</v>
+      </c>
+      <c r="AS139">
+        <v>1.27</v>
+      </c>
+      <c r="AT139">
+        <v>0.7</v>
+      </c>
+      <c r="AU139">
+        <v>1.54</v>
+      </c>
+      <c r="AV139">
+        <v>1.19</v>
+      </c>
+      <c r="AW139">
+        <v>2.73</v>
+      </c>
+      <c r="AX139">
+        <v>2.38</v>
+      </c>
+      <c r="AY139">
+        <v>8</v>
+      </c>
+      <c r="AZ139">
+        <v>1.8</v>
+      </c>
+      <c r="BA139">
+        <v>1.29</v>
+      </c>
+      <c r="BB139">
+        <v>1.5</v>
+      </c>
+      <c r="BC139">
+        <v>1.87</v>
+      </c>
+      <c r="BD139">
+        <v>2.45</v>
+      </c>
+      <c r="BE139">
+        <v>3.35</v>
+      </c>
+      <c r="BF139">
+        <v>2</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>6</v>
+      </c>
+      <c r="BI139">
+        <v>1</v>
+      </c>
+      <c r="BJ139">
+        <v>8</v>
+      </c>
+      <c r="BK139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>6156120</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45101.52083333334</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>85</v>
+      </c>
+      <c r="P140" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>6</v>
+      </c>
+      <c r="S140">
+        <v>11</v>
+      </c>
+      <c r="T140">
+        <v>4</v>
+      </c>
+      <c r="U140">
+        <v>2.05</v>
+      </c>
+      <c r="V140">
+        <v>2.6</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>2.75</v>
+      </c>
+      <c r="Y140">
+        <v>2.75</v>
+      </c>
+      <c r="Z140">
+        <v>1.4</v>
+      </c>
+      <c r="AA140">
+        <v>7</v>
+      </c>
+      <c r="AB140">
+        <v>1.08</v>
+      </c>
+      <c r="AC140">
+        <v>3.3</v>
+      </c>
+      <c r="AD140">
+        <v>3.3</v>
+      </c>
+      <c r="AE140">
+        <v>2.11</v>
+      </c>
+      <c r="AF140">
+        <v>1.07</v>
+      </c>
+      <c r="AG140">
+        <v>7.5</v>
+      </c>
+      <c r="AH140">
+        <v>1.36</v>
+      </c>
+      <c r="AI140">
+        <v>3</v>
+      </c>
+      <c r="AJ140">
+        <v>2.06</v>
+      </c>
+      <c r="AK140">
+        <v>1.72</v>
+      </c>
+      <c r="AL140">
+        <v>1.85</v>
+      </c>
+      <c r="AM140">
+        <v>1.85</v>
+      </c>
+      <c r="AN140">
+        <v>1.65</v>
+      </c>
+      <c r="AO140">
+        <v>1.33</v>
+      </c>
+      <c r="AP140">
+        <v>1.3</v>
+      </c>
+      <c r="AQ140">
+        <v>1.88</v>
+      </c>
+      <c r="AR140">
+        <v>1.88</v>
+      </c>
+      <c r="AS140">
+        <v>1.78</v>
+      </c>
+      <c r="AT140">
+        <v>1.78</v>
+      </c>
+      <c r="AU140">
+        <v>1.14</v>
+      </c>
+      <c r="AV140">
+        <v>1.24</v>
+      </c>
+      <c r="AW140">
+        <v>2.38</v>
+      </c>
+      <c r="AX140">
+        <v>2.4</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>1.73</v>
+      </c>
+      <c r="BA140">
+        <v>1.22</v>
+      </c>
+      <c r="BB140">
+        <v>1.41</v>
+      </c>
+      <c r="BC140">
+        <v>1.74</v>
+      </c>
+      <c r="BD140">
+        <v>2.17</v>
+      </c>
+      <c r="BE140">
+        <v>2.9</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>5</v>
+      </c>
+      <c r="BH140">
+        <v>1</v>
+      </c>
+      <c r="BI140">
+        <v>5</v>
+      </c>
+      <c r="BJ140">
+        <v>4</v>
+      </c>
+      <c r="BK140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>6156125</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45101.625</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141" t="s">
+        <v>73</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>172</v>
+      </c>
+      <c r="P141" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q141">
+        <v>6</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>8</v>
+      </c>
+      <c r="T141">
+        <v>3.4</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>2.62</v>
+      </c>
+      <c r="Y141">
+        <v>3</v>
+      </c>
+      <c r="Z141">
+        <v>1.36</v>
+      </c>
+      <c r="AA141">
+        <v>7.5</v>
+      </c>
+      <c r="AB141">
+        <v>1.07</v>
+      </c>
+      <c r="AC141">
+        <v>2.63</v>
+      </c>
+      <c r="AD141">
+        <v>3.1</v>
+      </c>
+      <c r="AE141">
+        <v>2.4</v>
+      </c>
+      <c r="AF141">
+        <v>1.08</v>
+      </c>
+      <c r="AG141">
+        <v>7</v>
+      </c>
+      <c r="AH141">
+        <v>1.4</v>
+      </c>
+      <c r="AI141">
+        <v>2.75</v>
+      </c>
+      <c r="AJ141">
+        <v>2.14</v>
+      </c>
+      <c r="AK141">
+        <v>1.65</v>
+      </c>
+      <c r="AL141">
+        <v>1.85</v>
+      </c>
+      <c r="AM141">
+        <v>1.85</v>
+      </c>
+      <c r="AN141">
+        <v>1.44</v>
+      </c>
+      <c r="AO141">
+        <v>1.35</v>
+      </c>
+      <c r="AP141">
+        <v>1.44</v>
+      </c>
+      <c r="AQ141">
+        <v>1.33</v>
+      </c>
+      <c r="AR141">
+        <v>0.78</v>
+      </c>
+      <c r="AS141">
+        <v>1.3</v>
+      </c>
+      <c r="AT141">
+        <v>0.8</v>
+      </c>
+      <c r="AU141">
+        <v>1.53</v>
+      </c>
+      <c r="AV141">
+        <v>1.62</v>
+      </c>
+      <c r="AW141">
+        <v>3.15</v>
+      </c>
+      <c r="AX141">
+        <v>2.63</v>
+      </c>
+      <c r="AY141">
+        <v>8</v>
+      </c>
+      <c r="AZ141">
+        <v>1.62</v>
+      </c>
+      <c r="BA141">
+        <v>1.22</v>
+      </c>
+      <c r="BB141">
+        <v>1.45</v>
+      </c>
+      <c r="BC141">
+        <v>1.74</v>
+      </c>
+      <c r="BD141">
+        <v>2.27</v>
+      </c>
+      <c r="BE141">
+        <v>3.1</v>
+      </c>
+      <c r="BF141">
+        <v>2</v>
+      </c>
+      <c r="BG141">
+        <v>4</v>
+      </c>
+      <c r="BH141">
+        <v>1</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>3</v>
+      </c>
+      <c r="BK141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>6156118</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45101.75</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s">
+        <v>66</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>81</v>
+      </c>
+      <c r="P142" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>6</v>
+      </c>
+      <c r="S142">
+        <v>10</v>
+      </c>
+      <c r="T142">
+        <v>4.7</v>
+      </c>
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
+        <v>2.4</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>2.7</v>
+      </c>
+      <c r="Y142">
+        <v>3.1</v>
+      </c>
+      <c r="Z142">
+        <v>1.32</v>
+      </c>
+      <c r="AA142">
+        <v>7.6</v>
+      </c>
+      <c r="AB142">
+        <v>1.07</v>
+      </c>
+      <c r="AC142">
+        <v>3.05</v>
+      </c>
+      <c r="AD142">
+        <v>3.35</v>
+      </c>
+      <c r="AE142">
+        <v>2.02</v>
+      </c>
+      <c r="AF142">
+        <v>1.05</v>
+      </c>
+      <c r="AG142">
+        <v>8</v>
+      </c>
+      <c r="AH142">
+        <v>1.28</v>
+      </c>
+      <c r="AI142">
+        <v>3.3</v>
+      </c>
+      <c r="AJ142">
+        <v>2.2</v>
+      </c>
+      <c r="AK142">
+        <v>1.65</v>
+      </c>
+      <c r="AL142">
+        <v>1.85</v>
+      </c>
+      <c r="AM142">
+        <v>1.85</v>
+      </c>
+      <c r="AN142">
+        <v>1.8</v>
+      </c>
+      <c r="AO142">
+        <v>1.28</v>
+      </c>
+      <c r="AP142">
+        <v>1.15</v>
+      </c>
+      <c r="AQ142">
+        <v>0.75</v>
+      </c>
+      <c r="AR142">
+        <v>1.57</v>
+      </c>
+      <c r="AS142">
+        <v>0.78</v>
+      </c>
+      <c r="AT142">
+        <v>1.5</v>
+      </c>
+      <c r="AU142">
+        <v>1.12</v>
+      </c>
+      <c r="AV142">
+        <v>1.54</v>
+      </c>
+      <c r="AW142">
+        <v>2.66</v>
+      </c>
+      <c r="AX142">
+        <v>3.25</v>
+      </c>
+      <c r="AY142">
+        <v>9</v>
+      </c>
+      <c r="AZ142">
+        <v>1.44</v>
+      </c>
+      <c r="BA142">
+        <v>1.35</v>
+      </c>
+      <c r="BB142">
+        <v>1.4</v>
+      </c>
+      <c r="BC142">
+        <v>1.7</v>
+      </c>
+      <c r="BD142">
+        <v>2.17</v>
+      </c>
+      <c r="BE142">
+        <v>2.85</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>2</v>
+      </c>
+      <c r="BH142">
+        <v>5</v>
+      </c>
+      <c r="BI142">
+        <v>11</v>
+      </c>
+      <c r="BJ142">
+        <v>5</v>
+      </c>
+      <c r="BK142">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>6156123</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45102.41666666666</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>65</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>135</v>
+      </c>
+      <c r="P143" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q143">
+        <v>8</v>
+      </c>
+      <c r="R143">
+        <v>3</v>
+      </c>
+      <c r="S143">
+        <v>11</v>
+      </c>
+      <c r="T143">
+        <v>3.1</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>3.6</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>2.4</v>
+      </c>
+      <c r="Y143">
+        <v>3.2</v>
+      </c>
+      <c r="Z143">
+        <v>1.3</v>
+      </c>
+      <c r="AA143">
+        <v>8</v>
+      </c>
+      <c r="AB143">
+        <v>1.05</v>
+      </c>
+      <c r="AC143">
+        <v>2.38</v>
+      </c>
+      <c r="AD143">
+        <v>3.12</v>
+      </c>
+      <c r="AE143">
+        <v>2.99</v>
+      </c>
+      <c r="AF143">
+        <v>1.08</v>
+      </c>
+      <c r="AG143">
+        <v>6.5</v>
+      </c>
+      <c r="AH143">
+        <v>1.43</v>
+      </c>
+      <c r="AI143">
+        <v>2.63</v>
+      </c>
+      <c r="AJ143">
+        <v>2.18</v>
+      </c>
+      <c r="AK143">
+        <v>1.49</v>
+      </c>
+      <c r="AL143">
+        <v>2.01</v>
+      </c>
+      <c r="AM143">
+        <v>1.74</v>
+      </c>
+      <c r="AN143">
+        <v>1.4</v>
+      </c>
+      <c r="AO143">
+        <v>1.36</v>
+      </c>
+      <c r="AP143">
+        <v>1.53</v>
+      </c>
+      <c r="AQ143">
+        <v>1.38</v>
+      </c>
+      <c r="AR143">
+        <v>1.25</v>
+      </c>
+      <c r="AS143">
+        <v>1.22</v>
+      </c>
+      <c r="AT143">
+        <v>1.44</v>
+      </c>
+      <c r="AU143">
+        <v>1.5</v>
+      </c>
+      <c r="AV143">
+        <v>1.1</v>
+      </c>
+      <c r="AW143">
+        <v>2.6</v>
+      </c>
+      <c r="AX143">
+        <v>1.95</v>
+      </c>
+      <c r="AY143">
+        <v>8</v>
+      </c>
+      <c r="AZ143">
+        <v>2.1</v>
+      </c>
+      <c r="BA143">
+        <v>1.25</v>
+      </c>
+      <c r="BB143">
+        <v>1.47</v>
+      </c>
+      <c r="BC143">
+        <v>1.8</v>
+      </c>
+      <c r="BD143">
+        <v>2.38</v>
+      </c>
+      <c r="BE143">
+        <v>3.25</v>
+      </c>
+      <c r="BF143">
+        <v>2</v>
+      </c>
+      <c r="BG143">
+        <v>3</v>
+      </c>
+      <c r="BH143">
+        <v>3</v>
+      </c>
+      <c r="BI143">
+        <v>2</v>
+      </c>
+      <c r="BJ143">
+        <v>5</v>
+      </c>
+      <c r="BK143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>6156124</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45102.625</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>81</v>
+      </c>
+      <c r="P144" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>6</v>
+      </c>
+      <c r="S144">
+        <v>12</v>
+      </c>
+      <c r="T144">
+        <v>2.75</v>
+      </c>
+      <c r="U144">
+        <v>1.95</v>
+      </c>
+      <c r="V144">
+        <v>3.8</v>
+      </c>
+      <c r="W144">
+        <v>1.42</v>
+      </c>
+      <c r="X144">
+        <v>2.65</v>
+      </c>
+      <c r="Y144">
+        <v>3.1</v>
+      </c>
+      <c r="Z144">
+        <v>1.32</v>
+      </c>
+      <c r="AA144">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB144">
+        <v>1.06</v>
+      </c>
+      <c r="AC144">
+        <v>2.1</v>
+      </c>
+      <c r="AD144">
+        <v>3.15</v>
+      </c>
+      <c r="AE144">
+        <v>3.2</v>
+      </c>
+      <c r="AF144">
+        <v>1.04</v>
+      </c>
+      <c r="AG144">
+        <v>7.9</v>
+      </c>
+      <c r="AH144">
+        <v>1.32</v>
+      </c>
+      <c r="AI144">
+        <v>3.1</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.72</v>
+      </c>
+      <c r="AL144">
+        <v>1.75</v>
+      </c>
+      <c r="AM144">
+        <v>1.95</v>
+      </c>
+      <c r="AN144">
+        <v>1.3</v>
+      </c>
+      <c r="AO144">
+        <v>1.32</v>
+      </c>
+      <c r="AP144">
+        <v>1.47</v>
+      </c>
+      <c r="AQ144">
+        <v>1.86</v>
+      </c>
+      <c r="AR144">
+        <v>1.38</v>
+      </c>
+      <c r="AS144">
+        <v>1.75</v>
+      </c>
+      <c r="AT144">
+        <v>1.33</v>
+      </c>
+      <c r="AU144">
+        <v>1.09</v>
+      </c>
+      <c r="AV144">
+        <v>1.69</v>
+      </c>
+      <c r="AW144">
+        <v>2.78</v>
+      </c>
+      <c r="AX144">
+        <v>1.73</v>
+      </c>
+      <c r="AY144">
+        <v>8</v>
+      </c>
+      <c r="AZ144">
+        <v>2.4</v>
+      </c>
+      <c r="BA144">
+        <v>1.2</v>
+      </c>
+      <c r="BB144">
+        <v>1.38</v>
+      </c>
+      <c r="BC144">
+        <v>1.67</v>
+      </c>
+      <c r="BD144">
+        <v>2.12</v>
+      </c>
+      <c r="BE144">
+        <v>2.85</v>
+      </c>
+      <c r="BF144">
+        <v>9</v>
+      </c>
+      <c r="BG144">
+        <v>7</v>
+      </c>
+      <c r="BH144">
+        <v>2</v>
+      </c>
+      <c r="BI144">
+        <v>7</v>
+      </c>
+      <c r="BJ144">
+        <v>11</v>
+      </c>
+      <c r="BK144">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6156121</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45102.72916666666</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>69</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>173</v>
+      </c>
+      <c r="P145" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>7</v>
+      </c>
+      <c r="S145">
+        <v>11</v>
+      </c>
+      <c r="T145">
+        <v>3.14</v>
+      </c>
+      <c r="U145">
+        <v>2.06</v>
+      </c>
+      <c r="V145">
+        <v>3.34</v>
+      </c>
+      <c r="W145">
+        <v>1.43</v>
+      </c>
+      <c r="X145">
+        <v>2.71</v>
+      </c>
+      <c r="Y145">
+        <v>2.98</v>
+      </c>
+      <c r="Z145">
+        <v>1.36</v>
+      </c>
+      <c r="AA145">
+        <v>7.7</v>
+      </c>
+      <c r="AB145">
+        <v>1.07</v>
+      </c>
+      <c r="AC145">
+        <v>2.5</v>
+      </c>
+      <c r="AD145">
+        <v>3.15</v>
+      </c>
+      <c r="AE145">
+        <v>2.6</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>8.4</v>
+      </c>
+      <c r="AH145">
+        <v>1.31</v>
+      </c>
+      <c r="AI145">
+        <v>3.08</v>
+      </c>
+      <c r="AJ145">
+        <v>1.9</v>
+      </c>
+      <c r="AK145">
+        <v>1.8</v>
+      </c>
+      <c r="AL145">
+        <v>1.78</v>
+      </c>
+      <c r="AM145">
+        <v>1.93</v>
+      </c>
+      <c r="AN145">
+        <v>1.42</v>
+      </c>
+      <c r="AO145">
+        <v>1.33</v>
+      </c>
+      <c r="AP145">
+        <v>1.33</v>
+      </c>
+      <c r="AQ145">
+        <v>0.44</v>
+      </c>
+      <c r="AR145">
+        <v>1</v>
+      </c>
+      <c r="AS145">
+        <v>0.7</v>
+      </c>
+      <c r="AT145">
+        <v>0.9</v>
+      </c>
+      <c r="AU145">
+        <v>1.28</v>
+      </c>
+      <c r="AV145">
+        <v>1.6</v>
+      </c>
+      <c r="AW145">
+        <v>2.88</v>
+      </c>
+      <c r="AX145">
+        <v>2</v>
+      </c>
+      <c r="AY145">
+        <v>8</v>
+      </c>
+      <c r="AZ145">
+        <v>2.05</v>
+      </c>
+      <c r="BA145">
+        <v>1.22</v>
+      </c>
+      <c r="BB145">
+        <v>1.42</v>
+      </c>
+      <c r="BC145">
+        <v>1.74</v>
+      </c>
+      <c r="BD145">
+        <v>2.23</v>
+      </c>
+      <c r="BE145">
+        <v>3</v>
+      </c>
+      <c r="BF145">
+        <v>7</v>
+      </c>
+      <c r="BG145">
+        <v>2</v>
+      </c>
+      <c r="BH145">
+        <v>6</v>
+      </c>
+      <c r="BI145">
+        <v>13</v>
+      </c>
+      <c r="BJ145">
+        <v>13</v>
+      </c>
+      <c r="BK145">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,24 @@
     <t>['22', '78', '80']</t>
   </si>
   <si>
+    <t>['5', '56', '71']</t>
+  </si>
+  <si>
+    <t>['57', '72', '77', '82']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['2', '20', '41']</t>
+  </si>
+  <si>
+    <t>['40', '70', '76']</t>
+  </si>
+  <si>
+    <t>['59', '78']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -739,9 +757,6 @@
     <t>['45+2']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -758,6 +773,9 @@
   </si>
   <si>
     <t>['45', '55']</t>
+  </si>
+  <si>
+    <t>['13', '28']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1363,7 +1381,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1641,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT3">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1832,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1936,7 +1954,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2217,7 +2235,7 @@
         <v>0.7</v>
       </c>
       <c r="AT6">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2318,7 +2336,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2509,7 +2527,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2599,7 +2617,7 @@
         <v>1.3</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2700,7 +2718,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2787,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT9">
         <v>0.8</v>
@@ -3082,7 +3100,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3169,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT11">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3464,7 +3482,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3554,7 +3572,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3655,7 +3673,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3742,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT14">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3846,7 +3864,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4037,7 +4055,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4124,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT16">
         <v>1.78</v>
@@ -4228,7 +4246,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4506,10 +4524,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4700,7 +4718,7 @@
         <v>1.22</v>
       </c>
       <c r="AT19">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4801,7 +4819,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5082,7 +5100,7 @@
         <v>0.89</v>
       </c>
       <c r="AT21">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5270,10 +5288,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT22">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5461,7 +5479,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT23">
         <v>0.9</v>
@@ -5565,7 +5583,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5652,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT24">
         <v>0.8</v>
@@ -5756,7 +5774,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5947,7 +5965,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6037,7 +6055,7 @@
         <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6225,7 +6243,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT27">
         <v>1.33</v>
@@ -6329,7 +6347,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6416,7 +6434,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6711,7 +6729,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6902,7 +6920,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6992,7 +7010,7 @@
         <v>2.75</v>
       </c>
       <c r="AT31">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU31">
         <v>0</v>
@@ -7093,7 +7111,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7183,7 +7201,7 @@
         <v>1.27</v>
       </c>
       <c r="AT32">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU32">
         <v>0</v>
@@ -7284,7 +7302,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7371,7 +7389,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT33">
         <v>1.11</v>
@@ -7475,7 +7493,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7565,7 +7583,7 @@
         <v>0.89</v>
       </c>
       <c r="AT34">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU34">
         <v>0</v>
@@ -7666,7 +7684,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7857,7 +7875,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8135,10 +8153,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8239,7 +8257,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8326,10 +8344,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT38">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>0</v>
@@ -8430,7 +8448,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8517,10 +8535,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT39">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8708,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT40">
         <v>2</v>
@@ -8812,7 +8830,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9003,7 +9021,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9194,7 +9212,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9281,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT43">
         <v>0.63</v>
@@ -9385,7 +9403,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9666,7 +9684,7 @@
         <v>1.88</v>
       </c>
       <c r="AT45">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9767,7 +9785,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9854,10 +9872,10 @@
         <v>0.5</v>
       </c>
       <c r="AS46">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT46">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9958,7 +9976,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10045,10 +10063,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT47">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU47">
         <v>0</v>
@@ -10239,7 +10257,7 @@
         <v>1.78</v>
       </c>
       <c r="AT48">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10340,7 +10358,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10427,7 +10445,7 @@
         <v>0.67</v>
       </c>
       <c r="AS49">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT49">
         <v>1.11</v>
@@ -10621,7 +10639,7 @@
         <v>1.3</v>
       </c>
       <c r="AT50">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -10809,10 +10827,10 @@
         <v>1.67</v>
       </c>
       <c r="AS51">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT51">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU51">
         <v>0</v>
@@ -11191,10 +11209,10 @@
         <v>0.67</v>
       </c>
       <c r="AS53">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT53">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11295,7 +11313,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11382,7 +11400,7 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT54">
         <v>1.78</v>
@@ -11486,7 +11504,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11573,10 +11591,10 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12146,7 +12164,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT58">
         <v>0.63</v>
@@ -12340,7 +12358,7 @@
         <v>1.88</v>
       </c>
       <c r="AT59">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12528,7 +12546,7 @@
         <v>2</v>
       </c>
       <c r="AS60">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT60">
         <v>1.5</v>
@@ -12719,10 +12737,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT61">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU61">
         <v>0</v>
@@ -12910,7 +12928,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT62">
         <v>0.9</v>
@@ -13104,7 +13122,7 @@
         <v>2.75</v>
       </c>
       <c r="AT63">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13205,7 +13223,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13295,7 +13313,7 @@
         <v>1.27</v>
       </c>
       <c r="AT64">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU64">
         <v>0</v>
@@ -13396,7 +13414,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13587,7 +13605,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13677,7 +13695,7 @@
         <v>1.78</v>
       </c>
       <c r="AT66">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU66">
         <v>0</v>
@@ -13865,7 +13883,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT67">
         <v>1.11</v>
@@ -14056,7 +14074,7 @@
         <v>0.67</v>
       </c>
       <c r="AS68">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT68">
         <v>1.1</v>
@@ -14441,7 +14459,7 @@
         <v>1.22</v>
       </c>
       <c r="AT70">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU70">
         <v>0</v>
@@ -14629,7 +14647,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT71">
         <v>2</v>
@@ -14733,7 +14751,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14924,7 +14942,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15014,7 +15032,7 @@
         <v>1.3</v>
       </c>
       <c r="AT73">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU73">
         <v>0</v>
@@ -15202,10 +15220,10 @@
         <v>0.8</v>
       </c>
       <c r="AS74">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT74">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU74">
         <v>0</v>
@@ -15393,10 +15411,10 @@
         <v>0.4</v>
       </c>
       <c r="AS75">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT75">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -15584,10 +15602,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT76">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU76">
         <v>0</v>
@@ -15688,7 +15706,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15778,7 +15796,7 @@
         <v>0.7</v>
       </c>
       <c r="AT77">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU77">
         <v>0</v>
@@ -16157,7 +16175,7 @@
         <v>1.33</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
         <v>1.5</v>
@@ -16261,7 +16279,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16348,7 +16366,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT80">
         <v>0.63</v>
@@ -16452,7 +16470,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -17112,10 +17130,10 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT84">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU84">
         <v>0</v>
@@ -17494,7 +17512,7 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT86">
         <v>1.78</v>
@@ -17598,7 +17616,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17789,7 +17807,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17879,7 +17897,7 @@
         <v>1.22</v>
       </c>
       <c r="AT88">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU88">
         <v>0</v>
@@ -17980,7 +17998,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18070,7 +18088,7 @@
         <v>1.27</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU89">
         <v>0</v>
@@ -18258,10 +18276,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -18362,7 +18380,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18553,7 +18571,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18643,7 +18661,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU92">
         <v>0</v>
@@ -18831,10 +18849,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT93">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -18935,7 +18953,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19022,10 +19040,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT94">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU94">
         <v>0</v>
@@ -19126,7 +19144,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19317,7 +19335,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19404,10 +19422,10 @@
         <v>0.67</v>
       </c>
       <c r="AS96">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT96">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>0</v>
@@ -19508,7 +19526,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19595,7 +19613,7 @@
         <v>0.6</v>
       </c>
       <c r="AS97">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>1.1</v>
@@ -19699,7 +19717,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19786,7 +19804,7 @@
         <v>0.67</v>
       </c>
       <c r="AS98">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
         <v>1.11</v>
@@ -19977,7 +19995,7 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT99">
         <v>0.8</v>
@@ -20081,7 +20099,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20553,7 +20571,7 @@
         <v>2.75</v>
       </c>
       <c r="AT102">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU102">
         <v>0</v>
@@ -20654,7 +20672,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20845,7 +20863,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -20935,7 +20953,7 @@
         <v>1.75</v>
       </c>
       <c r="AT104">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU104">
         <v>0</v>
@@ -21227,7 +21245,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21314,7 +21332,7 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
         <v>0.9</v>
@@ -21418,7 +21436,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21505,7 +21523,7 @@
         <v>0.43</v>
       </c>
       <c r="AS107">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT107">
         <v>0.8</v>
@@ -21609,7 +21627,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21696,10 +21714,10 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT108">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -21800,7 +21818,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21890,7 +21908,7 @@
         <v>1.27</v>
       </c>
       <c r="AT109">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU109">
         <v>0</v>
@@ -21991,7 +22009,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22078,7 +22096,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT110">
         <v>1.1</v>
@@ -22182,7 +22200,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22272,7 +22290,7 @@
         <v>0.7</v>
       </c>
       <c r="AT111">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -22373,7 +22391,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22463,7 +22481,7 @@
         <v>1.3</v>
       </c>
       <c r="AT112">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU112">
         <v>0</v>
@@ -22564,7 +22582,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23224,7 +23242,7 @@
         <v>2.43</v>
       </c>
       <c r="AS116">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT116">
         <v>2</v>
@@ -23328,7 +23346,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23415,10 +23433,10 @@
         <v>1</v>
       </c>
       <c r="AS117">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT117">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU117">
         <v>0</v>
@@ -23519,7 +23537,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23710,7 +23728,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23901,7 +23919,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23988,7 +24006,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
         <v>0.63</v>
@@ -24182,7 +24200,7 @@
         <v>1.22</v>
       </c>
       <c r="AT121">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU121">
         <v>2.23</v>
@@ -24283,7 +24301,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24370,10 +24388,10 @@
         <v>1.43</v>
       </c>
       <c r="AS122">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT122">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24474,7 +24492,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24856,7 +24874,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -24943,10 +24961,10 @@
         <v>0.38</v>
       </c>
       <c r="AS125">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT125">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU125">
         <v>0.65</v>
@@ -25047,7 +25065,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25238,7 +25256,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25429,7 +25447,7 @@
         <v>115</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="Q128">
         <v>5</v>
@@ -25620,7 +25638,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25901,7 +25919,7 @@
         <v>1.88</v>
       </c>
       <c r="AT130">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU130">
         <v>1.26</v>
@@ -26002,7 +26020,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26089,7 +26107,7 @@
         <v>0.88</v>
       </c>
       <c r="AS131">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT131">
         <v>1.11</v>
@@ -26280,10 +26298,10 @@
         <v>0.75</v>
       </c>
       <c r="AS132">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AT132">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU132">
         <v>0.99</v>
@@ -26471,10 +26489,10 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>2.29</v>
@@ -26665,7 +26683,7 @@
         <v>2.75</v>
       </c>
       <c r="AT134">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU134">
         <v>0</v>
@@ -26766,7 +26784,7 @@
         <v>169</v>
       </c>
       <c r="P135" t="s">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -26957,7 +26975,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27044,10 +27062,10 @@
         <v>0.63</v>
       </c>
       <c r="AS136">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AT136">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU136">
         <v>1.05</v>
@@ -27235,7 +27253,7 @@
         <v>2.25</v>
       </c>
       <c r="AS137">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT137">
         <v>2</v>
@@ -27426,7 +27444,7 @@
         <v>1.22</v>
       </c>
       <c r="AS138">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT138">
         <v>1.1</v>
@@ -27530,7 +27548,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27620,7 +27638,7 @@
         <v>1.27</v>
       </c>
       <c r="AT139">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27721,7 +27739,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27912,7 +27930,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28190,7 +28208,7 @@
         <v>1.57</v>
       </c>
       <c r="AS142">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT142">
         <v>1.5</v>
@@ -28294,7 +28312,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28384,7 +28402,7 @@
         <v>1.22</v>
       </c>
       <c r="AT143">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU143">
         <v>1.5</v>
@@ -28676,7 +28694,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28818,6 +28836,1343 @@
       </c>
       <c r="BK145">
         <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6156128</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45108.70833333334</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" t="s">
+        <v>68</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>174</v>
+      </c>
+      <c r="P146" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>6</v>
+      </c>
+      <c r="T146">
+        <v>2.32</v>
+      </c>
+      <c r="U146">
+        <v>2.19</v>
+      </c>
+      <c r="V146">
+        <v>4.6</v>
+      </c>
+      <c r="W146">
+        <v>1.36</v>
+      </c>
+      <c r="X146">
+        <v>3</v>
+      </c>
+      <c r="Y146">
+        <v>2.62</v>
+      </c>
+      <c r="Z146">
+        <v>1.44</v>
+      </c>
+      <c r="AA146">
+        <v>6</v>
+      </c>
+      <c r="AB146">
+        <v>1.11</v>
+      </c>
+      <c r="AC146">
+        <v>2.27</v>
+      </c>
+      <c r="AD146">
+        <v>1.92</v>
+      </c>
+      <c r="AE146">
+        <v>6.71</v>
+      </c>
+      <c r="AF146">
+        <v>1.05</v>
+      </c>
+      <c r="AG146">
+        <v>9</v>
+      </c>
+      <c r="AH146">
+        <v>1.29</v>
+      </c>
+      <c r="AI146">
+        <v>3.5</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.9</v>
+      </c>
+      <c r="AL146">
+        <v>1.75</v>
+      </c>
+      <c r="AM146">
+        <v>2.03</v>
+      </c>
+      <c r="AN146">
+        <v>1.2</v>
+      </c>
+      <c r="AO146">
+        <v>1.24</v>
+      </c>
+      <c r="AP146">
+        <v>1.94</v>
+      </c>
+      <c r="AQ146">
+        <v>1.56</v>
+      </c>
+      <c r="AR146">
+        <v>1.14</v>
+      </c>
+      <c r="AS146">
+        <v>1.7</v>
+      </c>
+      <c r="AT146">
+        <v>1</v>
+      </c>
+      <c r="AU146">
+        <v>2.03</v>
+      </c>
+      <c r="AV146">
+        <v>1.58</v>
+      </c>
+      <c r="AW146">
+        <v>3.61</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>9</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>3</v>
+      </c>
+      <c r="BJ146">
+        <v>13</v>
+      </c>
+      <c r="BK146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>6156129</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45108.8125</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147" t="s">
+        <v>78</v>
+      </c>
+      <c r="H147" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>175</v>
+      </c>
+      <c r="P147" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q147">
+        <v>4</v>
+      </c>
+      <c r="R147">
+        <v>1</v>
+      </c>
+      <c r="S147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>3.26</v>
+      </c>
+      <c r="U147">
+        <v>2.17</v>
+      </c>
+      <c r="V147">
+        <v>3.54</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>2.75</v>
+      </c>
+      <c r="Y147">
+        <v>3</v>
+      </c>
+      <c r="Z147">
+        <v>1.36</v>
+      </c>
+      <c r="AA147">
+        <v>7</v>
+      </c>
+      <c r="AB147">
+        <v>1.08</v>
+      </c>
+      <c r="AC147">
+        <v>2.4</v>
+      </c>
+      <c r="AD147">
+        <v>3.3</v>
+      </c>
+      <c r="AE147">
+        <v>2.7</v>
+      </c>
+      <c r="AF147">
+        <v>1.07</v>
+      </c>
+      <c r="AG147">
+        <v>7.5</v>
+      </c>
+      <c r="AH147">
+        <v>1.36</v>
+      </c>
+      <c r="AI147">
+        <v>3</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.72</v>
+      </c>
+      <c r="AL147">
+        <v>1.82</v>
+      </c>
+      <c r="AM147">
+        <v>1.94</v>
+      </c>
+      <c r="AN147">
+        <v>1.35</v>
+      </c>
+      <c r="AO147">
+        <v>1.3</v>
+      </c>
+      <c r="AP147">
+        <v>1.55</v>
+      </c>
+      <c r="AQ147">
+        <v>0.78</v>
+      </c>
+      <c r="AR147">
+        <v>0.89</v>
+      </c>
+      <c r="AS147">
+        <v>1</v>
+      </c>
+      <c r="AT147">
+        <v>0.8</v>
+      </c>
+      <c r="AU147">
+        <v>0.99</v>
+      </c>
+      <c r="AV147">
+        <v>0.95</v>
+      </c>
+      <c r="AW147">
+        <v>1.94</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>10</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>4</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>14</v>
+      </c>
+      <c r="BK147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>6156126</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45109.41666666666</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148" t="s">
+        <v>76</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>176</v>
+      </c>
+      <c r="P148" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q148">
+        <v>9</v>
+      </c>
+      <c r="R148">
+        <v>6</v>
+      </c>
+      <c r="S148">
+        <v>15</v>
+      </c>
+      <c r="T148">
+        <v>3</v>
+      </c>
+      <c r="U148">
+        <v>2.05</v>
+      </c>
+      <c r="V148">
+        <v>3.2</v>
+      </c>
+      <c r="W148">
+        <v>1.4</v>
+      </c>
+      <c r="X148">
+        <v>2.7</v>
+      </c>
+      <c r="Y148">
+        <v>2.85</v>
+      </c>
+      <c r="Z148">
+        <v>1.37</v>
+      </c>
+      <c r="AA148">
+        <v>7.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.07</v>
+      </c>
+      <c r="AC148">
+        <v>2.35</v>
+      </c>
+      <c r="AD148">
+        <v>3.2</v>
+      </c>
+      <c r="AE148">
+        <v>2.61</v>
+      </c>
+      <c r="AF148">
+        <v>1.06</v>
+      </c>
+      <c r="AG148">
+        <v>8</v>
+      </c>
+      <c r="AH148">
+        <v>1.3</v>
+      </c>
+      <c r="AI148">
+        <v>3.2</v>
+      </c>
+      <c r="AJ148">
+        <v>1.9</v>
+      </c>
+      <c r="AK148">
+        <v>1.9</v>
+      </c>
+      <c r="AL148">
+        <v>1.77</v>
+      </c>
+      <c r="AM148">
+        <v>1.93</v>
+      </c>
+      <c r="AN148">
+        <v>1.4</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.42</v>
+      </c>
+      <c r="AQ148">
+        <v>1.13</v>
+      </c>
+      <c r="AR148">
+        <v>0.7</v>
+      </c>
+      <c r="AS148">
+        <v>1.33</v>
+      </c>
+      <c r="AT148">
+        <v>0.64</v>
+      </c>
+      <c r="AU148">
+        <v>2.31</v>
+      </c>
+      <c r="AV148">
+        <v>1.14</v>
+      </c>
+      <c r="AW148">
+        <v>3.45</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>5</v>
+      </c>
+      <c r="BG148">
+        <v>2</v>
+      </c>
+      <c r="BH148">
+        <v>3</v>
+      </c>
+      <c r="BI148">
+        <v>1</v>
+      </c>
+      <c r="BJ148">
+        <v>8</v>
+      </c>
+      <c r="BK148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>6156130</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45109.52083333334</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>177</v>
+      </c>
+      <c r="P149" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q149">
+        <v>6</v>
+      </c>
+      <c r="R149">
+        <v>4</v>
+      </c>
+      <c r="S149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>2.95</v>
+      </c>
+      <c r="U149">
+        <v>1.98</v>
+      </c>
+      <c r="V149">
+        <v>3.6</v>
+      </c>
+      <c r="W149">
+        <v>1.5</v>
+      </c>
+      <c r="X149">
+        <v>2.4</v>
+      </c>
+      <c r="Y149">
+        <v>3.2</v>
+      </c>
+      <c r="Z149">
+        <v>1.3</v>
+      </c>
+      <c r="AA149">
+        <v>8</v>
+      </c>
+      <c r="AB149">
+        <v>1.05</v>
+      </c>
+      <c r="AC149">
+        <v>2.27</v>
+      </c>
+      <c r="AD149">
+        <v>3.15</v>
+      </c>
+      <c r="AE149">
+        <v>2.77</v>
+      </c>
+      <c r="AF149">
+        <v>1.08</v>
+      </c>
+      <c r="AG149">
+        <v>6.5</v>
+      </c>
+      <c r="AH149">
+        <v>1.5</v>
+      </c>
+      <c r="AI149">
+        <v>2.45</v>
+      </c>
+      <c r="AJ149">
+        <v>2.27</v>
+      </c>
+      <c r="AK149">
+        <v>1.56</v>
+      </c>
+      <c r="AL149">
+        <v>1.95</v>
+      </c>
+      <c r="AM149">
+        <v>1.73</v>
+      </c>
+      <c r="AN149">
+        <v>1.36</v>
+      </c>
+      <c r="AO149">
+        <v>1.32</v>
+      </c>
+      <c r="AP149">
+        <v>1.58</v>
+      </c>
+      <c r="AQ149">
+        <v>0.88</v>
+      </c>
+      <c r="AR149">
+        <v>1.44</v>
+      </c>
+      <c r="AS149">
+        <v>1.11</v>
+      </c>
+      <c r="AT149">
+        <v>1.3</v>
+      </c>
+      <c r="AU149">
+        <v>1.09</v>
+      </c>
+      <c r="AV149">
+        <v>1.05</v>
+      </c>
+      <c r="AW149">
+        <v>2.14</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>9</v>
+      </c>
+      <c r="BG149">
+        <v>2</v>
+      </c>
+      <c r="BH149">
+        <v>4</v>
+      </c>
+      <c r="BI149">
+        <v>3</v>
+      </c>
+      <c r="BJ149">
+        <v>13</v>
+      </c>
+      <c r="BK149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>6156132</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45109.625</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" t="s">
+        <v>79</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>81</v>
+      </c>
+      <c r="P150" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150">
+        <v>6</v>
+      </c>
+      <c r="T150">
+        <v>2.69</v>
+      </c>
+      <c r="U150">
+        <v>2.01</v>
+      </c>
+      <c r="V150">
+        <v>4.25</v>
+      </c>
+      <c r="W150">
+        <v>1.48</v>
+      </c>
+      <c r="X150">
+        <v>2.5</v>
+      </c>
+      <c r="Y150">
+        <v>3.2</v>
+      </c>
+      <c r="Z150">
+        <v>1.3</v>
+      </c>
+      <c r="AA150">
+        <v>7.5</v>
+      </c>
+      <c r="AB150">
+        <v>1.06</v>
+      </c>
+      <c r="AC150">
+        <v>1.76</v>
+      </c>
+      <c r="AD150">
+        <v>3.25</v>
+      </c>
+      <c r="AE150">
+        <v>3.9</v>
+      </c>
+      <c r="AF150">
+        <v>1.07</v>
+      </c>
+      <c r="AG150">
+        <v>7</v>
+      </c>
+      <c r="AH150">
+        <v>1.38</v>
+      </c>
+      <c r="AI150">
+        <v>2.8</v>
+      </c>
+      <c r="AJ150">
+        <v>2.15</v>
+      </c>
+      <c r="AK150">
+        <v>1.53</v>
+      </c>
+      <c r="AL150">
+        <v>1.92</v>
+      </c>
+      <c r="AM150">
+        <v>1.79</v>
+      </c>
+      <c r="AN150">
+        <v>1.28</v>
+      </c>
+      <c r="AO150">
+        <v>1.3</v>
+      </c>
+      <c r="AP150">
+        <v>1.7</v>
+      </c>
+      <c r="AQ150">
+        <v>1.67</v>
+      </c>
+      <c r="AR150">
+        <v>0.78</v>
+      </c>
+      <c r="AS150">
+        <v>1.5</v>
+      </c>
+      <c r="AT150">
+        <v>1</v>
+      </c>
+      <c r="AU150">
+        <v>1.52</v>
+      </c>
+      <c r="AV150">
+        <v>1.22</v>
+      </c>
+      <c r="AW150">
+        <v>2.74</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>3</v>
+      </c>
+      <c r="BG150">
+        <v>7</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>4</v>
+      </c>
+      <c r="BJ150">
+        <v>8</v>
+      </c>
+      <c r="BK150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6156133</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45110.625</v>
+      </c>
+      <c r="F151">
+        <v>4</v>
+      </c>
+      <c r="G151" t="s">
+        <v>80</v>
+      </c>
+      <c r="H151" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>3</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>178</v>
+      </c>
+      <c r="P151" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q151">
+        <v>6</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151">
+        <v>9</v>
+      </c>
+      <c r="T151">
+        <v>2.2</v>
+      </c>
+      <c r="U151">
+        <v>2.25</v>
+      </c>
+      <c r="V151">
+        <v>4.8</v>
+      </c>
+      <c r="W151">
+        <v>1.33</v>
+      </c>
+      <c r="X151">
+        <v>3</v>
+      </c>
+      <c r="Y151">
+        <v>2.6</v>
+      </c>
+      <c r="Z151">
+        <v>1.44</v>
+      </c>
+      <c r="AA151">
+        <v>5.75</v>
+      </c>
+      <c r="AB151">
+        <v>1.1</v>
+      </c>
+      <c r="AC151">
+        <v>1.72</v>
+      </c>
+      <c r="AD151">
+        <v>3.45</v>
+      </c>
+      <c r="AE151">
+        <v>4</v>
+      </c>
+      <c r="AF151">
+        <v>1.04</v>
+      </c>
+      <c r="AG151">
+        <v>13.5</v>
+      </c>
+      <c r="AH151">
+        <v>1.25</v>
+      </c>
+      <c r="AI151">
+        <v>3.6</v>
+      </c>
+      <c r="AJ151">
+        <v>1.8</v>
+      </c>
+      <c r="AK151">
+        <v>2</v>
+      </c>
+      <c r="AL151">
+        <v>1.75</v>
+      </c>
+      <c r="AM151">
+        <v>1.95</v>
+      </c>
+      <c r="AN151">
+        <v>1.18</v>
+      </c>
+      <c r="AO151">
+        <v>1.22</v>
+      </c>
+      <c r="AP151">
+        <v>2.1</v>
+      </c>
+      <c r="AQ151">
+        <v>2.44</v>
+      </c>
+      <c r="AR151">
+        <v>0.8</v>
+      </c>
+      <c r="AS151">
+        <v>2.5</v>
+      </c>
+      <c r="AT151">
+        <v>0.73</v>
+      </c>
+      <c r="AU151">
+        <v>1.72</v>
+      </c>
+      <c r="AV151">
+        <v>1.8</v>
+      </c>
+      <c r="AW151">
+        <v>3.52</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>4</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>6</v>
+      </c>
+      <c r="BI151">
+        <v>5</v>
+      </c>
+      <c r="BJ151">
+        <v>10</v>
+      </c>
+      <c r="BK151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6156127</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45110.8125</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>66</v>
+      </c>
+      <c r="H152" t="s">
+        <v>69</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>179</v>
+      </c>
+      <c r="P152" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q152">
+        <v>6</v>
+      </c>
+      <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
+        <v>13</v>
+      </c>
+      <c r="T152">
+        <v>2.1</v>
+      </c>
+      <c r="U152">
+        <v>2.2</v>
+      </c>
+      <c r="V152">
+        <v>5.5</v>
+      </c>
+      <c r="W152">
+        <v>1.38</v>
+      </c>
+      <c r="X152">
+        <v>2.8</v>
+      </c>
+      <c r="Y152">
+        <v>2.75</v>
+      </c>
+      <c r="Z152">
+        <v>1.4</v>
+      </c>
+      <c r="AA152">
+        <v>6.25</v>
+      </c>
+      <c r="AB152">
+        <v>1.09</v>
+      </c>
+      <c r="AC152">
+        <v>1.55</v>
+      </c>
+      <c r="AD152">
+        <v>3.8</v>
+      </c>
+      <c r="AE152">
+        <v>4.8</v>
+      </c>
+      <c r="AF152">
+        <v>1.04</v>
+      </c>
+      <c r="AG152">
+        <v>11.75</v>
+      </c>
+      <c r="AH152">
+        <v>1.28</v>
+      </c>
+      <c r="AI152">
+        <v>3.37</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>1.8</v>
+      </c>
+      <c r="AL152">
+        <v>1.95</v>
+      </c>
+      <c r="AM152">
+        <v>1.78</v>
+      </c>
+      <c r="AN152">
+        <v>1.13</v>
+      </c>
+      <c r="AO152">
+        <v>1.2</v>
+      </c>
+      <c r="AP152">
+        <v>2.3</v>
+      </c>
+      <c r="AQ152">
+        <v>2.3</v>
+      </c>
+      <c r="AR152">
+        <v>1.38</v>
+      </c>
+      <c r="AS152">
+        <v>2.36</v>
+      </c>
+      <c r="AT152">
+        <v>1.22</v>
+      </c>
+      <c r="AU152">
+        <v>1.16</v>
+      </c>
+      <c r="AV152">
+        <v>0.76</v>
+      </c>
+      <c r="AW152">
+        <v>1.92</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>0</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>6</v>
+      </c>
+      <c r="BG152">
+        <v>2</v>
+      </c>
+      <c r="BH152">
+        <v>3</v>
+      </c>
+      <c r="BI152">
+        <v>4</v>
+      </c>
+      <c r="BJ152">
+        <v>9</v>
+      </c>
+      <c r="BK152">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,10 +550,13 @@
     <t>['2', '20', '41']</t>
   </si>
   <si>
-    <t>['40', '70', '76']</t>
+    <t>['38', '70', '76']</t>
   </si>
   <si>
-    <t>['59', '78']</t>
+    <t>['58', '78']</t>
+  </si>
+  <si>
+    <t>['22', '48', '63', '86']</t>
   </si>
   <si>
     <t>['58', '69']</t>
@@ -775,7 +778,7 @@
     <t>['45', '55']</t>
   </si>
   <si>
-    <t>['13', '28']</t>
+    <t>['12', '26']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1384,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1954,7 +1957,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2336,7 +2339,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2423,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT7">
         <v>1.11</v>
@@ -2527,7 +2530,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2718,7 +2721,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2996,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT10">
         <v>1.33</v>
@@ -3100,7 +3103,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3381,7 +3384,7 @@
         <v>1.78</v>
       </c>
       <c r="AT12">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3482,7 +3485,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3673,7 +3676,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3864,7 +3867,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4055,7 +4058,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4246,7 +4249,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4819,7 +4822,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -5583,7 +5586,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5774,7 +5777,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5965,7 +5968,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6347,7 +6350,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6628,7 +6631,7 @@
         <v>1.88</v>
       </c>
       <c r="AT29">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU29">
         <v>0</v>
@@ -6729,7 +6732,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6920,7 +6923,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7007,7 +7010,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT31">
         <v>1.3</v>
@@ -7111,7 +7114,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7302,7 +7305,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7493,7 +7496,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7684,7 +7687,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7875,7 +7878,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -8257,7 +8260,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8448,7 +8451,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8830,7 +8833,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -9021,7 +9024,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9212,7 +9215,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9302,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="AT43">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43">
         <v>0</v>
@@ -9403,7 +9406,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9490,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="AS44">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT44">
         <v>0.9</v>
@@ -9785,7 +9788,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9976,7 +9979,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10358,7 +10361,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -11313,7 +11316,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11504,7 +11507,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12167,7 +12170,7 @@
         <v>1.7</v>
       </c>
       <c r="AT58">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -13119,7 +13122,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT63">
         <v>0.8</v>
@@ -13223,7 +13226,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13414,7 +13417,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13605,7 +13608,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -14751,7 +14754,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14942,7 +14945,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15706,7 +15709,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -16279,7 +16282,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16369,7 +16372,7 @@
         <v>2.5</v>
       </c>
       <c r="AT80">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU80">
         <v>0</v>
@@ -16470,7 +16473,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16748,7 +16751,7 @@
         <v>0.6</v>
       </c>
       <c r="AS82">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT82">
         <v>0.8</v>
@@ -17616,7 +17619,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17807,7 +17810,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17998,7 +18001,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18380,7 +18383,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18571,7 +18574,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18953,7 +18956,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19144,7 +19147,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19335,7 +19338,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19526,7 +19529,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19717,7 +19720,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -20099,7 +20102,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20568,7 +20571,7 @@
         <v>1.25</v>
       </c>
       <c r="AS102">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT102">
         <v>1</v>
@@ -20672,7 +20675,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20863,7 +20866,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21144,7 +21147,7 @@
         <v>0.89</v>
       </c>
       <c r="AT105">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU105">
         <v>0</v>
@@ -21245,7 +21248,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21436,7 +21439,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21627,7 +21630,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21818,7 +21821,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -22009,7 +22012,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22200,7 +22203,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22391,7 +22394,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22582,7 +22585,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -23346,7 +23349,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23537,7 +23540,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23728,7 +23731,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23919,7 +23922,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24009,7 +24012,7 @@
         <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU120">
         <v>0</v>
@@ -24301,7 +24304,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24492,7 +24495,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24874,7 +24877,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25065,7 +25068,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25256,7 +25259,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25638,7 +25641,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26020,7 +26023,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26680,7 +26683,7 @@
         <v>0.89</v>
       </c>
       <c r="AS134">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT134">
         <v>0.73</v>
@@ -26874,7 +26877,7 @@
         <v>0.89</v>
       </c>
       <c r="AT135">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU135">
         <v>1.05</v>
@@ -26975,7 +26978,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27548,7 +27551,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27739,7 +27742,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27930,7 +27933,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28312,7 +28315,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28694,7 +28697,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29840,7 +29843,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -30173,6 +30176,197 @@
       </c>
       <c r="BK152">
         <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6156131</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45112.8125</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>70</v>
+      </c>
+      <c r="H153" t="s">
+        <v>71</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="O153" t="s">
+        <v>180</v>
+      </c>
+      <c r="P153" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q153">
+        <v>7</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>9</v>
+      </c>
+      <c r="T153">
+        <v>1.85</v>
+      </c>
+      <c r="U153">
+        <v>2.57</v>
+      </c>
+      <c r="V153">
+        <v>8.1</v>
+      </c>
+      <c r="W153">
+        <v>1.34</v>
+      </c>
+      <c r="X153">
+        <v>3.31</v>
+      </c>
+      <c r="Y153">
+        <v>2.69</v>
+      </c>
+      <c r="Z153">
+        <v>1.48</v>
+      </c>
+      <c r="AA153">
+        <v>6.1</v>
+      </c>
+      <c r="AB153">
+        <v>1.11</v>
+      </c>
+      <c r="AC153">
+        <v>1.39</v>
+      </c>
+      <c r="AD153">
+        <v>3.65</v>
+      </c>
+      <c r="AE153">
+        <v>5.11</v>
+      </c>
+      <c r="AF153">
+        <v>1</v>
+      </c>
+      <c r="AG153">
+        <v>10.5</v>
+      </c>
+      <c r="AH153">
+        <v>1.21</v>
+      </c>
+      <c r="AI153">
+        <v>3.82</v>
+      </c>
+      <c r="AJ153">
+        <v>1.73</v>
+      </c>
+      <c r="AK153">
+        <v>2.05</v>
+      </c>
+      <c r="AL153">
+        <v>2.14</v>
+      </c>
+      <c r="AM153">
+        <v>1.63</v>
+      </c>
+      <c r="AN153">
+        <v>1.03</v>
+      </c>
+      <c r="AO153">
+        <v>1.14</v>
+      </c>
+      <c r="AP153">
+        <v>3.35</v>
+      </c>
+      <c r="AQ153">
+        <v>2.75</v>
+      </c>
+      <c r="AR153">
+        <v>0.63</v>
+      </c>
+      <c r="AS153">
+        <v>2.78</v>
+      </c>
+      <c r="AT153">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU153">
+        <v>0</v>
+      </c>
+      <c r="AV153">
+        <v>1.25</v>
+      </c>
+      <c r="AW153">
+        <v>1.25</v>
+      </c>
+      <c r="AX153">
+        <v>1.26</v>
+      </c>
+      <c r="AY153">
+        <v>10.75</v>
+      </c>
+      <c r="AZ153">
+        <v>4.6</v>
+      </c>
+      <c r="BA153">
+        <v>1.21</v>
+      </c>
+      <c r="BB153">
+        <v>1.41</v>
+      </c>
+      <c r="BC153">
+        <v>1.8</v>
+      </c>
+      <c r="BD153">
+        <v>2.17</v>
+      </c>
+      <c r="BE153">
+        <v>2.88</v>
+      </c>
+      <c r="BF153">
+        <v>9</v>
+      </c>
+      <c r="BG153">
+        <v>2</v>
+      </c>
+      <c r="BH153">
+        <v>8</v>
+      </c>
+      <c r="BI153">
+        <v>3</v>
+      </c>
+      <c r="BJ153">
+        <v>17</v>
+      </c>
+      <c r="BK153">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Uruguay Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,24 @@
     <t>['22', '48', '63', '86']</t>
   </si>
   <si>
+    <t>['34', '45+2']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['45+1', '51']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['45', '65']</t>
+  </si>
+  <si>
     <t>['58', '69']</t>
   </si>
   <si>
@@ -635,9 +653,6 @@
   </si>
   <si>
     <t>['43']</t>
-  </si>
-  <si>
-    <t>['55']</t>
   </si>
   <si>
     <t>['70']</t>
@@ -779,6 +794,18 @@
   </si>
   <si>
     <t>['12', '26']</t>
+  </si>
+  <si>
+    <t>['56', '79', '90+4']</t>
+  </si>
+  <si>
+    <t>['5', '35', '51']</t>
+  </si>
+  <si>
+    <t>['26', '52']</t>
+  </si>
+  <si>
+    <t>['87']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1411,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1471,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT2">
         <v>0.9</v>
@@ -1853,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1957,7 +1984,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>6</v>
@@ -2044,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT5">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2235,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT6">
         <v>0.64</v>
@@ -2339,7 +2366,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2429,7 +2456,7 @@
         <v>2.78</v>
       </c>
       <c r="AT7">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2530,7 +2557,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2617,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT8">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2721,7 +2748,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2811,7 +2838,7 @@
         <v>1.7</v>
       </c>
       <c r="AT9">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3103,7 +3130,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -3485,7 +3512,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3676,7 +3703,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3763,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3867,7 +3894,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3954,10 +3981,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4058,7 +4085,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -4148,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4249,7 +4276,7 @@
         <v>93</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4336,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4527,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT18">
         <v>0.64</v>
@@ -4718,10 +4745,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT19">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4822,7 +4849,7 @@
         <v>95</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>2</v>
@@ -4909,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT20">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5100,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT21">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5586,7 +5613,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5676,7 +5703,7 @@
         <v>2.5</v>
       </c>
       <c r="AT24">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5777,7 +5804,7 @@
         <v>81</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5864,10 +5891,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -5968,7 +5995,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6350,7 +6377,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6440,7 +6467,7 @@
         <v>1.7</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6628,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT29">
         <v>0.5600000000000001</v>
@@ -6732,7 +6759,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6923,7 +6950,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7114,7 +7141,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7201,7 +7228,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT32">
         <v>1.22</v>
@@ -7305,7 +7332,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>4</v>
@@ -7395,7 +7422,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7496,7 +7523,7 @@
         <v>106</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7583,7 +7610,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT34">
         <v>0.64</v>
@@ -7687,7 +7714,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7774,10 +7801,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT35">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7878,7 +7905,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>2</v>
@@ -7965,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT36">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -8156,10 +8183,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT37">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8260,7 +8287,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8451,7 +8478,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8541,7 +8568,7 @@
         <v>2.36</v>
       </c>
       <c r="AT39">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU39">
         <v>0</v>
@@ -8729,10 +8756,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU40">
         <v>0</v>
@@ -8833,7 +8860,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -8920,10 +8947,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT41">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -9024,7 +9051,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -9111,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT42">
         <v>1.33</v>
@@ -9215,7 +9242,7 @@
         <v>81</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9406,7 +9433,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9684,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -9788,7 +9815,7 @@
         <v>81</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9979,7 +10006,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10260,7 +10287,7 @@
         <v>1.78</v>
       </c>
       <c r="AT48">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU48">
         <v>0</v>
@@ -10361,7 +10388,7 @@
         <v>114</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10451,7 +10478,7 @@
         <v>1.7</v>
       </c>
       <c r="AT49">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>0</v>
@@ -10639,7 +10666,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT50">
         <v>1</v>
@@ -11024,7 +11051,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU52">
         <v>0</v>
@@ -11215,7 +11242,7 @@
         <v>2.36</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>0</v>
@@ -11316,7 +11343,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11403,10 +11430,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT54">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU54">
         <v>0</v>
@@ -11507,7 +11534,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11594,7 +11621,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT55">
         <v>0.64</v>
@@ -11785,10 +11812,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -11976,10 +12003,10 @@
         <v>1</v>
       </c>
       <c r="AS57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT57">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU57">
         <v>0</v>
@@ -12358,10 +12385,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT59">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -12552,7 +12579,7 @@
         <v>2.5</v>
       </c>
       <c r="AT60">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU60">
         <v>0</v>
@@ -13125,7 +13152,7 @@
         <v>2.78</v>
       </c>
       <c r="AT63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -13226,7 +13253,7 @@
         <v>106</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13313,7 +13340,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT64">
         <v>1.3</v>
@@ -13417,7 +13444,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -13504,7 +13531,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT65">
         <v>1.33</v>
@@ -13608,7 +13635,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13886,10 +13913,10 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT67">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>0</v>
@@ -14080,7 +14107,7 @@
         <v>2.36</v>
       </c>
       <c r="AT68">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU68">
         <v>0</v>
@@ -14271,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AT69">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU69">
         <v>0</v>
@@ -14459,7 +14486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -14650,10 +14677,10 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU71">
         <v>0</v>
@@ -14754,7 +14781,7 @@
         <v>81</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -14841,10 +14868,10 @@
         <v>2.33</v>
       </c>
       <c r="AS72">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT72">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU72">
         <v>0</v>
@@ -14945,7 +14972,7 @@
         <v>130</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>10</v>
@@ -15032,7 +15059,7 @@
         <v>1.25</v>
       </c>
       <c r="AS73">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT73">
         <v>1.22</v>
@@ -15226,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU74">
         <v>0</v>
@@ -15417,7 +15444,7 @@
         <v>1.11</v>
       </c>
       <c r="AT75">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>0</v>
@@ -15709,7 +15736,7 @@
         <v>81</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>2</v>
@@ -15796,7 +15823,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT77">
         <v>1.3</v>
@@ -15987,10 +16014,10 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT78">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU78">
         <v>0</v>
@@ -16178,10 +16205,10 @@
         <v>1.33</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>0</v>
@@ -16282,7 +16309,7 @@
         <v>132</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16473,7 +16500,7 @@
         <v>133</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>9</v>
@@ -16560,7 +16587,7 @@
         <v>0.8</v>
       </c>
       <c r="AS81">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
         <v>0.9</v>
@@ -16754,7 +16781,7 @@
         <v>2.78</v>
       </c>
       <c r="AT82">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU82">
         <v>0</v>
@@ -16942,10 +16969,10 @@
         <v>0.6</v>
       </c>
       <c r="AS83">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT83">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>0</v>
@@ -17324,7 +17351,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT85">
         <v>1.33</v>
@@ -17515,10 +17542,10 @@
         <v>2.5</v>
       </c>
       <c r="AS86">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT86">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU86">
         <v>0</v>
@@ -17619,7 +17646,7 @@
         <v>138</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17709,7 +17736,7 @@
         <v>1.78</v>
       </c>
       <c r="AT87">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU87">
         <v>0</v>
@@ -17810,7 +17837,7 @@
         <v>81</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -17897,7 +17924,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT88">
         <v>1.22</v>
@@ -18001,7 +18028,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18088,10 +18115,10 @@
         <v>1.17</v>
       </c>
       <c r="AS89">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT89">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU89">
         <v>0</v>
@@ -18279,7 +18306,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT90">
         <v>1.3</v>
@@ -18383,7 +18410,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>11</v>
@@ -18470,7 +18497,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT91">
         <v>0.9</v>
@@ -18574,7 +18601,7 @@
         <v>142</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>14</v>
@@ -18661,10 +18688,10 @@
         <v>0.5</v>
       </c>
       <c r="AS92">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT92">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU92">
         <v>0</v>
@@ -18855,7 +18882,7 @@
         <v>1.7</v>
       </c>
       <c r="AT93">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU93">
         <v>0</v>
@@ -18956,7 +18983,7 @@
         <v>143</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>2</v>
@@ -19147,7 +19174,7 @@
         <v>144</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>3</v>
@@ -19234,10 +19261,10 @@
         <v>1.25</v>
       </c>
       <c r="AS95">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT95">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU95">
         <v>0</v>
@@ -19338,7 +19365,7 @@
         <v>145</v>
       </c>
       <c r="P96" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19529,7 +19556,7 @@
         <v>81</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19619,7 +19646,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU97">
         <v>0</v>
@@ -19720,7 +19747,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19807,10 +19834,10 @@
         <v>0.67</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT98">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>0</v>
@@ -20001,7 +20028,7 @@
         <v>2.36</v>
       </c>
       <c r="AT99">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU99">
         <v>0</v>
@@ -20102,7 +20129,7 @@
         <v>81</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20189,10 +20216,10 @@
         <v>2.33</v>
       </c>
       <c r="AS100">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU100">
         <v>0</v>
@@ -20380,7 +20407,7 @@
         <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT101">
         <v>1.33</v>
@@ -20675,7 +20702,7 @@
         <v>81</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20765,7 +20792,7 @@
         <v>1.78</v>
       </c>
       <c r="AT103">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU103">
         <v>0</v>
@@ -20866,7 +20893,7 @@
         <v>148</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>12</v>
@@ -21144,7 +21171,7 @@
         <v>0.6</v>
       </c>
       <c r="AS105">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT105">
         <v>0.5600000000000001</v>
@@ -21248,7 +21275,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21335,7 +21362,7 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT106">
         <v>0.9</v>
@@ -21439,7 +21466,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21529,7 +21556,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU107">
         <v>0</v>
@@ -21630,7 +21657,7 @@
         <v>151</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -21720,7 +21747,7 @@
         <v>2.5</v>
       </c>
       <c r="AT108">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU108">
         <v>0</v>
@@ -21821,7 +21848,7 @@
         <v>152</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>5</v>
@@ -21908,7 +21935,7 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT109">
         <v>0.64</v>
@@ -22012,7 +22039,7 @@
         <v>153</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22102,7 +22129,7 @@
         <v>1.7</v>
       </c>
       <c r="AT110">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU110">
         <v>0</v>
@@ -22203,7 +22230,7 @@
         <v>154</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -22290,10 +22317,10 @@
         <v>0.57</v>
       </c>
       <c r="AS111">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT111">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU111">
         <v>0</v>
@@ -22394,7 +22421,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22481,7 +22508,7 @@
         <v>0.71</v>
       </c>
       <c r="AS112">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT112">
         <v>1</v>
@@ -22585,7 +22612,7 @@
         <v>81</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -22672,10 +22699,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU113">
         <v>1.26</v>
@@ -23057,7 +23084,7 @@
         <v>1.78</v>
       </c>
       <c r="AT115">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>0</v>
@@ -23248,7 +23275,7 @@
         <v>2.36</v>
       </c>
       <c r="AT116">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU116">
         <v>0</v>
@@ -23349,7 +23376,7 @@
         <v>81</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23540,7 +23567,7 @@
         <v>157</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>1</v>
@@ -23627,10 +23654,10 @@
         <v>2.17</v>
       </c>
       <c r="AS118">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT118">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU118">
         <v>0</v>
@@ -23731,7 +23758,7 @@
         <v>81</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>12</v>
@@ -23818,10 +23845,10 @@
         <v>1</v>
       </c>
       <c r="AS119">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT119">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU119">
         <v>1.62</v>
@@ -23922,7 +23949,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24009,7 +24036,7 @@
         <v>0.67</v>
       </c>
       <c r="AS120">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT120">
         <v>0.5600000000000001</v>
@@ -24200,7 +24227,7 @@
         <v>1.67</v>
       </c>
       <c r="AS121">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT121">
         <v>1.3</v>
@@ -24304,7 +24331,7 @@
         <v>160</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24495,7 +24522,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>4</v>
@@ -24582,10 +24609,10 @@
         <v>1.83</v>
       </c>
       <c r="AS123">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT123">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>1.28</v>
@@ -24773,10 +24800,10 @@
         <v>1.25</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU124">
         <v>1.86</v>
@@ -24877,7 +24904,7 @@
         <v>163</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25068,7 +25095,7 @@
         <v>164</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25155,7 +25182,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
         <v>1.33</v>
@@ -25259,7 +25286,7 @@
         <v>81</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25540,7 +25567,7 @@
         <v>1.75</v>
       </c>
       <c r="AT128">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU128">
         <v>1.2</v>
@@ -25641,7 +25668,7 @@
         <v>165</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -25728,10 +25755,10 @@
         <v>2</v>
       </c>
       <c r="AS129">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT129">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU129">
         <v>1.57</v>
@@ -25919,7 +25946,7 @@
         <v>1.57</v>
       </c>
       <c r="AS130">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>1.22</v>
@@ -26023,7 +26050,7 @@
         <v>91</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26110,10 +26137,10 @@
         <v>0.88</v>
       </c>
       <c r="AS131">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT131">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.76</v>
@@ -26492,7 +26519,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -26686,7 +26713,7 @@
         <v>2.78</v>
       </c>
       <c r="AT134">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU134">
         <v>0</v>
@@ -26874,7 +26901,7 @@
         <v>0.71</v>
       </c>
       <c r="AS135">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT135">
         <v>0.5600000000000001</v>
@@ -26978,7 +27005,7 @@
         <v>105</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27068,7 +27095,7 @@
         <v>2.36</v>
       </c>
       <c r="AT136">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>1.05</v>
@@ -27259,7 +27286,7 @@
         <v>1.7</v>
       </c>
       <c r="AT137">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU137">
         <v>2.03</v>
@@ -27450,7 +27477,7 @@
         <v>2.5</v>
       </c>
       <c r="AT138">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU138">
         <v>1.43</v>
@@ -27551,7 +27578,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27638,7 +27665,7 @@
         <v>0.44</v>
       </c>
       <c r="AS139">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT139">
         <v>0.64</v>
@@ -27742,7 +27769,7 @@
         <v>85</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>5</v>
@@ -27832,7 +27859,7 @@
         <v>1.78</v>
       </c>
       <c r="AT140">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU140">
         <v>1.14</v>
@@ -27933,7 +27960,7 @@
         <v>172</v>
       </c>
       <c r="P141" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -28020,10 +28047,10 @@
         <v>0.78</v>
       </c>
       <c r="AS141">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT141">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU141">
         <v>1.53</v>
@@ -28214,7 +28241,7 @@
         <v>1</v>
       </c>
       <c r="AT142">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU142">
         <v>1.12</v>
@@ -28315,7 +28342,7 @@
         <v>135</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>8</v>
@@ -28402,7 +28429,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT143">
         <v>1.3</v>
@@ -28697,7 +28724,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28784,7 +28811,7 @@
         <v>1</v>
       </c>
       <c r="AS145">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT145">
         <v>0.9</v>
@@ -29169,7 +29196,7 @@
         <v>1</v>
       </c>
       <c r="AT147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>0.99</v>
@@ -29357,7 +29384,7 @@
         <v>0.7</v>
       </c>
       <c r="AS148">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT148">
         <v>0.64</v>
@@ -29739,7 +29766,7 @@
         <v>0.78</v>
       </c>
       <c r="AS150">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -29843,7 +29870,7 @@
         <v>178</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>6</v>
@@ -29933,7 +29960,7 @@
         <v>2.5</v>
       </c>
       <c r="AT151">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AU151">
         <v>1.72</v>
@@ -30367,6 +30394,1534 @@
       </c>
       <c r="BK153">
         <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>6156135</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45114.83333333334</v>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>68</v>
+      </c>
+      <c r="H154" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+      <c r="O154" t="s">
+        <v>181</v>
+      </c>
+      <c r="P154" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q154">
+        <v>4</v>
+      </c>
+      <c r="R154">
+        <v>5</v>
+      </c>
+      <c r="S154">
+        <v>9</v>
+      </c>
+      <c r="T154">
+        <v>3.2</v>
+      </c>
+      <c r="U154">
+        <v>2.1</v>
+      </c>
+      <c r="V154">
+        <v>3.4</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>2.63</v>
+      </c>
+      <c r="Y154">
+        <v>3.25</v>
+      </c>
+      <c r="Z154">
+        <v>1.33</v>
+      </c>
+      <c r="AA154">
+        <v>9</v>
+      </c>
+      <c r="AB154">
+        <v>1.07</v>
+      </c>
+      <c r="AC154">
+        <v>2.2</v>
+      </c>
+      <c r="AD154">
+        <v>3.25</v>
+      </c>
+      <c r="AE154">
+        <v>3.1</v>
+      </c>
+      <c r="AF154">
+        <v>1.06</v>
+      </c>
+      <c r="AG154">
+        <v>8.75</v>
+      </c>
+      <c r="AH154">
+        <v>1.34</v>
+      </c>
+      <c r="AI154">
+        <v>3.28</v>
+      </c>
+      <c r="AJ154">
+        <v>2.1</v>
+      </c>
+      <c r="AK154">
+        <v>1.73</v>
+      </c>
+      <c r="AL154">
+        <v>1.8</v>
+      </c>
+      <c r="AM154">
+        <v>1.91</v>
+      </c>
+      <c r="AN154">
+        <v>1.44</v>
+      </c>
+      <c r="AO154">
+        <v>1.3</v>
+      </c>
+      <c r="AP154">
+        <v>1.52</v>
+      </c>
+      <c r="AQ154">
+        <v>1.27</v>
+      </c>
+      <c r="AR154">
+        <v>2</v>
+      </c>
+      <c r="AS154">
+        <v>1.17</v>
+      </c>
+      <c r="AT154">
+        <v>2.1</v>
+      </c>
+      <c r="AU154">
+        <v>1.41</v>
+      </c>
+      <c r="AV154">
+        <v>1.34</v>
+      </c>
+      <c r="AW154">
+        <v>2.75</v>
+      </c>
+      <c r="AX154">
+        <v>1.73</v>
+      </c>
+      <c r="AY154">
+        <v>8</v>
+      </c>
+      <c r="AZ154">
+        <v>2.4</v>
+      </c>
+      <c r="BA154">
+        <v>1.27</v>
+      </c>
+      <c r="BB154">
+        <v>1.51</v>
+      </c>
+      <c r="BC154">
+        <v>1.85</v>
+      </c>
+      <c r="BD154">
+        <v>2.45</v>
+      </c>
+      <c r="BE154">
+        <v>3.34</v>
+      </c>
+      <c r="BF154">
+        <v>8</v>
+      </c>
+      <c r="BG154">
+        <v>6</v>
+      </c>
+      <c r="BH154">
+        <v>4</v>
+      </c>
+      <c r="BI154">
+        <v>4</v>
+      </c>
+      <c r="BJ154">
+        <v>12</v>
+      </c>
+      <c r="BK154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>6156139</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45115.5</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>79</v>
+      </c>
+      <c r="H155" t="s">
+        <v>80</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>182</v>
+      </c>
+      <c r="P155" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>7</v>
+      </c>
+      <c r="S155">
+        <v>7</v>
+      </c>
+      <c r="T155">
+        <v>4</v>
+      </c>
+      <c r="U155">
+        <v>2.1</v>
+      </c>
+      <c r="V155">
+        <v>2.88</v>
+      </c>
+      <c r="W155">
+        <v>1.44</v>
+      </c>
+      <c r="X155">
+        <v>2.63</v>
+      </c>
+      <c r="Y155">
+        <v>3</v>
+      </c>
+      <c r="Z155">
+        <v>1.36</v>
+      </c>
+      <c r="AA155">
+        <v>9</v>
+      </c>
+      <c r="AB155">
+        <v>1.07</v>
+      </c>
+      <c r="AC155">
+        <v>2.52</v>
+      </c>
+      <c r="AD155">
+        <v>3.05</v>
+      </c>
+      <c r="AE155">
+        <v>2.47</v>
+      </c>
+      <c r="AF155">
+        <v>1.06</v>
+      </c>
+      <c r="AG155">
+        <v>8.75</v>
+      </c>
+      <c r="AH155">
+        <v>1.33</v>
+      </c>
+      <c r="AI155">
+        <v>3.32</v>
+      </c>
+      <c r="AJ155">
+        <v>1.86</v>
+      </c>
+      <c r="AK155">
+        <v>1.68</v>
+      </c>
+      <c r="AL155">
+        <v>1.8</v>
+      </c>
+      <c r="AM155">
+        <v>1.91</v>
+      </c>
+      <c r="AN155">
+        <v>1.66</v>
+      </c>
+      <c r="AO155">
+        <v>1.29</v>
+      </c>
+      <c r="AP155">
+        <v>1.33</v>
+      </c>
+      <c r="AQ155">
+        <v>1.22</v>
+      </c>
+      <c r="AR155">
+        <v>1.11</v>
+      </c>
+      <c r="AS155">
+        <v>1.4</v>
+      </c>
+      <c r="AT155">
+        <v>1</v>
+      </c>
+      <c r="AU155">
+        <v>1.36</v>
+      </c>
+      <c r="AV155">
+        <v>1.31</v>
+      </c>
+      <c r="AW155">
+        <v>2.67</v>
+      </c>
+      <c r="AX155">
+        <v>2.2</v>
+      </c>
+      <c r="AY155">
+        <v>8</v>
+      </c>
+      <c r="AZ155">
+        <v>1.91</v>
+      </c>
+      <c r="BA155">
+        <v>1.21</v>
+      </c>
+      <c r="BB155">
+        <v>1.38</v>
+      </c>
+      <c r="BC155">
+        <v>1.65</v>
+      </c>
+      <c r="BD155">
+        <v>2.1</v>
+      </c>
+      <c r="BE155">
+        <v>2.77</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>4</v>
+      </c>
+      <c r="BH155">
+        <v>1</v>
+      </c>
+      <c r="BI155">
+        <v>6</v>
+      </c>
+      <c r="BJ155">
+        <v>6</v>
+      </c>
+      <c r="BK155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6156134</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45115.625</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>66</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>183</v>
+      </c>
+      <c r="P156" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q156">
+        <v>4</v>
+      </c>
+      <c r="R156">
+        <v>7</v>
+      </c>
+      <c r="S156">
+        <v>11</v>
+      </c>
+      <c r="T156">
+        <v>4</v>
+      </c>
+      <c r="U156">
+        <v>2.05</v>
+      </c>
+      <c r="V156">
+        <v>2.88</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>2.63</v>
+      </c>
+      <c r="Y156">
+        <v>3.25</v>
+      </c>
+      <c r="Z156">
+        <v>1.33</v>
+      </c>
+      <c r="AA156">
+        <v>10</v>
+      </c>
+      <c r="AB156">
+        <v>1.06</v>
+      </c>
+      <c r="AC156">
+        <v>2.53</v>
+      </c>
+      <c r="AD156">
+        <v>2.75</v>
+      </c>
+      <c r="AE156">
+        <v>2.31</v>
+      </c>
+      <c r="AF156">
+        <v>1.07</v>
+      </c>
+      <c r="AG156">
+        <v>7.75</v>
+      </c>
+      <c r="AH156">
+        <v>1.37</v>
+      </c>
+      <c r="AI156">
+        <v>2.8</v>
+      </c>
+      <c r="AJ156">
+        <v>2.15</v>
+      </c>
+      <c r="AK156">
+        <v>1.66</v>
+      </c>
+      <c r="AL156">
+        <v>1.91</v>
+      </c>
+      <c r="AM156">
+        <v>1.8</v>
+      </c>
+      <c r="AN156">
+        <v>1.66</v>
+      </c>
+      <c r="AO156">
+        <v>1.31</v>
+      </c>
+      <c r="AP156">
+        <v>1.32</v>
+      </c>
+      <c r="AQ156">
+        <v>1.88</v>
+      </c>
+      <c r="AR156">
+        <v>1.5</v>
+      </c>
+      <c r="AS156">
+        <v>2</v>
+      </c>
+      <c r="AT156">
+        <v>1.33</v>
+      </c>
+      <c r="AU156">
+        <v>1.27</v>
+      </c>
+      <c r="AV156">
+        <v>1.51</v>
+      </c>
+      <c r="AW156">
+        <v>2.78</v>
+      </c>
+      <c r="AX156">
+        <v>2.3</v>
+      </c>
+      <c r="AY156">
+        <v>8</v>
+      </c>
+      <c r="AZ156">
+        <v>1.8</v>
+      </c>
+      <c r="BA156">
+        <v>1.26</v>
+      </c>
+      <c r="BB156">
+        <v>1.49</v>
+      </c>
+      <c r="BC156">
+        <v>1.85</v>
+      </c>
+      <c r="BD156">
+        <v>2.37</v>
+      </c>
+      <c r="BE156">
+        <v>3.3</v>
+      </c>
+      <c r="BF156">
+        <v>2</v>
+      </c>
+      <c r="BG156">
+        <v>4</v>
+      </c>
+      <c r="BH156">
+        <v>2</v>
+      </c>
+      <c r="BI156">
+        <v>3</v>
+      </c>
+      <c r="BJ156">
+        <v>4</v>
+      </c>
+      <c r="BK156">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>6156141</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45115.72916666666</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>67</v>
+      </c>
+      <c r="H157" t="s">
+        <v>73</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>184</v>
+      </c>
+      <c r="P157" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q157">
+        <v>7</v>
+      </c>
+      <c r="R157">
+        <v>5</v>
+      </c>
+      <c r="S157">
+        <v>12</v>
+      </c>
+      <c r="T157">
+        <v>3.2</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
+        <v>3.75</v>
+      </c>
+      <c r="W157">
+        <v>1.5</v>
+      </c>
+      <c r="X157">
+        <v>2.5</v>
+      </c>
+      <c r="Y157">
+        <v>3.5</v>
+      </c>
+      <c r="Z157">
+        <v>1.29</v>
+      </c>
+      <c r="AA157">
+        <v>10</v>
+      </c>
+      <c r="AB157">
+        <v>1.06</v>
+      </c>
+      <c r="AC157">
+        <v>2.28</v>
+      </c>
+      <c r="AD157">
+        <v>3.05</v>
+      </c>
+      <c r="AE157">
+        <v>3.19</v>
+      </c>
+      <c r="AF157">
+        <v>1.08</v>
+      </c>
+      <c r="AG157">
+        <v>7.25</v>
+      </c>
+      <c r="AH157">
+        <v>1.43</v>
+      </c>
+      <c r="AI157">
+        <v>2.84</v>
+      </c>
+      <c r="AJ157">
+        <v>2.23</v>
+      </c>
+      <c r="AK157">
+        <v>1.58</v>
+      </c>
+      <c r="AL157">
+        <v>2</v>
+      </c>
+      <c r="AM157">
+        <v>1.73</v>
+      </c>
+      <c r="AN157">
+        <v>1.38</v>
+      </c>
+      <c r="AO157">
+        <v>1.32</v>
+      </c>
+      <c r="AP157">
+        <v>1.55</v>
+      </c>
+      <c r="AQ157">
+        <v>1.5</v>
+      </c>
+      <c r="AR157">
+        <v>0.8</v>
+      </c>
+      <c r="AS157">
+        <v>1.64</v>
+      </c>
+      <c r="AT157">
+        <v>0.73</v>
+      </c>
+      <c r="AU157">
+        <v>1.37</v>
+      </c>
+      <c r="AV157">
+        <v>1.53</v>
+      </c>
+      <c r="AW157">
+        <v>2.9</v>
+      </c>
+      <c r="AX157">
+        <v>2.2</v>
+      </c>
+      <c r="AY157">
+        <v>8</v>
+      </c>
+      <c r="AZ157">
+        <v>1.91</v>
+      </c>
+      <c r="BA157">
+        <v>1.21</v>
+      </c>
+      <c r="BB157">
+        <v>1.42</v>
+      </c>
+      <c r="BC157">
+        <v>1.73</v>
+      </c>
+      <c r="BD157">
+        <v>2.22</v>
+      </c>
+      <c r="BE157">
+        <v>2.95</v>
+      </c>
+      <c r="BF157">
+        <v>5</v>
+      </c>
+      <c r="BG157">
+        <v>4</v>
+      </c>
+      <c r="BH157">
+        <v>3</v>
+      </c>
+      <c r="BI157">
+        <v>4</v>
+      </c>
+      <c r="BJ157">
+        <v>8</v>
+      </c>
+      <c r="BK157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6156140</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45116.52083333334</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>71</v>
+      </c>
+      <c r="H158" t="s">
+        <v>75</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>185</v>
+      </c>
+      <c r="P158" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q158">
+        <v>7</v>
+      </c>
+      <c r="R158">
+        <v>6</v>
+      </c>
+      <c r="S158">
+        <v>13</v>
+      </c>
+      <c r="T158">
+        <v>3.5</v>
+      </c>
+      <c r="U158">
+        <v>2</v>
+      </c>
+      <c r="V158">
+        <v>3.4</v>
+      </c>
+      <c r="W158">
+        <v>1.5</v>
+      </c>
+      <c r="X158">
+        <v>2.5</v>
+      </c>
+      <c r="Y158">
+        <v>3.4</v>
+      </c>
+      <c r="Z158">
+        <v>1.3</v>
+      </c>
+      <c r="AA158">
+        <v>10</v>
+      </c>
+      <c r="AB158">
+        <v>1.06</v>
+      </c>
+      <c r="AC158">
+        <v>2.6</v>
+      </c>
+      <c r="AD158">
+        <v>2.9</v>
+      </c>
+      <c r="AE158">
+        <v>2.55</v>
+      </c>
+      <c r="AF158">
+        <v>1.08</v>
+      </c>
+      <c r="AG158">
+        <v>7</v>
+      </c>
+      <c r="AH158">
+        <v>1.4</v>
+      </c>
+      <c r="AI158">
+        <v>2.75</v>
+      </c>
+      <c r="AJ158">
+        <v>2.2</v>
+      </c>
+      <c r="AK158">
+        <v>1.6</v>
+      </c>
+      <c r="AL158">
+        <v>1.91</v>
+      </c>
+      <c r="AM158">
+        <v>1.8</v>
+      </c>
+      <c r="AN158">
+        <v>1.47</v>
+      </c>
+      <c r="AO158">
+        <v>1.32</v>
+      </c>
+      <c r="AP158">
+        <v>1.46</v>
+      </c>
+      <c r="AQ158">
+        <v>1.3</v>
+      </c>
+      <c r="AR158">
+        <v>0.73</v>
+      </c>
+      <c r="AS158">
+        <v>1.18</v>
+      </c>
+      <c r="AT158">
+        <v>0.92</v>
+      </c>
+      <c r="AU158">
+        <v>1.36</v>
+      </c>
+      <c r="AV158">
+        <v>1.43</v>
+      </c>
+      <c r="AW158">
+        <v>2.79</v>
+      </c>
+      <c r="AX158">
+        <v>2.05</v>
+      </c>
+      <c r="AY158">
+        <v>8</v>
+      </c>
+      <c r="AZ158">
+        <v>1.95</v>
+      </c>
+      <c r="BA158">
+        <v>1.24</v>
+      </c>
+      <c r="BB158">
+        <v>1.52</v>
+      </c>
+      <c r="BC158">
+        <v>1.8</v>
+      </c>
+      <c r="BD158">
+        <v>2.27</v>
+      </c>
+      <c r="BE158">
+        <v>3.1</v>
+      </c>
+      <c r="BF158">
+        <v>4</v>
+      </c>
+      <c r="BG158">
+        <v>5</v>
+      </c>
+      <c r="BH158">
+        <v>3</v>
+      </c>
+      <c r="BI158">
+        <v>3</v>
+      </c>
+      <c r="BJ158">
+        <v>7</v>
+      </c>
+      <c r="BK158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6156137</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45116.625</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" t="s">
+        <v>72</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>81</v>
+      </c>
+      <c r="P159" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q159">
+        <v>6</v>
+      </c>
+      <c r="R159">
+        <v>3</v>
+      </c>
+      <c r="S159">
+        <v>9</v>
+      </c>
+      <c r="T159">
+        <v>4</v>
+      </c>
+      <c r="U159">
+        <v>2.1</v>
+      </c>
+      <c r="V159">
+        <v>2.75</v>
+      </c>
+      <c r="W159">
+        <v>1.4</v>
+      </c>
+      <c r="X159">
+        <v>2.75</v>
+      </c>
+      <c r="Y159">
+        <v>3</v>
+      </c>
+      <c r="Z159">
+        <v>1.36</v>
+      </c>
+      <c r="AA159">
+        <v>9</v>
+      </c>
+      <c r="AB159">
+        <v>1.07</v>
+      </c>
+      <c r="AC159">
+        <v>4.3</v>
+      </c>
+      <c r="AD159">
+        <v>3.3</v>
+      </c>
+      <c r="AE159">
+        <v>1.86</v>
+      </c>
+      <c r="AF159">
+        <v>1.06</v>
+      </c>
+      <c r="AG159">
+        <v>8</v>
+      </c>
+      <c r="AH159">
+        <v>1.33</v>
+      </c>
+      <c r="AI159">
+        <v>3.25</v>
+      </c>
+      <c r="AJ159">
+        <v>2.03</v>
+      </c>
+      <c r="AK159">
+        <v>1.73</v>
+      </c>
+      <c r="AL159">
+        <v>1.8</v>
+      </c>
+      <c r="AM159">
+        <v>1.91</v>
+      </c>
+      <c r="AN159">
+        <v>1.71</v>
+      </c>
+      <c r="AO159">
+        <v>1.3</v>
+      </c>
+      <c r="AP159">
+        <v>1.3</v>
+      </c>
+      <c r="AQ159">
+        <v>1.33</v>
+      </c>
+      <c r="AR159">
+        <v>1.78</v>
+      </c>
+      <c r="AS159">
+        <v>1.2</v>
+      </c>
+      <c r="AT159">
+        <v>1.9</v>
+      </c>
+      <c r="AU159">
+        <v>1.97</v>
+      </c>
+      <c r="AV159">
+        <v>1.3</v>
+      </c>
+      <c r="AW159">
+        <v>3.27</v>
+      </c>
+      <c r="AX159">
+        <v>2.25</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>1.83</v>
+      </c>
+      <c r="BA159">
+        <v>1.24</v>
+      </c>
+      <c r="BB159">
+        <v>1.53</v>
+      </c>
+      <c r="BC159">
+        <v>1.83</v>
+      </c>
+      <c r="BD159">
+        <v>2.29</v>
+      </c>
+      <c r="BE159">
+        <v>3.15</v>
+      </c>
+      <c r="BF159">
+        <v>3</v>
+      </c>
+      <c r="BG159">
+        <v>6</v>
+      </c>
+      <c r="BH159">
+        <v>5</v>
+      </c>
+      <c r="BI159">
+        <v>4</v>
+      </c>
+      <c r="BJ159">
+        <v>8</v>
+      </c>
+      <c r="BK159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6156138</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45116.75</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>65</v>
+      </c>
+      <c r="H160" t="s">
+        <v>70</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>4</v>
+      </c>
+      <c r="O160" t="s">
+        <v>186</v>
+      </c>
+      <c r="P160" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>7</v>
+      </c>
+      <c r="S160">
+        <v>11</v>
+      </c>
+      <c r="T160">
+        <v>5.5</v>
+      </c>
+      <c r="U160">
+        <v>2.2</v>
+      </c>
+      <c r="V160">
+        <v>2.25</v>
+      </c>
+      <c r="W160">
+        <v>1.4</v>
+      </c>
+      <c r="X160">
+        <v>2.75</v>
+      </c>
+      <c r="Y160">
+        <v>3</v>
+      </c>
+      <c r="Z160">
+        <v>1.36</v>
+      </c>
+      <c r="AA160">
+        <v>8</v>
+      </c>
+      <c r="AB160">
+        <v>1.08</v>
+      </c>
+      <c r="AC160">
+        <v>7.2</v>
+      </c>
+      <c r="AD160">
+        <v>4.6</v>
+      </c>
+      <c r="AE160">
+        <v>1.4</v>
+      </c>
+      <c r="AF160">
+        <v>1.06</v>
+      </c>
+      <c r="AG160">
+        <v>8</v>
+      </c>
+      <c r="AH160">
+        <v>1.3</v>
+      </c>
+      <c r="AI160">
+        <v>3.4</v>
+      </c>
+      <c r="AJ160">
+        <v>1.92</v>
+      </c>
+      <c r="AK160">
+        <v>1.82</v>
+      </c>
+      <c r="AL160">
+        <v>2</v>
+      </c>
+      <c r="AM160">
+        <v>1.73</v>
+      </c>
+      <c r="AN160">
+        <v>2.2</v>
+      </c>
+      <c r="AO160">
+        <v>1.24</v>
+      </c>
+      <c r="AP160">
+        <v>1.17</v>
+      </c>
+      <c r="AQ160">
+        <v>0.89</v>
+      </c>
+      <c r="AR160">
+        <v>1.1</v>
+      </c>
+      <c r="AS160">
+        <v>0.9</v>
+      </c>
+      <c r="AT160">
+        <v>1.09</v>
+      </c>
+      <c r="AU160">
+        <v>1.3</v>
+      </c>
+      <c r="AV160">
+        <v>1.7</v>
+      </c>
+      <c r="AW160">
+        <v>3</v>
+      </c>
+      <c r="AX160">
+        <v>2.88</v>
+      </c>
+      <c r="AY160">
+        <v>8.5</v>
+      </c>
+      <c r="AZ160">
+        <v>1.53</v>
+      </c>
+      <c r="BA160">
+        <v>1.23</v>
+      </c>
+      <c r="BB160">
+        <v>1.5</v>
+      </c>
+      <c r="BC160">
+        <v>1.81</v>
+      </c>
+      <c r="BD160">
+        <v>2.21</v>
+      </c>
+      <c r="BE160">
+        <v>2.9</v>
+      </c>
+      <c r="BF160">
+        <v>4</v>
+      </c>
+      <c r="BG160">
+        <v>6</v>
+      </c>
+      <c r="BH160">
+        <v>4</v>
+      </c>
+      <c r="BI160">
+        <v>7</v>
+      </c>
+      <c r="BJ160">
+        <v>8</v>
+      </c>
+      <c r="BK160">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>6156136</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45117.79166666666</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>69</v>
+      </c>
+      <c r="H161" t="s">
+        <v>74</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" t="s">
+        <v>81</v>
+      </c>
+      <c r="P161" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q161">
+        <v>7</v>
+      </c>
+      <c r="R161">
+        <v>3</v>
+      </c>
+      <c r="S161">
+        <v>10</v>
+      </c>
+      <c r="T161">
+        <v>3</v>
+      </c>
+      <c r="U161">
+        <v>2.2</v>
+      </c>
+      <c r="V161">
+        <v>3.6</v>
+      </c>
+      <c r="W161">
+        <v>1.4</v>
+      </c>
+      <c r="X161">
+        <v>2.75</v>
+      </c>
+      <c r="Y161">
+        <v>2.75</v>
+      </c>
+      <c r="Z161">
+        <v>1.4</v>
+      </c>
+      <c r="AA161">
+        <v>8</v>
+      </c>
+      <c r="AB161">
+        <v>1.08</v>
+      </c>
+      <c r="AC161">
+        <v>2.14</v>
+      </c>
+      <c r="AD161">
+        <v>3.5</v>
+      </c>
+      <c r="AE161">
+        <v>3.43</v>
+      </c>
+      <c r="AF161">
+        <v>1.02</v>
+      </c>
+      <c r="AG161">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH161">
+        <v>1.29</v>
+      </c>
+      <c r="AI161">
+        <v>3.22</v>
+      </c>
+      <c r="AJ161">
+        <v>1.96</v>
+      </c>
+      <c r="AK161">
+        <v>1.87</v>
+      </c>
+      <c r="AL161">
+        <v>1.73</v>
+      </c>
+      <c r="AM161">
+        <v>2</v>
+      </c>
+      <c r="AN161">
+        <v>1.36</v>
+      </c>
+      <c r="AO161">
+        <v>1.29</v>
+      </c>
+      <c r="AP161">
+        <v>1.58</v>
+      </c>
+      <c r="AQ161">
+        <v>0.7</v>
+      </c>
+      <c r="AR161">
+        <v>0.8</v>
+      </c>
+      <c r="AS161">
+        <v>0.64</v>
+      </c>
+      <c r="AT161">
+        <v>1</v>
+      </c>
+      <c r="AU161">
+        <v>1.36</v>
+      </c>
+      <c r="AV161">
+        <v>0.85</v>
+      </c>
+      <c r="AW161">
+        <v>2.21</v>
+      </c>
+      <c r="AX161">
+        <v>1.73</v>
+      </c>
+      <c r="AY161">
+        <v>8</v>
+      </c>
+      <c r="AZ161">
+        <v>2.38</v>
+      </c>
+      <c r="BA161">
+        <v>1.22</v>
+      </c>
+      <c r="BB161">
+        <v>1.49</v>
+      </c>
+      <c r="BC161">
+        <v>1.7</v>
+      </c>
+      <c r="BD161">
+        <v>2.25</v>
+      </c>
+      <c r="BE161">
+        <v>3</v>
+      </c>
+      <c r="BF161">
+        <v>6</v>
+      </c>
+      <c r="BG161">
+        <v>3</v>
+      </c>
+      <c r="BH161">
+        <v>6</v>
+      </c>
+      <c r="BI161">
+        <v>0</v>
+      </c>
+      <c r="BJ161">
+        <v>12</v>
+      </c>
+      <c r="BK161">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
